--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,12 @@
     <t>['6', '14', '51']</t>
   </si>
   <si>
+    <t>['52', '62']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -590,6 +596,12 @@
   </si>
   <si>
     <t>['8', '12', '90+5']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1207,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1285,7 +1297,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1386,7 +1398,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1476,7 +1488,7 @@
         <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1577,7 +1589,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.57</v>
@@ -1768,7 +1780,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1959,7 +1971,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2046,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT6">
         <v>0.71</v>
@@ -2150,7 +2162,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2341,7 +2353,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2431,7 +2443,7 @@
         <v>0.57</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3004,7 +3016,7 @@
         <v>2.63</v>
       </c>
       <c r="AT11">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3105,7 +3117,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3192,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU12">
         <v>1.81</v>
@@ -3296,7 +3308,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3383,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT13">
         <v>0.14</v>
@@ -3487,7 +3499,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3574,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3768,7 +3780,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -3869,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3956,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT16">
         <v>2.57</v>
@@ -4060,7 +4072,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4341,7 +4353,7 @@
         <v>2.63</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU18">
         <v>1.43</v>
@@ -4442,7 +4454,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4633,7 +4645,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4914,7 +4926,7 @@
         <v>2.67</v>
       </c>
       <c r="AT21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU21">
         <v>1.21</v>
@@ -5102,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT22">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5206,7 +5218,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5588,7 +5600,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5675,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>0.17</v>
@@ -5866,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT26">
         <v>0.57</v>
@@ -5970,7 +5982,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6161,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6352,7 +6364,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6543,7 +6555,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6633,7 +6645,7 @@
         <v>1.86</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6734,7 +6746,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6824,7 +6836,7 @@
         <v>2.63</v>
       </c>
       <c r="AT31">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -6925,7 +6937,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7012,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -7203,10 +7215,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU33">
         <v>1.46</v>
@@ -7307,7 +7319,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7394,7 +7406,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT34">
         <v>2.43</v>
@@ -7498,7 +7510,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7585,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT35">
         <v>0.17</v>
@@ -7689,7 +7701,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7779,7 +7791,7 @@
         <v>2.67</v>
       </c>
       <c r="AT36">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -7880,7 +7892,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7970,7 +7982,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8262,7 +8274,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8453,7 +8465,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8543,7 +8555,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8644,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9026,7 +9038,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9495,10 +9507,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9599,7 +9611,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9686,7 +9698,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT46">
         <v>2.43</v>
@@ -9790,7 +9802,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9877,7 +9889,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT47">
         <v>0.71</v>
@@ -9981,7 +9993,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10071,7 +10083,7 @@
         <v>1.86</v>
       </c>
       <c r="AT48">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10172,7 +10184,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10259,10 +10271,10 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU49">
         <v>1.51</v>
@@ -10363,7 +10375,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11127,7 +11139,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11318,7 +11330,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11599,7 +11611,7 @@
         <v>0.57</v>
       </c>
       <c r="AT56">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11700,7 +11712,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11978,7 +11990,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT58">
         <v>1.29</v>
@@ -12082,7 +12094,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12172,7 +12184,7 @@
         <v>1.25</v>
       </c>
       <c r="AT59">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU59">
         <v>1.32</v>
@@ -12464,7 +12476,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12655,7 +12667,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12742,7 +12754,7 @@
         <v>0.8</v>
       </c>
       <c r="AS62">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.71</v>
@@ -12846,7 +12858,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12933,10 +12945,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.6</v>
@@ -13127,7 +13139,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13228,7 +13240,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13419,7 +13431,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13509,7 +13521,7 @@
         <v>2.67</v>
       </c>
       <c r="AT66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -13610,7 +13622,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13697,7 +13709,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
         <v>2.57</v>
@@ -13801,7 +13813,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13992,7 +14004,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14464,7 +14476,7 @@
         <v>0.57</v>
       </c>
       <c r="AT71">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -14565,7 +14577,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14652,10 +14664,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU72">
         <v>1.29</v>
@@ -14756,7 +14768,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14843,7 +14855,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT73">
         <v>2.57</v>
@@ -15416,7 +15428,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -15610,7 +15622,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15711,7 +15723,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15798,7 +15810,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
         <v>1.29</v>
@@ -16093,7 +16105,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16374,7 +16386,7 @@
         <v>2.17</v>
       </c>
       <c r="AT81">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU81">
         <v>1.81</v>
@@ -16562,7 +16574,7 @@
         <v>0.17</v>
       </c>
       <c r="AS82">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT82">
         <v>0.14</v>
@@ -16666,7 +16678,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16808,6 +16820,770 @@
       </c>
       <c r="BK83">
         <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4933965</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45119.67708333334</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>67</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>143</v>
+      </c>
+      <c r="P84" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <v>12</v>
+      </c>
+      <c r="T84">
+        <v>1.72</v>
+      </c>
+      <c r="U84">
+        <v>2.7</v>
+      </c>
+      <c r="V84">
+        <v>6</v>
+      </c>
+      <c r="W84">
+        <v>1.2</v>
+      </c>
+      <c r="X84">
+        <v>4.33</v>
+      </c>
+      <c r="Y84">
+        <v>1.95</v>
+      </c>
+      <c r="Z84">
+        <v>1.75</v>
+      </c>
+      <c r="AA84">
+        <v>3.75</v>
+      </c>
+      <c r="AB84">
+        <v>1.25</v>
+      </c>
+      <c r="AC84">
+        <v>1.36</v>
+      </c>
+      <c r="AD84">
+        <v>5</v>
+      </c>
+      <c r="AE84">
+        <v>6</v>
+      </c>
+      <c r="AF84">
+        <v>1.02</v>
+      </c>
+      <c r="AG84">
+        <v>15</v>
+      </c>
+      <c r="AH84">
+        <v>1.09</v>
+      </c>
+      <c r="AI84">
+        <v>6</v>
+      </c>
+      <c r="AJ84">
+        <v>1.35</v>
+      </c>
+      <c r="AK84">
+        <v>2.94</v>
+      </c>
+      <c r="AL84">
+        <v>1.57</v>
+      </c>
+      <c r="AM84">
+        <v>2.25</v>
+      </c>
+      <c r="AN84">
+        <v>1.04</v>
+      </c>
+      <c r="AO84">
+        <v>1.1</v>
+      </c>
+      <c r="AP84">
+        <v>2.95</v>
+      </c>
+      <c r="AQ84">
+        <v>1.83</v>
+      </c>
+      <c r="AR84">
+        <v>0.33</v>
+      </c>
+      <c r="AS84">
+        <v>2</v>
+      </c>
+      <c r="AT84">
+        <v>0.29</v>
+      </c>
+      <c r="AU84">
+        <v>1.74</v>
+      </c>
+      <c r="AV84">
+        <v>1.46</v>
+      </c>
+      <c r="AW84">
+        <v>3.2</v>
+      </c>
+      <c r="AX84">
+        <v>1.3</v>
+      </c>
+      <c r="AY84">
+        <v>11</v>
+      </c>
+      <c r="AZ84">
+        <v>4.39</v>
+      </c>
+      <c r="BA84">
+        <v>1.08</v>
+      </c>
+      <c r="BB84">
+        <v>1.12</v>
+      </c>
+      <c r="BC84">
+        <v>1.25</v>
+      </c>
+      <c r="BD84">
+        <v>1.46</v>
+      </c>
+      <c r="BE84">
+        <v>1.95</v>
+      </c>
+      <c r="BF84">
+        <v>6</v>
+      </c>
+      <c r="BG84">
+        <v>2</v>
+      </c>
+      <c r="BH84">
+        <v>3</v>
+      </c>
+      <c r="BI84">
+        <v>14</v>
+      </c>
+      <c r="BJ84">
+        <v>9</v>
+      </c>
+      <c r="BK84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4933964</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45120.67708333334</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>11</v>
+      </c>
+      <c r="T85">
+        <v>3.92</v>
+      </c>
+      <c r="U85">
+        <v>2.32</v>
+      </c>
+      <c r="V85">
+        <v>2.51</v>
+      </c>
+      <c r="W85">
+        <v>1.3</v>
+      </c>
+      <c r="X85">
+        <v>3.34</v>
+      </c>
+      <c r="Y85">
+        <v>2.49</v>
+      </c>
+      <c r="Z85">
+        <v>1.55</v>
+      </c>
+      <c r="AA85">
+        <v>5.55</v>
+      </c>
+      <c r="AB85">
+        <v>1.13</v>
+      </c>
+      <c r="AC85">
+        <v>3.32</v>
+      </c>
+      <c r="AD85">
+        <v>3.75</v>
+      </c>
+      <c r="AE85">
+        <v>2.06</v>
+      </c>
+      <c r="AF85">
+        <v>1.02</v>
+      </c>
+      <c r="AG85">
+        <v>12</v>
+      </c>
+      <c r="AH85">
+        <v>1.2</v>
+      </c>
+      <c r="AI85">
+        <v>4.33</v>
+      </c>
+      <c r="AJ85">
+        <v>1.6</v>
+      </c>
+      <c r="AK85">
+        <v>2.2</v>
+      </c>
+      <c r="AL85">
+        <v>1.56</v>
+      </c>
+      <c r="AM85">
+        <v>2.36</v>
+      </c>
+      <c r="AN85">
+        <v>1.62</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85">
+        <v>1.17</v>
+      </c>
+      <c r="AR85">
+        <v>1.14</v>
+      </c>
+      <c r="AS85">
+        <v>1.14</v>
+      </c>
+      <c r="AT85">
+        <v>1.13</v>
+      </c>
+      <c r="AU85">
+        <v>1.33</v>
+      </c>
+      <c r="AV85">
+        <v>1.8</v>
+      </c>
+      <c r="AW85">
+        <v>3.13</v>
+      </c>
+      <c r="AX85">
+        <v>2.77</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>1.59</v>
+      </c>
+      <c r="BA85">
+        <v>1.13</v>
+      </c>
+      <c r="BB85">
+        <v>1.16</v>
+      </c>
+      <c r="BC85">
+        <v>1.32</v>
+      </c>
+      <c r="BD85">
+        <v>1.57</v>
+      </c>
+      <c r="BE85">
+        <v>1.93</v>
+      </c>
+      <c r="BF85">
+        <v>7</v>
+      </c>
+      <c r="BG85">
+        <v>6</v>
+      </c>
+      <c r="BH85">
+        <v>8</v>
+      </c>
+      <c r="BI85">
+        <v>7</v>
+      </c>
+      <c r="BJ85">
+        <v>15</v>
+      </c>
+      <c r="BK85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>4933966</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45121.71875</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>80</v>
+      </c>
+      <c r="P86" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>8</v>
+      </c>
+      <c r="S86">
+        <v>8</v>
+      </c>
+      <c r="T86">
+        <v>4.33</v>
+      </c>
+      <c r="U86">
+        <v>2.55</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.22</v>
+      </c>
+      <c r="X86">
+        <v>4</v>
+      </c>
+      <c r="Y86">
+        <v>2.05</v>
+      </c>
+      <c r="Z86">
+        <v>1.68</v>
+      </c>
+      <c r="AA86">
+        <v>4</v>
+      </c>
+      <c r="AB86">
+        <v>1.22</v>
+      </c>
+      <c r="AC86">
+        <v>4.6</v>
+      </c>
+      <c r="AD86">
+        <v>4.05</v>
+      </c>
+      <c r="AE86">
+        <v>1.55</v>
+      </c>
+      <c r="AF86">
+        <v>1.02</v>
+      </c>
+      <c r="AG86">
+        <v>13</v>
+      </c>
+      <c r="AH86">
+        <v>1.12</v>
+      </c>
+      <c r="AI86">
+        <v>5.5</v>
+      </c>
+      <c r="AJ86">
+        <v>1.38</v>
+      </c>
+      <c r="AK86">
+        <v>2.6</v>
+      </c>
+      <c r="AL86">
+        <v>1.45</v>
+      </c>
+      <c r="AM86">
+        <v>2.6</v>
+      </c>
+      <c r="AN86">
+        <v>2.3</v>
+      </c>
+      <c r="AO86">
+        <v>1.16</v>
+      </c>
+      <c r="AP86">
+        <v>1.15</v>
+      </c>
+      <c r="AQ86">
+        <v>1.86</v>
+      </c>
+      <c r="AR86">
+        <v>1.75</v>
+      </c>
+      <c r="AS86">
+        <v>1.63</v>
+      </c>
+      <c r="AT86">
+        <v>1.89</v>
+      </c>
+      <c r="AU86">
+        <v>1.62</v>
+      </c>
+      <c r="AV86">
+        <v>1.52</v>
+      </c>
+      <c r="AW86">
+        <v>3.14</v>
+      </c>
+      <c r="AX86">
+        <v>2.9</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>1.55</v>
+      </c>
+      <c r="BA86">
+        <v>1.12</v>
+      </c>
+      <c r="BB86">
+        <v>1.23</v>
+      </c>
+      <c r="BC86">
+        <v>1.42</v>
+      </c>
+      <c r="BD86">
+        <v>1.8</v>
+      </c>
+      <c r="BE86">
+        <v>2.04</v>
+      </c>
+      <c r="BF86">
+        <v>3</v>
+      </c>
+      <c r="BG86">
+        <v>12</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>7</v>
+      </c>
+      <c r="BJ86">
+        <v>7</v>
+      </c>
+      <c r="BK86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>4933967</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45123.54166666666</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>7</v>
+      </c>
+      <c r="T87">
+        <v>2.05</v>
+      </c>
+      <c r="U87">
+        <v>2.4</v>
+      </c>
+      <c r="V87">
+        <v>4.75</v>
+      </c>
+      <c r="W87">
+        <v>1.29</v>
+      </c>
+      <c r="X87">
+        <v>3.5</v>
+      </c>
+      <c r="Y87">
+        <v>2.38</v>
+      </c>
+      <c r="Z87">
+        <v>1.53</v>
+      </c>
+      <c r="AA87">
+        <v>5</v>
+      </c>
+      <c r="AB87">
+        <v>1.14</v>
+      </c>
+      <c r="AC87">
+        <v>1.69</v>
+      </c>
+      <c r="AD87">
+        <v>3.74</v>
+      </c>
+      <c r="AE87">
+        <v>3.74</v>
+      </c>
+      <c r="AF87">
+        <v>1.02</v>
+      </c>
+      <c r="AG87">
+        <v>10</v>
+      </c>
+      <c r="AH87">
+        <v>1.15</v>
+      </c>
+      <c r="AI87">
+        <v>4.7</v>
+      </c>
+      <c r="AJ87">
+        <v>1.57</v>
+      </c>
+      <c r="AK87">
+        <v>2.25</v>
+      </c>
+      <c r="AL87">
+        <v>1.67</v>
+      </c>
+      <c r="AM87">
+        <v>2.1</v>
+      </c>
+      <c r="AN87">
+        <v>1.13</v>
+      </c>
+      <c r="AO87">
+        <v>1.22</v>
+      </c>
+      <c r="AP87">
+        <v>2.15</v>
+      </c>
+      <c r="AQ87">
+        <v>1.71</v>
+      </c>
+      <c r="AR87">
+        <v>0.71</v>
+      </c>
+      <c r="AS87">
+        <v>1.63</v>
+      </c>
+      <c r="AT87">
+        <v>0.75</v>
+      </c>
+      <c r="AU87">
+        <v>1.69</v>
+      </c>
+      <c r="AV87">
+        <v>1.13</v>
+      </c>
+      <c r="AW87">
+        <v>2.82</v>
+      </c>
+      <c r="AX87">
+        <v>1.34</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>3.85</v>
+      </c>
+      <c r="BA87">
+        <v>1.11</v>
+      </c>
+      <c r="BB87">
+        <v>1.16</v>
+      </c>
+      <c r="BC87">
+        <v>1.32</v>
+      </c>
+      <c r="BD87">
+        <v>1.56</v>
+      </c>
+      <c r="BE87">
+        <v>1.92</v>
+      </c>
+      <c r="BF87">
+        <v>7</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>8</v>
+      </c>
+      <c r="BI87">
+        <v>2</v>
+      </c>
+      <c r="BJ87">
+        <v>15</v>
+      </c>
+      <c r="BK87">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['27', '65']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1210,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1398,7 +1401,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1589,7 +1592,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1780,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>2.43</v>
@@ -1971,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2162,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2353,7 +2356,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3117,7 +3120,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3308,7 +3311,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3499,7 +3502,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3881,7 +3884,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3971,7 +3974,7 @@
         <v>1.63</v>
       </c>
       <c r="AT16">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -4072,7 +4075,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4454,7 +4457,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4541,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>1.29</v>
@@ -4645,7 +4648,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5218,7 +5221,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5600,7 +5603,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5982,7 +5985,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6173,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6364,7 +6367,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6454,7 +6457,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6555,7 +6558,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6642,7 +6645,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>1.89</v>
@@ -6746,7 +6749,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6937,7 +6940,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7319,7 +7322,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7510,7 +7513,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7701,7 +7704,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7892,7 +7895,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8170,7 +8173,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0.57</v>
@@ -8274,7 +8277,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8364,7 +8367,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8465,7 +8468,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8656,7 +8659,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9038,7 +9041,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9611,7 +9614,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9802,7 +9805,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9993,7 +9996,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10080,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0.29</v>
@@ -10184,7 +10187,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10375,7 +10378,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10656,7 +10659,7 @@
         <v>2.17</v>
       </c>
       <c r="AT51">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -11139,7 +11142,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11330,7 +11333,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11712,7 +11715,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11802,7 +11805,7 @@
         <v>2.63</v>
       </c>
       <c r="AT57">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12094,7 +12097,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12372,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -12476,7 +12479,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12667,7 +12670,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12858,7 +12861,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13240,7 +13243,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13431,7 +13434,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13622,7 +13625,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13712,7 +13715,7 @@
         <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13813,7 +13816,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14004,7 +14007,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14577,7 +14580,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14768,7 +14771,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14858,7 +14861,7 @@
         <v>1.63</v>
       </c>
       <c r="AT73">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU73">
         <v>1.72</v>
@@ -15723,7 +15726,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16001,7 +16004,7 @@
         <v>0.83</v>
       </c>
       <c r="AS79">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT79">
         <v>0.71</v>
@@ -16105,7 +16108,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16678,7 +16681,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17251,7 +17254,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17442,7 +17445,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17584,6 +17587,197 @@
       </c>
       <c r="BK87">
         <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>4933970</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45124.67708333334</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q88">
+        <v>-1</v>
+      </c>
+      <c r="R88">
+        <v>-1</v>
+      </c>
+      <c r="S88">
+        <v>-1</v>
+      </c>
+      <c r="T88">
+        <v>3.54</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>2.48</v>
+      </c>
+      <c r="W88">
+        <v>1.22</v>
+      </c>
+      <c r="X88">
+        <v>4</v>
+      </c>
+      <c r="Y88">
+        <v>2.06</v>
+      </c>
+      <c r="Z88">
+        <v>1.72</v>
+      </c>
+      <c r="AA88">
+        <v>4.4</v>
+      </c>
+      <c r="AB88">
+        <v>1.19</v>
+      </c>
+      <c r="AC88">
+        <v>2.6</v>
+      </c>
+      <c r="AD88">
+        <v>3.9</v>
+      </c>
+      <c r="AE88">
+        <v>2.4</v>
+      </c>
+      <c r="AF88">
+        <v>1.02</v>
+      </c>
+      <c r="AG88">
+        <v>13</v>
+      </c>
+      <c r="AH88">
+        <v>1.12</v>
+      </c>
+      <c r="AI88">
+        <v>5.5</v>
+      </c>
+      <c r="AJ88">
+        <v>1.42</v>
+      </c>
+      <c r="AK88">
+        <v>2.65</v>
+      </c>
+      <c r="AL88">
+        <v>1.4</v>
+      </c>
+      <c r="AM88">
+        <v>2.85</v>
+      </c>
+      <c r="AN88">
+        <v>1.6</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>1.35</v>
+      </c>
+      <c r="AQ88">
+        <v>1.86</v>
+      </c>
+      <c r="AR88">
+        <v>2.57</v>
+      </c>
+      <c r="AS88">
+        <v>2</v>
+      </c>
+      <c r="AT88">
+        <v>2.25</v>
+      </c>
+      <c r="AU88">
+        <v>1.85</v>
+      </c>
+      <c r="AV88">
+        <v>1.61</v>
+      </c>
+      <c r="AW88">
+        <v>3.46</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>9.9</v>
+      </c>
+      <c r="AZ88">
+        <v>2.03</v>
+      </c>
+      <c r="BA88">
+        <v>1.12</v>
+      </c>
+      <c r="BB88">
+        <v>1.16</v>
+      </c>
+      <c r="BC88">
+        <v>1.32</v>
+      </c>
+      <c r="BD88">
+        <v>1.65</v>
+      </c>
+      <c r="BE88">
+        <v>1.99</v>
+      </c>
+      <c r="BF88">
+        <v>-1</v>
+      </c>
+      <c r="BG88">
+        <v>-1</v>
+      </c>
+      <c r="BH88">
+        <v>-1</v>
+      </c>
+      <c r="BI88">
+        <v>-1</v>
+      </c>
+      <c r="BJ88">
+        <v>-1</v>
+      </c>
+      <c r="BK88">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1213,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1401,7 +1404,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT3">
         <v>0.75</v>
@@ -1592,7 +1595,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1783,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1974,7 +1977,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2064,7 +2067,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2165,7 +2168,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2255,7 +2258,7 @@
         <v>2.17</v>
       </c>
       <c r="AT7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2356,7 +2359,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3120,7 +3123,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3311,7 +3314,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3502,7 +3505,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3884,7 +3887,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4075,7 +4078,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4162,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4457,7 +4460,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4547,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4648,7 +4651,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5221,7 +5224,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5603,7 +5606,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5985,7 +5988,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6075,7 +6078,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6176,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6263,10 +6266,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT28">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6367,7 +6370,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6454,7 +6457,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT29">
         <v>2.25</v>
@@ -6558,7 +6561,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6749,7 +6752,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6940,7 +6943,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7322,7 +7325,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7513,7 +7516,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7704,7 +7707,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7895,7 +7898,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7982,7 +7985,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT37">
         <v>1.89</v>
@@ -8277,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8468,7 +8471,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8555,7 +8558,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40">
         <v>1.89</v>
@@ -8659,7 +8662,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8749,7 +8752,7 @@
         <v>0.57</v>
       </c>
       <c r="AT41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -8940,7 +8943,7 @@
         <v>2.63</v>
       </c>
       <c r="AT42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9041,7 +9044,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9128,7 +9131,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
         <v>0.14</v>
@@ -9614,7 +9617,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9805,7 +9808,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9895,7 +9898,7 @@
         <v>1.63</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -9996,7 +9999,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10187,7 +10190,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10378,7 +10381,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10847,7 +10850,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT52">
         <v>0.57</v>
@@ -11038,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT53">
         <v>0.17</v>
@@ -11142,7 +11145,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11232,7 +11235,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11333,7 +11336,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11715,7 +11718,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11996,7 +11999,7 @@
         <v>1.63</v>
       </c>
       <c r="AT58">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.31</v>
@@ -12097,7 +12100,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12184,7 +12187,7 @@
         <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
         <v>1.13</v>
@@ -12479,7 +12482,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12670,7 +12673,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12760,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU62">
         <v>1.67</v>
@@ -12861,7 +12864,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13243,7 +13246,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13330,7 +13333,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT65">
         <v>0.57</v>
@@ -13434,7 +13437,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13625,7 +13628,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13816,7 +13819,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14007,7 +14010,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14580,7 +14583,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14771,7 +14774,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15049,7 +15052,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT74">
         <v>0.5</v>
@@ -15622,7 +15625,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -15726,7 +15729,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15816,7 +15819,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -16007,7 +16010,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16108,7 +16111,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16195,7 +16198,7 @@
         <v>2.6</v>
       </c>
       <c r="AS80">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT80">
         <v>2.43</v>
@@ -16681,7 +16684,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17254,7 +17257,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17445,7 +17448,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17639,13 +17642,13 @@
         <v>80</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R88">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S88">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T88">
         <v>3.54</v>
@@ -17762,22 +17765,404 @@
         <v>1.99</v>
       </c>
       <c r="BF88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG88">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BI88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK88">
-        <v>-1</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4933969</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45125.70833333334</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>6</v>
+      </c>
+      <c r="S89">
+        <v>12</v>
+      </c>
+      <c r="T89">
+        <v>2.72</v>
+      </c>
+      <c r="U89">
+        <v>2.38</v>
+      </c>
+      <c r="V89">
+        <v>3.27</v>
+      </c>
+      <c r="W89">
+        <v>1.25</v>
+      </c>
+      <c r="X89">
+        <v>3.75</v>
+      </c>
+      <c r="Y89">
+        <v>2.2</v>
+      </c>
+      <c r="Z89">
+        <v>1.62</v>
+      </c>
+      <c r="AA89">
+        <v>4.33</v>
+      </c>
+      <c r="AB89">
+        <v>1.2</v>
+      </c>
+      <c r="AC89">
+        <v>2.1</v>
+      </c>
+      <c r="AD89">
+        <v>3.6</v>
+      </c>
+      <c r="AE89">
+        <v>2.9</v>
+      </c>
+      <c r="AF89">
+        <v>1.02</v>
+      </c>
+      <c r="AG89">
+        <v>12</v>
+      </c>
+      <c r="AH89">
+        <v>1.15</v>
+      </c>
+      <c r="AI89">
+        <v>4.75</v>
+      </c>
+      <c r="AJ89">
+        <v>1.52</v>
+      </c>
+      <c r="AK89">
+        <v>2.45</v>
+      </c>
+      <c r="AL89">
+        <v>1.4</v>
+      </c>
+      <c r="AM89">
+        <v>2.85</v>
+      </c>
+      <c r="AN89">
+        <v>1.4</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>1.57</v>
+      </c>
+      <c r="AQ89">
+        <v>1.25</v>
+      </c>
+      <c r="AR89">
+        <v>1.29</v>
+      </c>
+      <c r="AS89">
+        <v>1.22</v>
+      </c>
+      <c r="AT89">
+        <v>1.25</v>
+      </c>
+      <c r="AU89">
+        <v>1.34</v>
+      </c>
+      <c r="AV89">
+        <v>1.45</v>
+      </c>
+      <c r="AW89">
+        <v>2.79</v>
+      </c>
+      <c r="AX89">
+        <v>1.92</v>
+      </c>
+      <c r="AY89">
+        <v>7.2</v>
+      </c>
+      <c r="AZ89">
+        <v>2.45</v>
+      </c>
+      <c r="BA89">
+        <v>1.12</v>
+      </c>
+      <c r="BB89">
+        <v>1.22</v>
+      </c>
+      <c r="BC89">
+        <v>1.37</v>
+      </c>
+      <c r="BD89">
+        <v>1.63</v>
+      </c>
+      <c r="BE89">
+        <v>1.96</v>
+      </c>
+      <c r="BF89">
+        <v>2</v>
+      </c>
+      <c r="BG89">
+        <v>6</v>
+      </c>
+      <c r="BH89">
+        <v>11</v>
+      </c>
+      <c r="BI89">
+        <v>3</v>
+      </c>
+      <c r="BJ89">
+        <v>13</v>
+      </c>
+      <c r="BK89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4933968</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45125.70833333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>146</v>
+      </c>
+      <c r="P90" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q90">
+        <v>9</v>
+      </c>
+      <c r="R90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>16</v>
+      </c>
+      <c r="T90">
+        <v>2.4</v>
+      </c>
+      <c r="U90">
+        <v>2.38</v>
+      </c>
+      <c r="V90">
+        <v>3.6</v>
+      </c>
+      <c r="W90">
+        <v>1.29</v>
+      </c>
+      <c r="X90">
+        <v>3.5</v>
+      </c>
+      <c r="Y90">
+        <v>2.25</v>
+      </c>
+      <c r="Z90">
+        <v>1.57</v>
+      </c>
+      <c r="AA90">
+        <v>5</v>
+      </c>
+      <c r="AB90">
+        <v>1.14</v>
+      </c>
+      <c r="AC90">
+        <v>2.05</v>
+      </c>
+      <c r="AD90">
+        <v>3.5</v>
+      </c>
+      <c r="AE90">
+        <v>3.05</v>
+      </c>
+      <c r="AF90">
+        <v>1.03</v>
+      </c>
+      <c r="AG90">
+        <v>9</v>
+      </c>
+      <c r="AH90">
+        <v>1.15</v>
+      </c>
+      <c r="AI90">
+        <v>4.7</v>
+      </c>
+      <c r="AJ90">
+        <v>1.56</v>
+      </c>
+      <c r="AK90">
+        <v>2.3</v>
+      </c>
+      <c r="AL90">
+        <v>1.53</v>
+      </c>
+      <c r="AM90">
+        <v>2.38</v>
+      </c>
+      <c r="AN90">
+        <v>1.25</v>
+      </c>
+      <c r="AO90">
+        <v>1.2</v>
+      </c>
+      <c r="AP90">
+        <v>1.72</v>
+      </c>
+      <c r="AQ90">
+        <v>1.67</v>
+      </c>
+      <c r="AR90">
+        <v>0.71</v>
+      </c>
+      <c r="AS90">
+        <v>1.86</v>
+      </c>
+      <c r="AT90">
+        <v>0.63</v>
+      </c>
+      <c r="AU90">
+        <v>1.46</v>
+      </c>
+      <c r="AV90">
+        <v>1.43</v>
+      </c>
+      <c r="AW90">
+        <v>2.89</v>
+      </c>
+      <c r="AX90">
+        <v>1.64</v>
+      </c>
+      <c r="AY90">
+        <v>9.9</v>
+      </c>
+      <c r="AZ90">
+        <v>2.61</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>1.19</v>
+      </c>
+      <c r="BC90">
+        <v>1.36</v>
+      </c>
+      <c r="BD90">
+        <v>1.64</v>
+      </c>
+      <c r="BE90">
+        <v>2.06</v>
+      </c>
+      <c r="BF90">
+        <v>5</v>
+      </c>
+      <c r="BG90">
+        <v>3</v>
+      </c>
+      <c r="BH90">
+        <v>11</v>
+      </c>
+      <c r="BI90">
+        <v>10</v>
+      </c>
+      <c r="BJ90">
+        <v>16</v>
+      </c>
+      <c r="BK90">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,21 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['20', '35', '44']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['14', '59', '72']</t>
+  </si>
+  <si>
+    <t>['45+3', '67']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -608,6 +623,15 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['22', '57']</t>
+  </si>
+  <si>
+    <t>['43', '45', '63', '73']</t>
+  </si>
+  <si>
+    <t>['18', '40', '90+4', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1237,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1404,7 +1428,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1595,7 +1619,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1682,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1786,7 +1810,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1876,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1977,7 +2001,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2168,7 +2192,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2255,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT7">
         <v>1.25</v>
@@ -2359,7 +2383,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2446,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2640,7 +2664,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>1.32</v>
@@ -2828,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT10">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3022,7 +3046,7 @@
         <v>2.63</v>
       </c>
       <c r="AT11">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3123,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3210,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT12">
         <v>1.89</v>
@@ -3314,7 +3338,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3401,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3505,7 +3529,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3887,7 +3911,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4078,7 +4102,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4460,7 +4484,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4651,7 +4675,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4738,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT20">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -4929,7 +4953,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT21">
         <v>1.13</v>
@@ -5120,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT22">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5224,7 +5248,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5311,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>1.41</v>
@@ -5505,7 +5529,7 @@
         <v>2.63</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5606,7 +5630,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5693,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT25">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -5887,7 +5911,7 @@
         <v>1.63</v>
       </c>
       <c r="AT26">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>1.25</v>
@@ -5988,7 +6012,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6179,7 +6203,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6266,7 +6290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT28">
         <v>1.25</v>
@@ -6370,7 +6394,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6561,7 +6585,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6752,7 +6776,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6943,7 +6967,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7030,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7221,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT33">
         <v>1.13</v>
@@ -7325,7 +7349,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7415,7 +7439,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7516,7 +7540,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7606,7 +7630,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -7707,7 +7731,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7794,7 +7818,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT36">
         <v>0.75</v>
@@ -7898,7 +7922,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8179,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.79</v>
@@ -8280,7 +8304,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8471,7 +8495,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8558,7 +8582,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT40">
         <v>1.89</v>
@@ -8662,7 +8686,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8749,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT41">
         <v>1.25</v>
@@ -9044,7 +9068,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9134,7 +9158,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9322,10 +9346,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9513,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -9617,7 +9641,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9704,10 +9728,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT46">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9808,7 +9832,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9999,7 +10023,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10089,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10190,7 +10214,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10381,7 +10405,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10471,7 +10495,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10659,7 +10683,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT51">
         <v>2.25</v>
@@ -10853,7 +10877,7 @@
         <v>1.22</v>
       </c>
       <c r="AT52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU52">
         <v>1.23</v>
@@ -11041,10 +11065,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT53">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -11145,7 +11169,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11232,7 +11256,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11336,7 +11360,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11426,7 +11450,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11614,7 +11638,7 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT56">
         <v>1.89</v>
@@ -11718,7 +11742,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12100,7 +12124,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12381,7 +12405,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12482,7 +12506,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12569,10 +12593,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT61">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12673,7 +12697,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12760,7 +12784,7 @@
         <v>0.8</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT62">
         <v>0.63</v>
@@ -12864,7 +12888,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13145,7 +13169,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13246,7 +13270,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13333,10 +13357,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.59</v>
@@ -13437,7 +13461,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13524,7 +13548,7 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT66">
         <v>1.89</v>
@@ -13628,7 +13652,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13715,7 +13739,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT67">
         <v>2.25</v>
@@ -13819,7 +13843,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13909,7 +13933,7 @@
         <v>2.63</v>
       </c>
       <c r="AT68">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14010,7 +14034,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14097,10 +14121,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14288,10 +14312,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT70">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14479,10 +14503,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT71">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -14583,7 +14607,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14670,7 +14694,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT72">
         <v>1.89</v>
@@ -14774,7 +14798,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15052,10 +15076,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT74">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15246,7 +15270,7 @@
         <v>2.63</v>
       </c>
       <c r="AT75">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15437,7 +15461,7 @@
         <v>1.63</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU76">
         <v>1.78</v>
@@ -15625,7 +15649,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -15729,7 +15753,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16111,7 +16135,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16201,7 +16225,7 @@
         <v>1.22</v>
       </c>
       <c r="AT80">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16389,10 +16413,10 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT81">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>1.81</v>
@@ -16583,7 +16607,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU82">
         <v>1.64</v>
@@ -16684,7 +16708,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16771,10 +16795,10 @@
         <v>2.67</v>
       </c>
       <c r="AS83">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT83">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -16962,10 +16986,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT84">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17153,7 +17177,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT85">
         <v>1.13</v>
@@ -17257,7 +17281,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17448,7 +17472,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18108,7 +18132,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT90">
         <v>0.63</v>
@@ -18163,6 +18187,1152 @@
       </c>
       <c r="BK90">
         <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4933971</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45128.625</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>147</v>
+      </c>
+      <c r="P91" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q91">
+        <v>9</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>15</v>
+      </c>
+      <c r="T91">
+        <v>1.89</v>
+      </c>
+      <c r="U91">
+        <v>2.6</v>
+      </c>
+      <c r="V91">
+        <v>5.82</v>
+      </c>
+      <c r="W91">
+        <v>1.25</v>
+      </c>
+      <c r="X91">
+        <v>3.72</v>
+      </c>
+      <c r="Y91">
+        <v>2.17</v>
+      </c>
+      <c r="Z91">
+        <v>1.65</v>
+      </c>
+      <c r="AA91">
+        <v>4.75</v>
+      </c>
+      <c r="AB91">
+        <v>1.17</v>
+      </c>
+      <c r="AC91">
+        <v>1.43</v>
+      </c>
+      <c r="AD91">
+        <v>4.9</v>
+      </c>
+      <c r="AE91">
+        <v>6.5</v>
+      </c>
+      <c r="AF91">
+        <v>1.02</v>
+      </c>
+      <c r="AG91">
+        <v>13</v>
+      </c>
+      <c r="AH91">
+        <v>1.14</v>
+      </c>
+      <c r="AI91">
+        <v>5</v>
+      </c>
+      <c r="AJ91">
+        <v>1.36</v>
+      </c>
+      <c r="AK91">
+        <v>2.68</v>
+      </c>
+      <c r="AL91">
+        <v>1.66</v>
+      </c>
+      <c r="AM91">
+        <v>2.16</v>
+      </c>
+      <c r="AN91">
+        <v>1.12</v>
+      </c>
+      <c r="AO91">
+        <v>1.16</v>
+      </c>
+      <c r="AP91">
+        <v>2.5</v>
+      </c>
+      <c r="AQ91">
+        <v>2.17</v>
+      </c>
+      <c r="AR91">
+        <v>0.57</v>
+      </c>
+      <c r="AS91">
+        <v>2.29</v>
+      </c>
+      <c r="AT91">
+        <v>0.5</v>
+      </c>
+      <c r="AU91">
+        <v>1.83</v>
+      </c>
+      <c r="AV91">
+        <v>1.42</v>
+      </c>
+      <c r="AW91">
+        <v>3.25</v>
+      </c>
+      <c r="AX91">
+        <v>1.23</v>
+      </c>
+      <c r="AY91">
+        <v>9.9</v>
+      </c>
+      <c r="AZ91">
+        <v>5.67</v>
+      </c>
+      <c r="BA91">
+        <v>1.08</v>
+      </c>
+      <c r="BB91">
+        <v>1.14</v>
+      </c>
+      <c r="BC91">
+        <v>1.27</v>
+      </c>
+      <c r="BD91">
+        <v>1.47</v>
+      </c>
+      <c r="BE91">
+        <v>1.78</v>
+      </c>
+      <c r="BF91">
+        <v>6</v>
+      </c>
+      <c r="BG91">
+        <v>4</v>
+      </c>
+      <c r="BH91">
+        <v>1</v>
+      </c>
+      <c r="BI91">
+        <v>2</v>
+      </c>
+      <c r="BJ91">
+        <v>7</v>
+      </c>
+      <c r="BK91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4933896</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45130.67708333334</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>148</v>
+      </c>
+      <c r="P92" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q92">
+        <v>7</v>
+      </c>
+      <c r="R92">
+        <v>8</v>
+      </c>
+      <c r="S92">
+        <v>15</v>
+      </c>
+      <c r="T92">
+        <v>3.5</v>
+      </c>
+      <c r="U92">
+        <v>2.3</v>
+      </c>
+      <c r="V92">
+        <v>2.55</v>
+      </c>
+      <c r="W92">
+        <v>1.27</v>
+      </c>
+      <c r="X92">
+        <v>3.56</v>
+      </c>
+      <c r="Y92">
+        <v>2.3</v>
+      </c>
+      <c r="Z92">
+        <v>1.55</v>
+      </c>
+      <c r="AA92">
+        <v>5.15</v>
+      </c>
+      <c r="AB92">
+        <v>1.14</v>
+      </c>
+      <c r="AC92">
+        <v>3.08</v>
+      </c>
+      <c r="AD92">
+        <v>3.7</v>
+      </c>
+      <c r="AE92">
+        <v>2</v>
+      </c>
+      <c r="AF92">
+        <v>1.02</v>
+      </c>
+      <c r="AG92">
+        <v>12</v>
+      </c>
+      <c r="AH92">
+        <v>1.18</v>
+      </c>
+      <c r="AI92">
+        <v>4.5</v>
+      </c>
+      <c r="AJ92">
+        <v>1.55</v>
+      </c>
+      <c r="AK92">
+        <v>2.29</v>
+      </c>
+      <c r="AL92">
+        <v>1.5</v>
+      </c>
+      <c r="AM92">
+        <v>2.5</v>
+      </c>
+      <c r="AN92">
+        <v>1.65</v>
+      </c>
+      <c r="AO92">
+        <v>1.22</v>
+      </c>
+      <c r="AP92">
+        <v>1.28</v>
+      </c>
+      <c r="AQ92">
+        <v>1.86</v>
+      </c>
+      <c r="AR92">
+        <v>2.43</v>
+      </c>
+      <c r="AS92">
+        <v>1.63</v>
+      </c>
+      <c r="AT92">
+        <v>2.5</v>
+      </c>
+      <c r="AU92">
+        <v>1.5</v>
+      </c>
+      <c r="AV92">
+        <v>1.83</v>
+      </c>
+      <c r="AW92">
+        <v>3.33</v>
+      </c>
+      <c r="AX92">
+        <v>2.43</v>
+      </c>
+      <c r="AY92">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92">
+        <v>1.75</v>
+      </c>
+      <c r="BA92">
+        <v>1.09</v>
+      </c>
+      <c r="BB92">
+        <v>1.16</v>
+      </c>
+      <c r="BC92">
+        <v>1.31</v>
+      </c>
+      <c r="BD92">
+        <v>1.56</v>
+      </c>
+      <c r="BE92">
+        <v>1.92</v>
+      </c>
+      <c r="BF92">
+        <v>2</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>7</v>
+      </c>
+      <c r="BI92">
+        <v>6</v>
+      </c>
+      <c r="BJ92">
+        <v>9</v>
+      </c>
+      <c r="BK92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>4933974</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45130.67708333334</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P93" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q93">
+        <v>8</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>12</v>
+      </c>
+      <c r="T93">
+        <v>1.83</v>
+      </c>
+      <c r="U93">
+        <v>2.7</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>1.2</v>
+      </c>
+      <c r="X93">
+        <v>4.3</v>
+      </c>
+      <c r="Y93">
+        <v>1.95</v>
+      </c>
+      <c r="Z93">
+        <v>1.75</v>
+      </c>
+      <c r="AA93">
+        <v>4.05</v>
+      </c>
+      <c r="AB93">
+        <v>1.22</v>
+      </c>
+      <c r="AC93">
+        <v>1.42</v>
+      </c>
+      <c r="AD93">
+        <v>5</v>
+      </c>
+      <c r="AE93">
+        <v>5.24</v>
+      </c>
+      <c r="AF93">
+        <v>1.01</v>
+      </c>
+      <c r="AG93">
+        <v>21</v>
+      </c>
+      <c r="AH93">
+        <v>1.09</v>
+      </c>
+      <c r="AI93">
+        <v>6</v>
+      </c>
+      <c r="AJ93">
+        <v>1.35</v>
+      </c>
+      <c r="AK93">
+        <v>2.94</v>
+      </c>
+      <c r="AL93">
+        <v>1.52</v>
+      </c>
+      <c r="AM93">
+        <v>2.45</v>
+      </c>
+      <c r="AN93">
+        <v>1.06</v>
+      </c>
+      <c r="AO93">
+        <v>1.12</v>
+      </c>
+      <c r="AP93">
+        <v>2.85</v>
+      </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
+      <c r="AR93">
+        <v>0.14</v>
+      </c>
+      <c r="AS93">
+        <v>2.13</v>
+      </c>
+      <c r="AT93">
+        <v>0.13</v>
+      </c>
+      <c r="AU93">
+        <v>1.68</v>
+      </c>
+      <c r="AV93">
+        <v>1.29</v>
+      </c>
+      <c r="AW93">
+        <v>2.97</v>
+      </c>
+      <c r="AX93">
+        <v>1.36</v>
+      </c>
+      <c r="AY93">
+        <v>11.5</v>
+      </c>
+      <c r="AZ93">
+        <v>3.68</v>
+      </c>
+      <c r="BA93">
+        <v>1.07</v>
+      </c>
+      <c r="BB93">
+        <v>1.15</v>
+      </c>
+      <c r="BC93">
+        <v>1.3</v>
+      </c>
+      <c r="BD93">
+        <v>1.53</v>
+      </c>
+      <c r="BE93">
+        <v>1.89</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>3</v>
+      </c>
+      <c r="BI93">
+        <v>5</v>
+      </c>
+      <c r="BJ93">
+        <v>7</v>
+      </c>
+      <c r="BK93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4933975</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45130.67708333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>149</v>
+      </c>
+      <c r="P94" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>3.1</v>
+      </c>
+      <c r="U94">
+        <v>2.4</v>
+      </c>
+      <c r="V94">
+        <v>2.6</v>
+      </c>
+      <c r="W94">
+        <v>1.25</v>
+      </c>
+      <c r="X94">
+        <v>3.72</v>
+      </c>
+      <c r="Y94">
+        <v>2.17</v>
+      </c>
+      <c r="Z94">
+        <v>1.65</v>
+      </c>
+      <c r="AA94">
+        <v>4.75</v>
+      </c>
+      <c r="AB94">
+        <v>1.17</v>
+      </c>
+      <c r="AC94">
+        <v>3.27</v>
+      </c>
+      <c r="AD94">
+        <v>3.8</v>
+      </c>
+      <c r="AE94">
+        <v>1.9</v>
+      </c>
+      <c r="AF94">
+        <v>1.02</v>
+      </c>
+      <c r="AG94">
+        <v>13.5</v>
+      </c>
+      <c r="AH94">
+        <v>1.12</v>
+      </c>
+      <c r="AI94">
+        <v>5.05</v>
+      </c>
+      <c r="AJ94">
+        <v>1.48</v>
+      </c>
+      <c r="AK94">
+        <v>2.47</v>
+      </c>
+      <c r="AL94">
+        <v>1.45</v>
+      </c>
+      <c r="AM94">
+        <v>2.65</v>
+      </c>
+      <c r="AN94">
+        <v>1.65</v>
+      </c>
+      <c r="AO94">
+        <v>1.2</v>
+      </c>
+      <c r="AP94">
+        <v>1.28</v>
+      </c>
+      <c r="AQ94">
+        <v>1.14</v>
+      </c>
+      <c r="AR94">
+        <v>0.17</v>
+      </c>
+      <c r="AS94">
+        <v>1.13</v>
+      </c>
+      <c r="AT94">
+        <v>0.29</v>
+      </c>
+      <c r="AU94">
+        <v>1.42</v>
+      </c>
+      <c r="AV94">
+        <v>1.57</v>
+      </c>
+      <c r="AW94">
+        <v>2.99</v>
+      </c>
+      <c r="AX94">
+        <v>2.43</v>
+      </c>
+      <c r="AY94">
+        <v>9.9</v>
+      </c>
+      <c r="AZ94">
+        <v>1.72</v>
+      </c>
+      <c r="BA94">
+        <v>1.12</v>
+      </c>
+      <c r="BB94">
+        <v>1.19</v>
+      </c>
+      <c r="BC94">
+        <v>1.37</v>
+      </c>
+      <c r="BD94">
+        <v>1.65</v>
+      </c>
+      <c r="BE94">
+        <v>2.08</v>
+      </c>
+      <c r="BF94">
+        <v>5</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>4</v>
+      </c>
+      <c r="BI94">
+        <v>9</v>
+      </c>
+      <c r="BJ94">
+        <v>9</v>
+      </c>
+      <c r="BK94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>4933972</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45131.625</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>7</v>
+      </c>
+      <c r="O95" t="s">
+        <v>150</v>
+      </c>
+      <c r="P95" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>11</v>
+      </c>
+      <c r="S95">
+        <v>16</v>
+      </c>
+      <c r="T95">
+        <v>3.5</v>
+      </c>
+      <c r="U95">
+        <v>2.2</v>
+      </c>
+      <c r="V95">
+        <v>2.6</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>3.4</v>
+      </c>
+      <c r="Y95">
+        <v>2.3</v>
+      </c>
+      <c r="Z95">
+        <v>1.57</v>
+      </c>
+      <c r="AA95">
+        <v>5</v>
+      </c>
+      <c r="AB95">
+        <v>1.14</v>
+      </c>
+      <c r="AC95">
+        <v>3.2</v>
+      </c>
+      <c r="AD95">
+        <v>3.6</v>
+      </c>
+      <c r="AE95">
+        <v>2.03</v>
+      </c>
+      <c r="AF95">
+        <v>1.04</v>
+      </c>
+      <c r="AG95">
+        <v>8.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.17</v>
+      </c>
+      <c r="AI95">
+        <v>4.3</v>
+      </c>
+      <c r="AJ95">
+        <v>1.6</v>
+      </c>
+      <c r="AK95">
+        <v>2.21</v>
+      </c>
+      <c r="AL95">
+        <v>1.53</v>
+      </c>
+      <c r="AM95">
+        <v>2.4</v>
+      </c>
+      <c r="AN95">
+        <v>1.72</v>
+      </c>
+      <c r="AO95">
+        <v>1.27</v>
+      </c>
+      <c r="AP95">
+        <v>1.25</v>
+      </c>
+      <c r="AQ95">
+        <v>0.57</v>
+      </c>
+      <c r="AR95">
+        <v>0.5</v>
+      </c>
+      <c r="AS95">
+        <v>0.5</v>
+      </c>
+      <c r="AT95">
+        <v>0.86</v>
+      </c>
+      <c r="AU95">
+        <v>1.16</v>
+      </c>
+      <c r="AV95">
+        <v>1.26</v>
+      </c>
+      <c r="AW95">
+        <v>2.42</v>
+      </c>
+      <c r="AX95">
+        <v>2.63</v>
+      </c>
+      <c r="AY95">
+        <v>10</v>
+      </c>
+      <c r="AZ95">
+        <v>1.65</v>
+      </c>
+      <c r="BA95">
+        <v>1.12</v>
+      </c>
+      <c r="BB95">
+        <v>1.14</v>
+      </c>
+      <c r="BC95">
+        <v>1.29</v>
+      </c>
+      <c r="BD95">
+        <v>1.52</v>
+      </c>
+      <c r="BE95">
+        <v>1.87</v>
+      </c>
+      <c r="BF95">
+        <v>7</v>
+      </c>
+      <c r="BG95">
+        <v>7</v>
+      </c>
+      <c r="BH95">
+        <v>7</v>
+      </c>
+      <c r="BI95">
+        <v>11</v>
+      </c>
+      <c r="BJ95">
+        <v>14</v>
+      </c>
+      <c r="BK95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4933976</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45131.67708333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>151</v>
+      </c>
+      <c r="P96" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q96">
+        <v>13</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96">
+        <v>16</v>
+      </c>
+      <c r="T96">
+        <v>2.3</v>
+      </c>
+      <c r="U96">
+        <v>2.4</v>
+      </c>
+      <c r="V96">
+        <v>3.7</v>
+      </c>
+      <c r="W96">
+        <v>1.25</v>
+      </c>
+      <c r="X96">
+        <v>3.6</v>
+      </c>
+      <c r="Y96">
+        <v>2.15</v>
+      </c>
+      <c r="Z96">
+        <v>1.62</v>
+      </c>
+      <c r="AA96">
+        <v>4.4</v>
+      </c>
+      <c r="AB96">
+        <v>1.17</v>
+      </c>
+      <c r="AC96">
+        <v>1.72</v>
+      </c>
+      <c r="AD96">
+        <v>4</v>
+      </c>
+      <c r="AE96">
+        <v>4</v>
+      </c>
+      <c r="AF96">
+        <v>1.02</v>
+      </c>
+      <c r="AG96">
+        <v>12</v>
+      </c>
+      <c r="AH96">
+        <v>1.12</v>
+      </c>
+      <c r="AI96">
+        <v>5.2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.53</v>
+      </c>
+      <c r="AK96">
+        <v>2.4</v>
+      </c>
+      <c r="AL96">
+        <v>1.53</v>
+      </c>
+      <c r="AM96">
+        <v>2.38</v>
+      </c>
+      <c r="AN96">
+        <v>1.2</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.9</v>
+      </c>
+      <c r="AQ96">
+        <v>2.67</v>
+      </c>
+      <c r="AR96">
+        <v>0.29</v>
+      </c>
+      <c r="AS96">
+        <v>2.29</v>
+      </c>
+      <c r="AT96">
+        <v>0.63</v>
+      </c>
+      <c r="AU96">
+        <v>1.75</v>
+      </c>
+      <c r="AV96">
+        <v>1.46</v>
+      </c>
+      <c r="AW96">
+        <v>3.21</v>
+      </c>
+      <c r="AX96">
+        <v>1.45</v>
+      </c>
+      <c r="AY96">
+        <v>9.5</v>
+      </c>
+      <c r="AZ96">
+        <v>3.18</v>
+      </c>
+      <c r="BA96">
+        <v>1.09</v>
+      </c>
+      <c r="BB96">
+        <v>1.18</v>
+      </c>
+      <c r="BC96">
+        <v>1.32</v>
+      </c>
+      <c r="BD96">
+        <v>1.6</v>
+      </c>
+      <c r="BE96">
+        <v>1.93</v>
+      </c>
+      <c r="BF96">
+        <v>3</v>
+      </c>
+      <c r="BG96">
+        <v>7</v>
+      </c>
+      <c r="BH96">
+        <v>8</v>
+      </c>
+      <c r="BI96">
+        <v>1</v>
+      </c>
+      <c r="BJ96">
+        <v>11</v>
+      </c>
+      <c r="BK96">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['45+3', '67']</t>
+  </si>
+  <si>
+    <t>['26', '64', '78', '82']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -993,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1240,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1428,7 +1431,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1619,7 +1622,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1810,7 +1813,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1897,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT5">
         <v>2.5</v>
@@ -2001,7 +2004,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2192,7 +2195,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2383,7 +2386,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3147,7 +3150,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3338,7 +3341,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3428,7 +3431,7 @@
         <v>1.13</v>
       </c>
       <c r="AT13">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3529,7 +3532,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3911,7 +3914,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4102,7 +4105,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4484,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4571,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT19">
         <v>1.25</v>
@@ -4675,7 +4678,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4765,7 +4768,7 @@
         <v>2.29</v>
       </c>
       <c r="AT20">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -5248,7 +5251,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5630,7 +5633,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6012,7 +6015,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6203,7 +6206,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6394,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6585,7 +6588,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6672,7 +6675,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT30">
         <v>1.89</v>
@@ -6776,7 +6779,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6967,7 +6970,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7349,7 +7352,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7540,7 +7543,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7731,7 +7734,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7922,7 +7925,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8200,7 +8203,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT38">
         <v>0.5</v>
@@ -8304,7 +8307,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8495,7 +8498,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8686,7 +8689,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9068,7 +9071,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9158,7 +9161,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9641,7 +9644,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9832,7 +9835,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10023,7 +10026,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10110,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
         <v>0.63</v>
@@ -10214,7 +10217,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10405,7 +10408,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11169,7 +11172,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11360,7 +11363,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11450,7 +11453,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11742,7 +11745,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12124,7 +12127,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12402,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT60">
         <v>0.86</v>
@@ -12506,7 +12509,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12697,7 +12700,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12888,7 +12891,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13270,7 +13273,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13461,7 +13464,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13652,7 +13655,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13843,7 +13846,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13933,7 +13936,7 @@
         <v>2.63</v>
       </c>
       <c r="AT68">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14034,7 +14037,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14315,7 +14318,7 @@
         <v>2.29</v>
       </c>
       <c r="AT70">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14607,7 +14610,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14798,7 +14801,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15753,7 +15756,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16031,7 +16034,7 @@
         <v>0.83</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT79">
         <v>0.63</v>
@@ -16135,7 +16138,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16607,7 +16610,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU82">
         <v>1.64</v>
@@ -16708,7 +16711,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17281,7 +17284,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17472,7 +17475,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17750,7 +17753,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT88">
         <v>2.25</v>
@@ -18236,7 +18239,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18708,7 +18711,7 @@
         <v>2.13</v>
       </c>
       <c r="AT93">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19000,7 +19003,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19191,7 +19194,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19333,6 +19336,197 @@
       </c>
       <c r="BK96">
         <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4933981</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45133.67708333334</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>152</v>
+      </c>
+      <c r="P97" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q97">
+        <v>7</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>9</v>
+      </c>
+      <c r="T97">
+        <v>2.22</v>
+      </c>
+      <c r="U97">
+        <v>2.6</v>
+      </c>
+      <c r="V97">
+        <v>3.62</v>
+      </c>
+      <c r="W97">
+        <v>1.22</v>
+      </c>
+      <c r="X97">
+        <v>4</v>
+      </c>
+      <c r="Y97">
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <v>1.73</v>
+      </c>
+      <c r="AA97">
+        <v>4</v>
+      </c>
+      <c r="AB97">
+        <v>1.22</v>
+      </c>
+      <c r="AC97">
+        <v>1.75</v>
+      </c>
+      <c r="AD97">
+        <v>3.7</v>
+      </c>
+      <c r="AE97">
+        <v>3.5</v>
+      </c>
+      <c r="AF97">
+        <v>1.02</v>
+      </c>
+      <c r="AG97">
+        <v>15</v>
+      </c>
+      <c r="AH97">
+        <v>1.12</v>
+      </c>
+      <c r="AI97">
+        <v>5.5</v>
+      </c>
+      <c r="AJ97">
+        <v>1.4</v>
+      </c>
+      <c r="AK97">
+        <v>2.85</v>
+      </c>
+      <c r="AL97">
+        <v>1.44</v>
+      </c>
+      <c r="AM97">
+        <v>2.62</v>
+      </c>
+      <c r="AN97">
+        <v>1.27</v>
+      </c>
+      <c r="AO97">
+        <v>1.22</v>
+      </c>
+      <c r="AP97">
+        <v>1.82</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>0.13</v>
+      </c>
+      <c r="AS97">
+        <v>2.11</v>
+      </c>
+      <c r="AT97">
+        <v>0.11</v>
+      </c>
+      <c r="AU97">
+        <v>1.72</v>
+      </c>
+      <c r="AV97">
+        <v>1.25</v>
+      </c>
+      <c r="AW97">
+        <v>2.97</v>
+      </c>
+      <c r="AX97">
+        <v>1.55</v>
+      </c>
+      <c r="AY97">
+        <v>9.9</v>
+      </c>
+      <c r="AZ97">
+        <v>2.88</v>
+      </c>
+      <c r="BA97">
+        <v>1.1</v>
+      </c>
+      <c r="BB97">
+        <v>1.23</v>
+      </c>
+      <c r="BC97">
+        <v>1.44</v>
+      </c>
+      <c r="BD97">
+        <v>1.78</v>
+      </c>
+      <c r="BE97">
+        <v>2.17</v>
+      </c>
+      <c r="BF97">
+        <v>5</v>
+      </c>
+      <c r="BG97">
+        <v>2</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BJ97">
+        <v>10</v>
+      </c>
+      <c r="BK97">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,15 @@
     <t>['26', '64', '78', '82']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['10', '13', '27', '72', '82', '87']</t>
+  </si>
+  <si>
+    <t>['61', '84']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -635,6 +644,12 @@
   </si>
   <si>
     <t>['18', '40', '90+4', '90+5']</t>
+  </si>
+  <si>
+    <t>['7', '43', '87']</t>
+  </si>
+  <si>
+    <t>['32', '45+2', '52', '56']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1255,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1327,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>1.13</v>
@@ -1431,7 +1446,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1622,7 +1637,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1712,7 +1727,7 @@
         <v>2.13</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1813,7 +1828,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2004,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2094,7 +2109,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2195,7 +2210,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2282,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2386,7 +2401,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2473,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2664,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU9">
         <v>1.32</v>
@@ -2858,7 +2873,7 @@
         <v>2.29</v>
       </c>
       <c r="AT10">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3046,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT11">
         <v>0.63</v>
@@ -3150,7 +3165,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3341,7 +3356,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3532,7 +3547,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3810,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
         <v>0.75</v>
@@ -3914,7 +3929,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4004,7 +4019,7 @@
         <v>1.63</v>
       </c>
       <c r="AT16">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -4105,7 +4120,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4195,7 +4210,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4383,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT18">
         <v>1.13</v>
@@ -4487,7 +4502,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4577,7 +4592,7 @@
         <v>2.11</v>
       </c>
       <c r="AT19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4678,7 +4693,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4765,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT20">
         <v>0.11</v>
@@ -5251,7 +5266,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5338,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU23">
         <v>1.41</v>
@@ -5529,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT24">
         <v>0.86</v>
@@ -5633,7 +5648,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5723,7 +5738,7 @@
         <v>2.13</v>
       </c>
       <c r="AT25">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -5914,7 +5929,7 @@
         <v>1.63</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU26">
         <v>1.25</v>
@@ -6015,7 +6030,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6102,10 +6117,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6206,7 +6221,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6293,10 +6308,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6397,7 +6412,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6487,7 +6502,7 @@
         <v>1.22</v>
       </c>
       <c r="AT29">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6588,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6779,7 +6794,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6866,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT31">
         <v>0.75</v>
@@ -6970,7 +6985,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7352,7 +7367,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7543,7 +7558,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7633,7 +7648,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -7734,7 +7749,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7925,7 +7940,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8206,7 +8221,7 @@
         <v>2.11</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU38">
         <v>1.79</v>
@@ -8307,7 +8322,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8394,10 +8409,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8498,7 +8513,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8585,7 +8600,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT40">
         <v>1.89</v>
@@ -8689,7 +8704,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8776,10 +8791,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -8967,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT42">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9071,7 +9086,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9349,7 +9364,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT44">
         <v>0.86</v>
@@ -9644,7 +9659,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9835,7 +9850,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9925,7 +9940,7 @@
         <v>1.63</v>
       </c>
       <c r="AT47">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -10026,7 +10041,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10217,7 +10232,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10408,7 +10423,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10495,7 +10510,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>2.5</v>
@@ -10686,10 +10701,10 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT51">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -10880,7 +10895,7 @@
         <v>1.22</v>
       </c>
       <c r="AT52">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU52">
         <v>1.23</v>
@@ -11068,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT53">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -11172,7 +11187,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11262,7 +11277,7 @@
         <v>2.29</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11363,7 +11378,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11450,7 +11465,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>0.11</v>
@@ -11641,7 +11656,7 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT56">
         <v>1.89</v>
@@ -11745,7 +11760,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11832,10 +11847,10 @@
         <v>2.25</v>
       </c>
       <c r="AS57">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT57">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12026,7 +12041,7 @@
         <v>1.63</v>
       </c>
       <c r="AT58">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU58">
         <v>1.31</v>
@@ -12127,7 +12142,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12509,7 +12524,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12596,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT61">
         <v>2.5</v>
@@ -12700,7 +12715,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12790,7 +12805,7 @@
         <v>2.13</v>
       </c>
       <c r="AT62">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU62">
         <v>1.67</v>
@@ -12891,7 +12906,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13169,7 +13184,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
         <v>0.63</v>
@@ -13273,7 +13288,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13360,10 +13375,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU65">
         <v>1.59</v>
@@ -13464,7 +13479,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13655,7 +13670,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13745,7 +13760,7 @@
         <v>1.13</v>
       </c>
       <c r="AT67">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13846,7 +13861,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13933,7 +13948,7 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT68">
         <v>0.11</v>
@@ -14037,7 +14052,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14124,10 +14139,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT69">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14506,7 +14521,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT71">
         <v>0.63</v>
@@ -14610,7 +14625,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14801,7 +14816,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14891,7 +14906,7 @@
         <v>1.63</v>
       </c>
       <c r="AT73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU73">
         <v>1.72</v>
@@ -15079,7 +15094,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
         <v>0.86</v>
@@ -15270,10 +15285,10 @@
         <v>0.2</v>
       </c>
       <c r="AS75">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT75">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15652,7 +15667,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -15756,7 +15771,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15846,7 +15861,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -16037,7 +16052,7 @@
         <v>2.11</v>
       </c>
       <c r="AT79">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16138,7 +16153,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16416,7 +16431,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT81">
         <v>0.63</v>
@@ -16711,7 +16726,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16798,7 +16813,7 @@
         <v>2.67</v>
       </c>
       <c r="AS83">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT83">
         <v>2.5</v>
@@ -17284,7 +17299,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17475,7 +17490,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17756,7 +17771,7 @@
         <v>2.11</v>
       </c>
       <c r="AT88">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU88">
         <v>1.85</v>
@@ -17947,7 +17962,7 @@
         <v>1.22</v>
       </c>
       <c r="AT89">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU89">
         <v>1.34</v>
@@ -18135,10 +18150,10 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU90">
         <v>1.46</v>
@@ -18239,7 +18254,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18326,10 +18341,10 @@
         <v>0.57</v>
       </c>
       <c r="AS91">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT91">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18430,7 +18445,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18517,7 +18532,7 @@
         <v>2.43</v>
       </c>
       <c r="AS92">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
         <v>2.5</v>
@@ -18902,7 +18917,7 @@
         <v>1.13</v>
       </c>
       <c r="AT94">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU94">
         <v>1.42</v>
@@ -19003,7 +19018,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19090,7 +19105,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT95">
         <v>0.86</v>
@@ -19194,7 +19209,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19527,6 +19542,961 @@
       </c>
       <c r="BK97">
         <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4933960</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45136.63541666666</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>70</v>
+      </c>
+      <c r="H98" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>115</v>
+      </c>
+      <c r="P98" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>7</v>
+      </c>
+      <c r="T98">
+        <v>1.87</v>
+      </c>
+      <c r="U98">
+        <v>2.7</v>
+      </c>
+      <c r="V98">
+        <v>4.92</v>
+      </c>
+      <c r="W98">
+        <v>1.22</v>
+      </c>
+      <c r="X98">
+        <v>3.8</v>
+      </c>
+      <c r="Y98">
+        <v>2.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.67</v>
+      </c>
+      <c r="AA98">
+        <v>4.2</v>
+      </c>
+      <c r="AB98">
+        <v>1.19</v>
+      </c>
+      <c r="AC98">
+        <v>1.63</v>
+      </c>
+      <c r="AD98">
+        <v>4.3</v>
+      </c>
+      <c r="AE98">
+        <v>4.25</v>
+      </c>
+      <c r="AF98">
+        <v>1.01</v>
+      </c>
+      <c r="AG98">
+        <v>26</v>
+      </c>
+      <c r="AH98">
+        <v>1.11</v>
+      </c>
+      <c r="AI98">
+        <v>5.5</v>
+      </c>
+      <c r="AJ98">
+        <v>1.36</v>
+      </c>
+      <c r="AK98">
+        <v>2.69</v>
+      </c>
+      <c r="AL98">
+        <v>1.55</v>
+      </c>
+      <c r="AM98">
+        <v>2.3</v>
+      </c>
+      <c r="AN98">
+        <v>1.13</v>
+      </c>
+      <c r="AO98">
+        <v>1.17</v>
+      </c>
+      <c r="AP98">
+        <v>2.4</v>
+      </c>
+      <c r="AQ98">
+        <v>2.29</v>
+      </c>
+      <c r="AR98">
+        <v>0.29</v>
+      </c>
+      <c r="AS98">
+        <v>2.13</v>
+      </c>
+      <c r="AT98">
+        <v>0.38</v>
+      </c>
+      <c r="AU98">
+        <v>1.78</v>
+      </c>
+      <c r="AV98">
+        <v>1.56</v>
+      </c>
+      <c r="AW98">
+        <v>3.34</v>
+      </c>
+      <c r="AX98">
+        <v>1.31</v>
+      </c>
+      <c r="AY98">
+        <v>9</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>1.12</v>
+      </c>
+      <c r="BB98">
+        <v>1.22</v>
+      </c>
+      <c r="BC98">
+        <v>1.39</v>
+      </c>
+      <c r="BD98">
+        <v>1.73</v>
+      </c>
+      <c r="BE98">
+        <v>2.09</v>
+      </c>
+      <c r="BF98">
+        <v>5</v>
+      </c>
+      <c r="BG98">
+        <v>4</v>
+      </c>
+      <c r="BH98">
+        <v>7</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>12</v>
+      </c>
+      <c r="BK98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4933977</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q99">
+        <v>11</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="S99">
+        <v>16</v>
+      </c>
+      <c r="T99">
+        <v>2.26</v>
+      </c>
+      <c r="U99">
+        <v>2.38</v>
+      </c>
+      <c r="V99">
+        <v>3.9</v>
+      </c>
+      <c r="W99">
+        <v>1.25</v>
+      </c>
+      <c r="X99">
+        <v>3.75</v>
+      </c>
+      <c r="Y99">
+        <v>2.31</v>
+      </c>
+      <c r="Z99">
+        <v>1.6</v>
+      </c>
+      <c r="AA99">
+        <v>4.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.17</v>
+      </c>
+      <c r="AC99">
+        <v>1.49</v>
+      </c>
+      <c r="AD99">
+        <v>3.95</v>
+      </c>
+      <c r="AE99">
+        <v>4.83</v>
+      </c>
+      <c r="AF99">
+        <v>1.02</v>
+      </c>
+      <c r="AG99">
+        <v>12</v>
+      </c>
+      <c r="AH99">
+        <v>1.15</v>
+      </c>
+      <c r="AI99">
+        <v>4.75</v>
+      </c>
+      <c r="AJ99">
+        <v>1.45</v>
+      </c>
+      <c r="AK99">
+        <v>2.55</v>
+      </c>
+      <c r="AL99">
+        <v>1.55</v>
+      </c>
+      <c r="AM99">
+        <v>2.41</v>
+      </c>
+      <c r="AN99">
+        <v>1.22</v>
+      </c>
+      <c r="AO99">
+        <v>1.22</v>
+      </c>
+      <c r="AP99">
+        <v>1.95</v>
+      </c>
+      <c r="AQ99">
+        <v>1.75</v>
+      </c>
+      <c r="AR99">
+        <v>1.25</v>
+      </c>
+      <c r="AS99">
+        <v>1.67</v>
+      </c>
+      <c r="AT99">
+        <v>1.22</v>
+      </c>
+      <c r="AU99">
+        <v>1.55</v>
+      </c>
+      <c r="AV99">
+        <v>1.44</v>
+      </c>
+      <c r="AW99">
+        <v>2.99</v>
+      </c>
+      <c r="AX99">
+        <v>1.34</v>
+      </c>
+      <c r="AY99">
+        <v>10</v>
+      </c>
+      <c r="AZ99">
+        <v>3.85</v>
+      </c>
+      <c r="BA99">
+        <v>1.09</v>
+      </c>
+      <c r="BB99">
+        <v>1.17</v>
+      </c>
+      <c r="BC99">
+        <v>1.33</v>
+      </c>
+      <c r="BD99">
+        <v>1.63</v>
+      </c>
+      <c r="BE99">
+        <v>1.95</v>
+      </c>
+      <c r="BF99">
+        <v>2</v>
+      </c>
+      <c r="BG99">
+        <v>5</v>
+      </c>
+      <c r="BH99">
+        <v>8</v>
+      </c>
+      <c r="BI99">
+        <v>11</v>
+      </c>
+      <c r="BJ99">
+        <v>10</v>
+      </c>
+      <c r="BK99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>4933978</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45137.58333333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q100">
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <v>6</v>
+      </c>
+      <c r="S100">
+        <v>11</v>
+      </c>
+      <c r="T100">
+        <v>1.91</v>
+      </c>
+      <c r="U100">
+        <v>2.5</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>1.25</v>
+      </c>
+      <c r="X100">
+        <v>3.75</v>
+      </c>
+      <c r="Y100">
+        <v>2.1</v>
+      </c>
+      <c r="Z100">
+        <v>1.67</v>
+      </c>
+      <c r="AA100">
+        <v>4.5</v>
+      </c>
+      <c r="AB100">
+        <v>1.17</v>
+      </c>
+      <c r="AC100">
+        <v>1.46</v>
+      </c>
+      <c r="AD100">
+        <v>4.85</v>
+      </c>
+      <c r="AE100">
+        <v>6.05</v>
+      </c>
+      <c r="AF100">
+        <v>1.02</v>
+      </c>
+      <c r="AG100">
+        <v>12</v>
+      </c>
+      <c r="AH100">
+        <v>1.15</v>
+      </c>
+      <c r="AI100">
+        <v>4.75</v>
+      </c>
+      <c r="AJ100">
+        <v>1.5</v>
+      </c>
+      <c r="AK100">
+        <v>2.4</v>
+      </c>
+      <c r="AL100">
+        <v>1.6</v>
+      </c>
+      <c r="AM100">
+        <v>2.25</v>
+      </c>
+      <c r="AN100">
+        <v>1.12</v>
+      </c>
+      <c r="AO100">
+        <v>1.2</v>
+      </c>
+      <c r="AP100">
+        <v>2.5</v>
+      </c>
+      <c r="AQ100">
+        <v>2.63</v>
+      </c>
+      <c r="AR100">
+        <v>0.5</v>
+      </c>
+      <c r="AS100">
+        <v>2.67</v>
+      </c>
+      <c r="AT100">
+        <v>0.44</v>
+      </c>
+      <c r="AU100">
+        <v>1.66</v>
+      </c>
+      <c r="AV100">
+        <v>1.39</v>
+      </c>
+      <c r="AW100">
+        <v>3.05</v>
+      </c>
+      <c r="AX100">
+        <v>1.45</v>
+      </c>
+      <c r="AY100">
+        <v>9.5</v>
+      </c>
+      <c r="AZ100">
+        <v>3.27</v>
+      </c>
+      <c r="BA100">
+        <v>1.08</v>
+      </c>
+      <c r="BB100">
+        <v>1.14</v>
+      </c>
+      <c r="BC100">
+        <v>1.28</v>
+      </c>
+      <c r="BD100">
+        <v>1.56</v>
+      </c>
+      <c r="BE100">
+        <v>1.87</v>
+      </c>
+      <c r="BF100">
+        <v>9</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>5</v>
+      </c>
+      <c r="BI100">
+        <v>4</v>
+      </c>
+      <c r="BJ100">
+        <v>14</v>
+      </c>
+      <c r="BK100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4933980</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45138.67708333334</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>155</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>6</v>
+      </c>
+      <c r="T101">
+        <v>4.05</v>
+      </c>
+      <c r="U101">
+        <v>2.19</v>
+      </c>
+      <c r="V101">
+        <v>2.4</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.3</v>
+      </c>
+      <c r="Z101">
+        <v>1.57</v>
+      </c>
+      <c r="AA101">
+        <v>5.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.12</v>
+      </c>
+      <c r="AC101">
+        <v>3.8</v>
+      </c>
+      <c r="AD101">
+        <v>3.6</v>
+      </c>
+      <c r="AE101">
+        <v>1.91</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>10</v>
+      </c>
+      <c r="AH101">
+        <v>1.22</v>
+      </c>
+      <c r="AI101">
+        <v>4</v>
+      </c>
+      <c r="AJ101">
+        <v>1.66</v>
+      </c>
+      <c r="AK101">
+        <v>2.09</v>
+      </c>
+      <c r="AL101">
+        <v>1.6</v>
+      </c>
+      <c r="AM101">
+        <v>2.25</v>
+      </c>
+      <c r="AN101">
+        <v>1.85</v>
+      </c>
+      <c r="AO101">
+        <v>1.2</v>
+      </c>
+      <c r="AP101">
+        <v>1.22</v>
+      </c>
+      <c r="AQ101">
+        <v>0.5</v>
+      </c>
+      <c r="AR101">
+        <v>0.63</v>
+      </c>
+      <c r="AS101">
+        <v>0.44</v>
+      </c>
+      <c r="AT101">
+        <v>0.89</v>
+      </c>
+      <c r="AU101">
+        <v>1.24</v>
+      </c>
+      <c r="AV101">
+        <v>1.42</v>
+      </c>
+      <c r="AW101">
+        <v>2.66</v>
+      </c>
+      <c r="AX101">
+        <v>2.65</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>1.64</v>
+      </c>
+      <c r="BA101">
+        <v>1.12</v>
+      </c>
+      <c r="BB101">
+        <v>1.19</v>
+      </c>
+      <c r="BC101">
+        <v>1.36</v>
+      </c>
+      <c r="BD101">
+        <v>1.74</v>
+      </c>
+      <c r="BE101">
+        <v>2</v>
+      </c>
+      <c r="BF101">
+        <v>6</v>
+      </c>
+      <c r="BG101">
+        <v>7</v>
+      </c>
+      <c r="BH101">
+        <v>6</v>
+      </c>
+      <c r="BI101">
+        <v>6</v>
+      </c>
+      <c r="BJ101">
+        <v>12</v>
+      </c>
+      <c r="BK101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>4933982</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45138.67708333334</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>80</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>5</v>
+      </c>
+      <c r="T102">
+        <v>3.15</v>
+      </c>
+      <c r="U102">
+        <v>2.28</v>
+      </c>
+      <c r="V102">
+        <v>2.73</v>
+      </c>
+      <c r="W102">
+        <v>1.27</v>
+      </c>
+      <c r="X102">
+        <v>3.56</v>
+      </c>
+      <c r="Y102">
+        <v>2.29</v>
+      </c>
+      <c r="Z102">
+        <v>1.61</v>
+      </c>
+      <c r="AA102">
+        <v>5</v>
+      </c>
+      <c r="AB102">
+        <v>1.15</v>
+      </c>
+      <c r="AC102">
+        <v>2.88</v>
+      </c>
+      <c r="AD102">
+        <v>3.5</v>
+      </c>
+      <c r="AE102">
+        <v>2.3</v>
+      </c>
+      <c r="AF102">
+        <v>1.03</v>
+      </c>
+      <c r="AG102">
+        <v>11</v>
+      </c>
+      <c r="AH102">
+        <v>1.15</v>
+      </c>
+      <c r="AI102">
+        <v>4.75</v>
+      </c>
+      <c r="AJ102">
+        <v>1.47</v>
+      </c>
+      <c r="AK102">
+        <v>2.5</v>
+      </c>
+      <c r="AL102">
+        <v>1.47</v>
+      </c>
+      <c r="AM102">
+        <v>2.64</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.35</v>
+      </c>
+      <c r="AQ102">
+        <v>1.63</v>
+      </c>
+      <c r="AR102">
+        <v>2.25</v>
+      </c>
+      <c r="AS102">
+        <v>1.44</v>
+      </c>
+      <c r="AT102">
+        <v>2.33</v>
+      </c>
+      <c r="AU102">
+        <v>1.48</v>
+      </c>
+      <c r="AV102">
+        <v>1.58</v>
+      </c>
+      <c r="AW102">
+        <v>3.06</v>
+      </c>
+      <c r="AX102">
+        <v>1.83</v>
+      </c>
+      <c r="AY102">
+        <v>9</v>
+      </c>
+      <c r="AZ102">
+        <v>2.2</v>
+      </c>
+      <c r="BA102">
+        <v>1.06</v>
+      </c>
+      <c r="BB102">
+        <v>1.1</v>
+      </c>
+      <c r="BC102">
+        <v>1.22</v>
+      </c>
+      <c r="BD102">
+        <v>1.42</v>
+      </c>
+      <c r="BE102">
+        <v>1.88</v>
+      </c>
+      <c r="BF102">
+        <v>4</v>
+      </c>
+      <c r="BG102">
+        <v>7</v>
+      </c>
+      <c r="BH102">
+        <v>7</v>
+      </c>
+      <c r="BI102">
+        <v>5</v>
+      </c>
+      <c r="BJ102">
+        <v>11</v>
+      </c>
+      <c r="BK102">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['32', '45+2', '52', '56']</t>
+  </si>
+  <si>
+    <t>['89', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2873,7 +2876,7 @@
         <v>2.29</v>
       </c>
       <c r="AT10">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3634,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
         <v>1.89</v>
@@ -5738,7 +5741,7 @@
         <v>2.13</v>
       </c>
       <c r="AT25">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -7454,7 +7457,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
         <v>2.5</v>
@@ -7648,7 +7651,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -9937,7 +9940,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
         <v>0.89</v>
@@ -11086,7 +11089,7 @@
         <v>1.44</v>
       </c>
       <c r="AT53">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -12038,7 +12041,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT58">
         <v>1.22</v>
@@ -14142,7 +14145,7 @@
         <v>0.44</v>
       </c>
       <c r="AT69">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14903,7 +14906,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
         <v>2.33</v>
@@ -15288,7 +15291,7 @@
         <v>2.67</v>
       </c>
       <c r="AT75">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15476,7 +15479,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT76">
         <v>0.86</v>
@@ -16622,7 +16625,7 @@
         <v>0.17</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT82">
         <v>0.11</v>
@@ -17577,7 +17580,7 @@
         <v>0.71</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT87">
         <v>0.75</v>
@@ -18917,7 +18920,7 @@
         <v>1.13</v>
       </c>
       <c r="AT94">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU94">
         <v>1.42</v>
@@ -19681,7 +19684,7 @@
         <v>2.13</v>
       </c>
       <c r="AT98">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>1.78</v>
@@ -20497,6 +20500,197 @@
       </c>
       <c r="BK102">
         <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>4933983</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q103">
+        <v>-1</v>
+      </c>
+      <c r="R103">
+        <v>-1</v>
+      </c>
+      <c r="S103">
+        <v>-1</v>
+      </c>
+      <c r="T103">
+        <v>3.06</v>
+      </c>
+      <c r="U103">
+        <v>2.28</v>
+      </c>
+      <c r="V103">
+        <v>3.06</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>3.34</v>
+      </c>
+      <c r="Y103">
+        <v>2.32</v>
+      </c>
+      <c r="Z103">
+        <v>1.57</v>
+      </c>
+      <c r="AA103">
+        <v>5.3</v>
+      </c>
+      <c r="AB103">
+        <v>1.14</v>
+      </c>
+      <c r="AC103">
+        <v>2.48</v>
+      </c>
+      <c r="AD103">
+        <v>3.54</v>
+      </c>
+      <c r="AE103">
+        <v>2.33</v>
+      </c>
+      <c r="AF103">
+        <v>1.03</v>
+      </c>
+      <c r="AG103">
+        <v>11</v>
+      </c>
+      <c r="AH103">
+        <v>1.17</v>
+      </c>
+      <c r="AI103">
+        <v>4.5</v>
+      </c>
+      <c r="AJ103">
+        <v>1.53</v>
+      </c>
+      <c r="AK103">
+        <v>2.25</v>
+      </c>
+      <c r="AL103">
+        <v>1.49</v>
+      </c>
+      <c r="AM103">
+        <v>2.54</v>
+      </c>
+      <c r="AN103">
+        <v>1.5</v>
+      </c>
+      <c r="AO103">
+        <v>1.29</v>
+      </c>
+      <c r="AP103">
+        <v>1.51</v>
+      </c>
+      <c r="AQ103">
+        <v>1.63</v>
+      </c>
+      <c r="AR103">
+        <v>0.38</v>
+      </c>
+      <c r="AS103">
+        <v>1.44</v>
+      </c>
+      <c r="AT103">
+        <v>0.67</v>
+      </c>
+      <c r="AU103">
+        <v>1.7</v>
+      </c>
+      <c r="AV103">
+        <v>1.55</v>
+      </c>
+      <c r="AW103">
+        <v>3.25</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>8.5</v>
+      </c>
+      <c r="AZ103">
+        <v>2.05</v>
+      </c>
+      <c r="BA103">
+        <v>1.12</v>
+      </c>
+      <c r="BB103">
+        <v>1.19</v>
+      </c>
+      <c r="BC103">
+        <v>1.37</v>
+      </c>
+      <c r="BD103">
+        <v>1.74</v>
+      </c>
+      <c r="BE103">
+        <v>2.11</v>
+      </c>
+      <c r="BF103">
+        <v>-1</v>
+      </c>
+      <c r="BG103">
+        <v>-1</v>
+      </c>
+      <c r="BH103">
+        <v>-1</v>
+      </c>
+      <c r="BI103">
+        <v>-1</v>
+      </c>
+      <c r="BJ103">
+        <v>-1</v>
+      </c>
+      <c r="BK103">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,12 @@
     <t>['61', '84']</t>
   </si>
   <si>
+    <t>['15', '89', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '21', '39', '54']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -653,6 +659,12 @@
   </si>
   <si>
     <t>['89', '90+1']</t>
+  </si>
+  <si>
+    <t>['8', '36', '54', '74']</t>
+  </si>
+  <si>
+    <t>['49', '73']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1270,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1348,7 +1360,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1449,7 +1461,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1640,7 +1652,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1727,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT4">
         <v>0.44</v>
@@ -1831,7 +1843,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2022,7 +2034,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2213,7 +2225,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2300,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT7">
         <v>1.22</v>
@@ -2404,7 +2416,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2494,7 +2506,7 @@
         <v>0.44</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3168,7 +3180,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3255,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT12">
         <v>1.89</v>
@@ -3359,7 +3371,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3550,7 +3562,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3932,7 +3944,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4123,7 +4135,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4404,7 +4416,7 @@
         <v>2.67</v>
       </c>
       <c r="AT18">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>1.43</v>
@@ -4505,7 +4517,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4696,7 +4708,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4783,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT20">
         <v>0.11</v>
@@ -4977,7 +4989,7 @@
         <v>2.29</v>
       </c>
       <c r="AT21">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>1.21</v>
@@ -5269,7 +5281,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5550,7 +5562,7 @@
         <v>2.67</v>
       </c>
       <c r="AT24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5651,7 +5663,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5738,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6033,7 +6045,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6224,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6415,7 +6427,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6606,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6797,7 +6809,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6988,7 +7000,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7078,7 +7090,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7266,10 +7278,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT33">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.46</v>
@@ -7370,7 +7382,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7561,7 +7573,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7752,7 +7764,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7943,7 +7955,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8325,7 +8337,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8516,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8707,7 +8719,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9089,7 +9101,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9367,10 +9379,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT44">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9558,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -9662,7 +9674,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9853,7 +9865,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10044,7 +10056,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10235,7 +10247,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10325,7 +10337,7 @@
         <v>1.63</v>
       </c>
       <c r="AT49">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.51</v>
@@ -10426,7 +10438,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10704,7 +10716,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT51">
         <v>2.33</v>
@@ -11190,7 +11202,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11381,7 +11393,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11763,7 +11775,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12145,7 +12157,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12235,7 +12247,7 @@
         <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU59">
         <v>1.32</v>
@@ -12426,7 +12438,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12527,7 +12539,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12614,7 +12626,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT61">
         <v>2.5</v>
@@ -12718,7 +12730,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12805,7 +12817,7 @@
         <v>0.8</v>
       </c>
       <c r="AS62">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT62">
         <v>0.89</v>
@@ -12909,7 +12921,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13291,7 +13303,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13482,7 +13494,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13673,7 +13685,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13864,7 +13876,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14055,7 +14067,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14628,7 +14640,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14819,7 +14831,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15100,7 +15112,7 @@
         <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15482,7 +15494,7 @@
         <v>1.44</v>
       </c>
       <c r="AT76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.78</v>
@@ -15774,7 +15786,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16156,7 +16168,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16434,7 +16446,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
         <v>0.63</v>
@@ -16729,7 +16741,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17007,7 +17019,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT84">
         <v>0.63</v>
@@ -17201,7 +17213,7 @@
         <v>1.13</v>
       </c>
       <c r="AT85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU85">
         <v>1.33</v>
@@ -17302,7 +17314,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17493,7 +17505,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18257,7 +18269,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18344,7 +18356,7 @@
         <v>0.57</v>
       </c>
       <c r="AS91">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT91">
         <v>0.44</v>
@@ -18448,7 +18460,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18726,7 +18738,7 @@
         <v>0.14</v>
       </c>
       <c r="AS93">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT93">
         <v>0.11</v>
@@ -19021,7 +19033,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19111,7 +19123,7 @@
         <v>0.44</v>
       </c>
       <c r="AT95">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19212,7 +19224,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19681,7 +19693,7 @@
         <v>0.29</v>
       </c>
       <c r="AS98">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT98">
         <v>0.67</v>
@@ -20167,7 +20179,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20358,7 +20370,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20549,16 +20561,16 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S103">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T103">
         <v>3.06</v>
@@ -20675,22 +20687,404 @@
         <v>2.11</v>
       </c>
       <c r="BF103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG103">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH103">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI103">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ103">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK103">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>4933984</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45144.45833333334</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>7</v>
+      </c>
+      <c r="O104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P104" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q104">
+        <v>12</v>
+      </c>
+      <c r="R104">
+        <v>8</v>
+      </c>
+      <c r="S104">
+        <v>20</v>
+      </c>
+      <c r="T104">
+        <v>2.1</v>
+      </c>
+      <c r="U104">
+        <v>2.43</v>
+      </c>
+      <c r="V104">
+        <v>4.85</v>
+      </c>
+      <c r="W104">
+        <v>1.28</v>
+      </c>
+      <c r="X104">
+        <v>3.48</v>
+      </c>
+      <c r="Y104">
+        <v>2.32</v>
+      </c>
+      <c r="Z104">
+        <v>1.57</v>
+      </c>
+      <c r="AA104">
+        <v>5.3</v>
+      </c>
+      <c r="AB104">
+        <v>1.14</v>
+      </c>
+      <c r="AC104">
+        <v>1.62</v>
+      </c>
+      <c r="AD104">
+        <v>4.3</v>
+      </c>
+      <c r="AE104">
+        <v>4.5</v>
+      </c>
+      <c r="AF104">
+        <v>1.03</v>
+      </c>
+      <c r="AG104">
+        <v>11</v>
+      </c>
+      <c r="AH104">
+        <v>1.15</v>
+      </c>
+      <c r="AI104">
+        <v>4.5</v>
+      </c>
+      <c r="AJ104">
+        <v>1.55</v>
+      </c>
+      <c r="AK104">
+        <v>2.33</v>
+      </c>
+      <c r="AL104">
+        <v>1.63</v>
+      </c>
+      <c r="AM104">
+        <v>2.19</v>
+      </c>
+      <c r="AN104">
+        <v>1.17</v>
+      </c>
+      <c r="AO104">
+        <v>1.22</v>
+      </c>
+      <c r="AP104">
+        <v>2.3</v>
+      </c>
+      <c r="AQ104">
+        <v>2.13</v>
+      </c>
+      <c r="AR104">
+        <v>1.13</v>
+      </c>
+      <c r="AS104">
+        <v>1.89</v>
+      </c>
+      <c r="AT104">
+        <v>1.33</v>
+      </c>
+      <c r="AU104">
+        <v>1.78</v>
+      </c>
+      <c r="AV104">
+        <v>1.82</v>
+      </c>
+      <c r="AW104">
+        <v>3.6</v>
+      </c>
+      <c r="AX104">
+        <v>1.51</v>
+      </c>
+      <c r="AY104">
+        <v>9</v>
+      </c>
+      <c r="AZ104">
+        <v>3.06</v>
+      </c>
+      <c r="BA104">
+        <v>1.12</v>
+      </c>
+      <c r="BB104">
+        <v>1.2</v>
+      </c>
+      <c r="BC104">
+        <v>1.37</v>
+      </c>
+      <c r="BD104">
+        <v>1.71</v>
+      </c>
+      <c r="BE104">
+        <v>2.09</v>
+      </c>
+      <c r="BF104">
+        <v>10</v>
+      </c>
+      <c r="BG104">
+        <v>8</v>
+      </c>
+      <c r="BH104">
+        <v>11</v>
+      </c>
+      <c r="BI104">
+        <v>7</v>
+      </c>
+      <c r="BJ104">
+        <v>21</v>
+      </c>
+      <c r="BK104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>4933987</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45145.54166666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>67</v>
+      </c>
+      <c r="H105" t="s">
+        <v>65</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>6</v>
+      </c>
+      <c r="O105" t="s">
+        <v>157</v>
+      </c>
+      <c r="P105" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>2.1</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>4.33</v>
+      </c>
+      <c r="W105">
+        <v>1.25</v>
+      </c>
+      <c r="X105">
+        <v>3.75</v>
+      </c>
+      <c r="Y105">
+        <v>2.2</v>
+      </c>
+      <c r="Z105">
+        <v>1.62</v>
+      </c>
+      <c r="AA105">
+        <v>4.5</v>
+      </c>
+      <c r="AB105">
+        <v>1.17</v>
+      </c>
+      <c r="AC105">
+        <v>1.5</v>
+      </c>
+      <c r="AD105">
+        <v>4.4</v>
+      </c>
+      <c r="AE105">
+        <v>5.23</v>
+      </c>
+      <c r="AF105">
+        <v>1.02</v>
+      </c>
+      <c r="AG105">
+        <v>12</v>
+      </c>
+      <c r="AH105">
+        <v>1.15</v>
+      </c>
+      <c r="AI105">
+        <v>4.75</v>
+      </c>
+      <c r="AJ105">
+        <v>1.42</v>
+      </c>
+      <c r="AK105">
+        <v>2.65</v>
+      </c>
+      <c r="AL105">
+        <v>1.53</v>
+      </c>
+      <c r="AM105">
+        <v>2.38</v>
+      </c>
+      <c r="AN105">
+        <v>1.22</v>
+      </c>
+      <c r="AO105">
+        <v>1.22</v>
+      </c>
+      <c r="AP105">
+        <v>2.15</v>
+      </c>
+      <c r="AQ105">
+        <v>2.13</v>
+      </c>
+      <c r="AR105">
+        <v>0.86</v>
+      </c>
+      <c r="AS105">
+        <v>2.22</v>
+      </c>
+      <c r="AT105">
+        <v>0.75</v>
+      </c>
+      <c r="AU105">
+        <v>1.66</v>
+      </c>
+      <c r="AV105">
+        <v>1.37</v>
+      </c>
+      <c r="AW105">
+        <v>3.03</v>
+      </c>
+      <c r="AX105">
+        <v>1.69</v>
+      </c>
+      <c r="AY105">
+        <v>9</v>
+      </c>
+      <c r="AZ105">
+        <v>2.53</v>
+      </c>
+      <c r="BA105">
+        <v>1.07</v>
+      </c>
+      <c r="BB105">
+        <v>1.13</v>
+      </c>
+      <c r="BC105">
+        <v>1.26</v>
+      </c>
+      <c r="BD105">
+        <v>1.53</v>
+      </c>
+      <c r="BE105">
+        <v>1.93</v>
+      </c>
+      <c r="BF105">
+        <v>7</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>5</v>
+      </c>
+      <c r="BI105">
+        <v>13</v>
+      </c>
+      <c r="BJ105">
+        <v>12</v>
+      </c>
+      <c r="BK105">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>['49', '73']</t>
+  </si>
+  <si>
+    <t>['29', '42', '85']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1939,7 @@
         <v>2.11</v>
       </c>
       <c r="AT5">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2121,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT6">
         <v>0.89</v>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.67</v>
@@ -3079,7 +3085,7 @@
         <v>2.67</v>
       </c>
       <c r="AT11">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT16">
         <v>2.33</v>
@@ -4986,7 +4992,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -5180,7 +5186,7 @@
         <v>1.13</v>
       </c>
       <c r="AT22">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5941,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT26">
         <v>0.44</v>
@@ -7472,7 +7478,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7660,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT35">
         <v>0.67</v>
@@ -7851,7 +7857,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>0.75</v>
@@ -9764,7 +9770,7 @@
         <v>1.13</v>
       </c>
       <c r="AT46">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -10146,7 +10152,7 @@
         <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10334,7 +10340,7 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10528,7 +10534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -11289,7 +11295,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.22</v>
@@ -12629,7 +12635,7 @@
         <v>1.89</v>
       </c>
       <c r="AT61">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -13008,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT63">
         <v>0.75</v>
@@ -13202,7 +13208,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13581,7 +13587,7 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.89</v>
@@ -14345,7 +14351,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>0.11</v>
@@ -14539,7 +14545,7 @@
         <v>0.44</v>
       </c>
       <c r="AT71">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -15873,7 +15879,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
         <v>1.22</v>
@@ -16258,7 +16264,7 @@
         <v>1.22</v>
       </c>
       <c r="AT80">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16449,7 +16455,7 @@
         <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU81">
         <v>1.81</v>
@@ -16831,7 +16837,7 @@
         <v>0.44</v>
       </c>
       <c r="AT83">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -17022,7 +17028,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17401,7 +17407,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT86">
         <v>1.89</v>
@@ -18550,7 +18556,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU92">
         <v>1.5</v>
@@ -19311,10 +19317,10 @@
         <v>0.29</v>
       </c>
       <c r="AS96">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT96">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU96">
         <v>1.75</v>
@@ -21085,6 +21091,388 @@
       </c>
       <c r="BK105">
         <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4933985</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45146.67708333334</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>73</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>141</v>
+      </c>
+      <c r="P106" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>3.6</v>
+      </c>
+      <c r="U106">
+        <v>2.4</v>
+      </c>
+      <c r="V106">
+        <v>2.38</v>
+      </c>
+      <c r="W106">
+        <v>1.25</v>
+      </c>
+      <c r="X106">
+        <v>3.75</v>
+      </c>
+      <c r="Y106">
+        <v>2.2</v>
+      </c>
+      <c r="Z106">
+        <v>1.62</v>
+      </c>
+      <c r="AA106">
+        <v>4.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.17</v>
+      </c>
+      <c r="AC106">
+        <v>3.5</v>
+      </c>
+      <c r="AD106">
+        <v>3.75</v>
+      </c>
+      <c r="AE106">
+        <v>1.9</v>
+      </c>
+      <c r="AF106">
+        <v>1.02</v>
+      </c>
+      <c r="AG106">
+        <v>10</v>
+      </c>
+      <c r="AH106">
+        <v>1.13</v>
+      </c>
+      <c r="AI106">
+        <v>5</v>
+      </c>
+      <c r="AJ106">
+        <v>1.5</v>
+      </c>
+      <c r="AK106">
+        <v>2.5</v>
+      </c>
+      <c r="AL106">
+        <v>1.5</v>
+      </c>
+      <c r="AM106">
+        <v>2.5</v>
+      </c>
+      <c r="AN106">
+        <v>1.78</v>
+      </c>
+      <c r="AO106">
+        <v>1.22</v>
+      </c>
+      <c r="AP106">
+        <v>1.26</v>
+      </c>
+      <c r="AQ106">
+        <v>2.29</v>
+      </c>
+      <c r="AR106">
+        <v>2.5</v>
+      </c>
+      <c r="AS106">
+        <v>2</v>
+      </c>
+      <c r="AT106">
+        <v>2.56</v>
+      </c>
+      <c r="AU106">
+        <v>1.74</v>
+      </c>
+      <c r="AV106">
+        <v>1.8</v>
+      </c>
+      <c r="AW106">
+        <v>3.54</v>
+      </c>
+      <c r="AX106">
+        <v>2.25</v>
+      </c>
+      <c r="AY106">
+        <v>9.6</v>
+      </c>
+      <c r="AZ106">
+        <v>1.86</v>
+      </c>
+      <c r="BA106">
+        <v>1.15</v>
+      </c>
+      <c r="BB106">
+        <v>1.2</v>
+      </c>
+      <c r="BC106">
+        <v>1.38</v>
+      </c>
+      <c r="BD106">
+        <v>1.67</v>
+      </c>
+      <c r="BE106">
+        <v>2.09</v>
+      </c>
+      <c r="BF106">
+        <v>5</v>
+      </c>
+      <c r="BG106">
+        <v>5</v>
+      </c>
+      <c r="BH106">
+        <v>3</v>
+      </c>
+      <c r="BI106">
+        <v>2</v>
+      </c>
+      <c r="BJ106">
+        <v>8</v>
+      </c>
+      <c r="BK106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4933986</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45146.67708333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>8</v>
+      </c>
+      <c r="S107">
+        <v>12</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.4</v>
+      </c>
+      <c r="W107">
+        <v>1.25</v>
+      </c>
+      <c r="X107">
+        <v>3.75</v>
+      </c>
+      <c r="Y107">
+        <v>2.2</v>
+      </c>
+      <c r="Z107">
+        <v>1.62</v>
+      </c>
+      <c r="AA107">
+        <v>4.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.17</v>
+      </c>
+      <c r="AC107">
+        <v>2</v>
+      </c>
+      <c r="AD107">
+        <v>3.75</v>
+      </c>
+      <c r="AE107">
+        <v>3.2</v>
+      </c>
+      <c r="AF107">
+        <v>1.02</v>
+      </c>
+      <c r="AG107">
+        <v>12</v>
+      </c>
+      <c r="AH107">
+        <v>1.13</v>
+      </c>
+      <c r="AI107">
+        <v>5</v>
+      </c>
+      <c r="AJ107">
+        <v>1.5</v>
+      </c>
+      <c r="AK107">
+        <v>2.5</v>
+      </c>
+      <c r="AL107">
+        <v>1.44</v>
+      </c>
+      <c r="AM107">
+        <v>2.63</v>
+      </c>
+      <c r="AN107">
+        <v>1.33</v>
+      </c>
+      <c r="AO107">
+        <v>1.23</v>
+      </c>
+      <c r="AP107">
+        <v>1.64</v>
+      </c>
+      <c r="AQ107">
+        <v>1.63</v>
+      </c>
+      <c r="AR107">
+        <v>0.63</v>
+      </c>
+      <c r="AS107">
+        <v>1.56</v>
+      </c>
+      <c r="AT107">
+        <v>0.67</v>
+      </c>
+      <c r="AU107">
+        <v>1.54</v>
+      </c>
+      <c r="AV107">
+        <v>1.48</v>
+      </c>
+      <c r="AW107">
+        <v>3.02</v>
+      </c>
+      <c r="AX107">
+        <v>1.82</v>
+      </c>
+      <c r="AY107">
+        <v>9.5</v>
+      </c>
+      <c r="AZ107">
+        <v>2.32</v>
+      </c>
+      <c r="BA107">
+        <v>1.11</v>
+      </c>
+      <c r="BB107">
+        <v>1.24</v>
+      </c>
+      <c r="BC107">
+        <v>1.45</v>
+      </c>
+      <c r="BD107">
+        <v>1.78</v>
+      </c>
+      <c r="BE107">
+        <v>2.23</v>
+      </c>
+      <c r="BF107">
+        <v>4</v>
+      </c>
+      <c r="BG107">
+        <v>7</v>
+      </c>
+      <c r="BH107">
+        <v>10</v>
+      </c>
+      <c r="BI107">
+        <v>13</v>
+      </c>
+      <c r="BJ107">
+        <v>14</v>
+      </c>
+      <c r="BK107">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['11', '21', '39', '54']</t>
   </si>
   <si>
+    <t>['51', '90+4', '90+6']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -671,6 +674,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1282,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1467,7 +1473,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1557,7 +1563,7 @@
         <v>1.22</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1658,7 +1664,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1849,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2040,7 +2046,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2231,7 +2237,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2422,7 +2428,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3186,7 +3192,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3377,7 +3383,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>0.11</v>
@@ -3568,7 +3574,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3849,7 +3855,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -3950,7 +3956,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4141,7 +4147,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4523,7 +4529,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4714,7 +4720,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5183,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>0.67</v>
@@ -5287,7 +5293,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5669,7 +5675,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6051,7 +6057,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6242,7 +6248,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6433,7 +6439,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6624,7 +6630,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6815,7 +6821,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6905,7 +6911,7 @@
         <v>2.67</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -7006,7 +7012,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7093,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>0.75</v>
@@ -7388,7 +7394,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7579,7 +7585,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7770,7 +7776,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7860,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -7961,7 +7967,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8343,7 +8349,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8534,7 +8540,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8725,7 +8731,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9107,7 +9113,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9579,7 +9585,7 @@
         <v>2.22</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9680,7 +9686,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9767,7 +9773,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>2.56</v>
@@ -9871,7 +9877,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10062,7 +10068,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10253,7 +10259,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10444,7 +10450,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11208,7 +11214,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11399,7 +11405,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11781,7 +11787,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12163,7 +12169,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12545,7 +12551,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12736,7 +12742,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12927,7 +12933,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13017,7 +13023,7 @@
         <v>1.56</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU63">
         <v>1.6</v>
@@ -13309,7 +13315,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13500,7 +13506,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13691,7 +13697,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13778,7 +13784,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
         <v>2.33</v>
@@ -13882,7 +13888,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14073,7 +14079,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14646,7 +14652,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14733,7 +14739,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>1.89</v>
@@ -14837,7 +14843,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15691,7 +15697,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15792,7 +15798,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16174,7 +16180,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16747,7 +16753,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17216,7 +17222,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17320,7 +17326,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17511,7 +17517,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17601,7 +17607,7 @@
         <v>1.44</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -18275,7 +18281,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18466,7 +18472,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18935,7 +18941,7 @@
         <v>0.17</v>
       </c>
       <c r="AS94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
         <v>0.67</v>
@@ -19039,7 +19045,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19230,7 +19236,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -20185,7 +20191,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20376,7 +20382,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20567,7 +20573,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20758,7 +20764,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20949,7 +20955,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21140,7 +21146,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21331,7 +21337,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21473,6 +21479,197 @@
       </c>
       <c r="BK107">
         <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4933988</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45147.67708333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s">
+        <v>71</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>158</v>
+      </c>
+      <c r="P108" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q108">
+        <v>11</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>13</v>
+      </c>
+      <c r="T108">
+        <v>2.38</v>
+      </c>
+      <c r="U108">
+        <v>2.38</v>
+      </c>
+      <c r="V108">
+        <v>3.75</v>
+      </c>
+      <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>3.5</v>
+      </c>
+      <c r="Y108">
+        <v>2.25</v>
+      </c>
+      <c r="Z108">
+        <v>1.57</v>
+      </c>
+      <c r="AA108">
+        <v>5</v>
+      </c>
+      <c r="AB108">
+        <v>1.14</v>
+      </c>
+      <c r="AC108">
+        <v>1.87</v>
+      </c>
+      <c r="AD108">
+        <v>3.5</v>
+      </c>
+      <c r="AE108">
+        <v>3.4</v>
+      </c>
+      <c r="AF108">
+        <v>1.03</v>
+      </c>
+      <c r="AG108">
+        <v>11</v>
+      </c>
+      <c r="AH108">
+        <v>1.17</v>
+      </c>
+      <c r="AI108">
+        <v>4.5</v>
+      </c>
+      <c r="AJ108">
+        <v>1.47</v>
+      </c>
+      <c r="AK108">
+        <v>2.32</v>
+      </c>
+      <c r="AL108">
+        <v>1.53</v>
+      </c>
+      <c r="AM108">
+        <v>2.38</v>
+      </c>
+      <c r="AN108">
+        <v>1.32</v>
+      </c>
+      <c r="AO108">
+        <v>1.24</v>
+      </c>
+      <c r="AP108">
+        <v>1.58</v>
+      </c>
+      <c r="AQ108">
+        <v>1.13</v>
+      </c>
+      <c r="AR108">
+        <v>0.75</v>
+      </c>
+      <c r="AS108">
+        <v>1.33</v>
+      </c>
+      <c r="AT108">
+        <v>0.67</v>
+      </c>
+      <c r="AU108">
+        <v>1.38</v>
+      </c>
+      <c r="AV108">
+        <v>1.09</v>
+      </c>
+      <c r="AW108">
+        <v>2.47</v>
+      </c>
+      <c r="AX108">
+        <v>1.74</v>
+      </c>
+      <c r="AY108">
+        <v>9.9</v>
+      </c>
+      <c r="AZ108">
+        <v>2.44</v>
+      </c>
+      <c r="BA108">
+        <v>1.11</v>
+      </c>
+      <c r="BB108">
+        <v>1.19</v>
+      </c>
+      <c r="BC108">
+        <v>1.36</v>
+      </c>
+      <c r="BD108">
+        <v>1.64</v>
+      </c>
+      <c r="BE108">
+        <v>2.05</v>
+      </c>
+      <c r="BF108">
+        <v>6</v>
+      </c>
+      <c r="BG108">
+        <v>3</v>
+      </c>
+      <c r="BH108">
+        <v>4</v>
+      </c>
+      <c r="BI108">
+        <v>2</v>
+      </c>
+      <c r="BJ108">
+        <v>10</v>
+      </c>
+      <c r="BK108">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,21 @@
     <t>['51', '90+4', '90+6']</t>
   </si>
   <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['49', '61']</t>
+  </si>
+  <si>
+    <t>['8', '9', '81']</t>
+  </si>
+  <si>
+    <t>['10', '30', '38', '40', '69', '88']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -559,9 +574,6 @@
     <t>['62', '76']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -677,6 +689,18 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['46', '90']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1306,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1369,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT2">
         <v>1.33</v>
@@ -1473,7 +1497,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1664,7 +1688,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1754,7 +1778,7 @@
         <v>2.22</v>
       </c>
       <c r="AT4">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1855,7 +1879,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2046,7 +2070,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2237,7 +2261,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2327,7 +2351,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2428,7 +2452,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2515,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2706,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU9">
         <v>1.32</v>
@@ -2897,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT10">
         <v>0.67</v>
@@ -3088,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -3192,7 +3216,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3282,7 +3306,7 @@
         <v>2.22</v>
       </c>
       <c r="AT12">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU12">
         <v>1.81</v>
@@ -3383,7 +3407,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3473,7 +3497,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3574,7 +3598,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3664,7 +3688,7 @@
         <v>1.44</v>
       </c>
       <c r="AT14">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3852,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -3956,7 +3980,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4046,7 +4070,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -4147,7 +4171,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4425,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4529,7 +4553,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4619,7 +4643,7 @@
         <v>2.11</v>
       </c>
       <c r="AT19">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4720,7 +4744,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4810,7 +4834,7 @@
         <v>1.89</v>
       </c>
       <c r="AT20">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -4998,7 +5022,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -5293,7 +5317,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5380,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU23">
         <v>1.41</v>
@@ -5571,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5675,7 +5699,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5956,7 +5980,7 @@
         <v>1.56</v>
       </c>
       <c r="AT26">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU26">
         <v>1.25</v>
@@ -6057,7 +6081,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6144,7 +6168,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT27">
         <v>0.89</v>
@@ -6248,7 +6272,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6335,10 +6359,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6439,7 +6463,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6529,7 +6553,7 @@
         <v>1.22</v>
       </c>
       <c r="AT29">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6630,7 +6654,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6720,7 +6744,7 @@
         <v>2.11</v>
       </c>
       <c r="AT30">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6821,7 +6845,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6908,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT31">
         <v>0.67</v>
@@ -7012,7 +7036,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7394,7 +7418,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7585,7 +7609,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7776,7 +7800,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7863,7 +7887,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT36">
         <v>0.67</v>
@@ -7967,7 +7991,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8057,7 +8081,7 @@
         <v>1.22</v>
       </c>
       <c r="AT37">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8248,7 +8272,7 @@
         <v>2.11</v>
       </c>
       <c r="AT38">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU38">
         <v>1.79</v>
@@ -8349,7 +8373,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8436,10 +8460,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8540,7 +8564,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8627,10 +8651,10 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8731,7 +8755,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8818,10 +8842,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -9009,7 +9033,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT42">
         <v>0.89</v>
@@ -9113,7 +9137,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9203,7 +9227,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9686,7 +9710,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9877,7 +9901,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10068,7 +10092,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10259,7 +10283,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10450,7 +10474,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10537,7 +10561,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
         <v>2.56</v>
@@ -10731,7 +10755,7 @@
         <v>1.89</v>
       </c>
       <c r="AT51">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -10922,7 +10946,7 @@
         <v>1.22</v>
       </c>
       <c r="AT52">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU52">
         <v>1.23</v>
@@ -11110,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT53">
         <v>0.67</v>
@@ -11214,7 +11238,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11301,10 +11325,10 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT54">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11405,7 +11429,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11492,10 +11516,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT55">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11683,10 +11707,10 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT56">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11787,7 +11811,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11874,10 +11898,10 @@
         <v>2.25</v>
       </c>
       <c r="AS57">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT57">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12068,7 +12092,7 @@
         <v>1.44</v>
       </c>
       <c r="AT58">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU58">
         <v>1.31</v>
@@ -12169,7 +12193,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12551,7 +12575,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12742,7 +12766,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12933,7 +12957,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13211,7 +13235,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
         <v>0.67</v>
@@ -13315,7 +13339,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13402,10 +13426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT65">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU65">
         <v>1.59</v>
@@ -13506,7 +13530,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13593,10 +13617,10 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT66">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -13697,7 +13721,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13787,7 +13811,7 @@
         <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13888,7 +13912,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13975,10 +13999,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT68">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14079,7 +14103,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14166,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
         <v>0.67</v>
@@ -14357,10 +14381,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT70">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14548,7 +14572,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT71">
         <v>0.67</v>
@@ -14652,7 +14676,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14742,7 +14766,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU72">
         <v>1.29</v>
@@ -14843,7 +14867,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14933,7 +14957,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU73">
         <v>1.72</v>
@@ -15121,7 +15145,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -15312,7 +15336,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT75">
         <v>0.67</v>
@@ -15694,7 +15718,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT77">
         <v>0.67</v>
@@ -15798,7 +15822,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15888,7 +15912,7 @@
         <v>1.56</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -16180,7 +16204,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16652,7 +16676,7 @@
         <v>1.44</v>
       </c>
       <c r="AT82">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU82">
         <v>1.64</v>
@@ -16753,7 +16777,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16840,7 +16864,7 @@
         <v>2.67</v>
       </c>
       <c r="AS83">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT83">
         <v>2.56</v>
@@ -17326,7 +17350,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17416,7 +17440,7 @@
         <v>1.56</v>
       </c>
       <c r="AT86">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17517,7 +17541,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17798,7 +17822,7 @@
         <v>2.11</v>
       </c>
       <c r="AT88">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU88">
         <v>1.85</v>
@@ -17989,7 +18013,7 @@
         <v>1.22</v>
       </c>
       <c r="AT89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU89">
         <v>1.34</v>
@@ -18177,7 +18201,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT90">
         <v>0.89</v>
@@ -18281,7 +18305,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18371,7 +18395,7 @@
         <v>1.89</v>
       </c>
       <c r="AT91">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18472,7 +18496,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18559,7 +18583,7 @@
         <v>2.43</v>
       </c>
       <c r="AS92">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT92">
         <v>2.56</v>
@@ -18753,7 +18777,7 @@
         <v>2.22</v>
       </c>
       <c r="AT93">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19045,7 +19069,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19132,7 +19156,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT95">
         <v>0.75</v>
@@ -19236,7 +19260,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19323,7 +19347,7 @@
         <v>0.29</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19517,7 +19541,7 @@
         <v>2.11</v>
       </c>
       <c r="AT97">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU97">
         <v>1.72</v>
@@ -19896,10 +19920,10 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20087,10 +20111,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT100">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU100">
         <v>1.66</v>
@@ -20191,7 +20215,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20278,7 +20302,7 @@
         <v>0.63</v>
       </c>
       <c r="AS101">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT101">
         <v>0.89</v>
@@ -20382,7 +20406,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20469,10 +20493,10 @@
         <v>2.25</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT102">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU102">
         <v>1.48</v>
@@ -20573,7 +20597,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20764,7 +20788,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20955,7 +20979,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21146,7 +21170,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21233,7 +21257,7 @@
         <v>2.5</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT106">
         <v>2.56</v>
@@ -21337,7 +21361,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21528,7 +21552,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21670,6 +21694,961 @@
       </c>
       <c r="BK108">
         <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4933989</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45151.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>159</v>
+      </c>
+      <c r="P109" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <v>13</v>
+      </c>
+      <c r="T109">
+        <v>4.33</v>
+      </c>
+      <c r="U109">
+        <v>2.38</v>
+      </c>
+      <c r="V109">
+        <v>2.31</v>
+      </c>
+      <c r="W109">
+        <v>1.29</v>
+      </c>
+      <c r="X109">
+        <v>3.45</v>
+      </c>
+      <c r="Y109">
+        <v>2.34</v>
+      </c>
+      <c r="Z109">
+        <v>1.56</v>
+      </c>
+      <c r="AA109">
+        <v>5.35</v>
+      </c>
+      <c r="AB109">
+        <v>1.14</v>
+      </c>
+      <c r="AC109">
+        <v>3.5</v>
+      </c>
+      <c r="AD109">
+        <v>3.55</v>
+      </c>
+      <c r="AE109">
+        <v>1.82</v>
+      </c>
+      <c r="AF109">
+        <v>1.03</v>
+      </c>
+      <c r="AG109">
+        <v>11</v>
+      </c>
+      <c r="AH109">
+        <v>1.16</v>
+      </c>
+      <c r="AI109">
+        <v>4.5</v>
+      </c>
+      <c r="AJ109">
+        <v>1.57</v>
+      </c>
+      <c r="AK109">
+        <v>2.15</v>
+      </c>
+      <c r="AL109">
+        <v>1.57</v>
+      </c>
+      <c r="AM109">
+        <v>2.34</v>
+      </c>
+      <c r="AN109">
+        <v>1.75</v>
+      </c>
+      <c r="AO109">
+        <v>1.23</v>
+      </c>
+      <c r="AP109">
+        <v>1.23</v>
+      </c>
+      <c r="AQ109">
+        <v>1.67</v>
+      </c>
+      <c r="AR109">
+        <v>1.89</v>
+      </c>
+      <c r="AS109">
+        <v>1.6</v>
+      </c>
+      <c r="AT109">
+        <v>1.8</v>
+      </c>
+      <c r="AU109">
+        <v>1.5</v>
+      </c>
+      <c r="AV109">
+        <v>1.64</v>
+      </c>
+      <c r="AW109">
+        <v>3.14</v>
+      </c>
+      <c r="AX109">
+        <v>2.35</v>
+      </c>
+      <c r="AY109">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ109">
+        <v>1.77</v>
+      </c>
+      <c r="BA109">
+        <v>1.08</v>
+      </c>
+      <c r="BB109">
+        <v>1.23</v>
+      </c>
+      <c r="BC109">
+        <v>1.42</v>
+      </c>
+      <c r="BD109">
+        <v>1.73</v>
+      </c>
+      <c r="BE109">
+        <v>2.2</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>11</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>17</v>
+      </c>
+      <c r="BK109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4933990</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45151.58333333334</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>160</v>
+      </c>
+      <c r="P110" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>8</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="T110">
+        <v>6.05</v>
+      </c>
+      <c r="U110">
+        <v>2.61</v>
+      </c>
+      <c r="V110">
+        <v>1.83</v>
+      </c>
+      <c r="W110">
+        <v>1.25</v>
+      </c>
+      <c r="X110">
+        <v>3.72</v>
+      </c>
+      <c r="Y110">
+        <v>2.2</v>
+      </c>
+      <c r="Z110">
+        <v>1.63</v>
+      </c>
+      <c r="AA110">
+        <v>4.85</v>
+      </c>
+      <c r="AB110">
+        <v>1.16</v>
+      </c>
+      <c r="AC110">
+        <v>6.1</v>
+      </c>
+      <c r="AD110">
+        <v>4.55</v>
+      </c>
+      <c r="AE110">
+        <v>1.36</v>
+      </c>
+      <c r="AF110">
+        <v>1.02</v>
+      </c>
+      <c r="AG110">
+        <v>13</v>
+      </c>
+      <c r="AH110">
+        <v>1.12</v>
+      </c>
+      <c r="AI110">
+        <v>4.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.5</v>
+      </c>
+      <c r="AK110">
+        <v>2.4</v>
+      </c>
+      <c r="AL110">
+        <v>1.7</v>
+      </c>
+      <c r="AM110">
+        <v>2.08</v>
+      </c>
+      <c r="AN110">
+        <v>2.92</v>
+      </c>
+      <c r="AO110">
+        <v>1.17</v>
+      </c>
+      <c r="AP110">
+        <v>1.1</v>
+      </c>
+      <c r="AQ110">
+        <v>0.44</v>
+      </c>
+      <c r="AR110">
+        <v>2.33</v>
+      </c>
+      <c r="AS110">
+        <v>0.5</v>
+      </c>
+      <c r="AT110">
+        <v>2.2</v>
+      </c>
+      <c r="AU110">
+        <v>1.28</v>
+      </c>
+      <c r="AV110">
+        <v>1.6</v>
+      </c>
+      <c r="AW110">
+        <v>2.88</v>
+      </c>
+      <c r="AX110">
+        <v>3.32</v>
+      </c>
+      <c r="AY110">
+        <v>10.75</v>
+      </c>
+      <c r="AZ110">
+        <v>1.43</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>1.15</v>
+      </c>
+      <c r="BC110">
+        <v>1.26</v>
+      </c>
+      <c r="BD110">
+        <v>1.46</v>
+      </c>
+      <c r="BE110">
+        <v>1.8</v>
+      </c>
+      <c r="BF110">
+        <v>3</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>7</v>
+      </c>
+      <c r="BI110">
+        <v>6</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4933991</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45151.58333333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>161</v>
+      </c>
+      <c r="P111" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
+      </c>
+      <c r="R111">
+        <v>9</v>
+      </c>
+      <c r="S111">
+        <v>14</v>
+      </c>
+      <c r="T111">
+        <v>2.31</v>
+      </c>
+      <c r="U111">
+        <v>2.36</v>
+      </c>
+      <c r="V111">
+        <v>4.38</v>
+      </c>
+      <c r="W111">
+        <v>1.29</v>
+      </c>
+      <c r="X111">
+        <v>3.42</v>
+      </c>
+      <c r="Y111">
+        <v>2.36</v>
+      </c>
+      <c r="Z111">
+        <v>1.55</v>
+      </c>
+      <c r="AA111">
+        <v>5.45</v>
+      </c>
+      <c r="AB111">
+        <v>1.13</v>
+      </c>
+      <c r="AC111">
+        <v>1.62</v>
+      </c>
+      <c r="AD111">
+        <v>3.8</v>
+      </c>
+      <c r="AE111">
+        <v>4.15</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>11</v>
+      </c>
+      <c r="AH111">
+        <v>1.18</v>
+      </c>
+      <c r="AI111">
+        <v>4.33</v>
+      </c>
+      <c r="AJ111">
+        <v>1.53</v>
+      </c>
+      <c r="AK111">
+        <v>2.25</v>
+      </c>
+      <c r="AL111">
+        <v>1.59</v>
+      </c>
+      <c r="AM111">
+        <v>2.29</v>
+      </c>
+      <c r="AN111">
+        <v>1.23</v>
+      </c>
+      <c r="AO111">
+        <v>1.24</v>
+      </c>
+      <c r="AP111">
+        <v>2.04</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>0.44</v>
+      </c>
+      <c r="AS111">
+        <v>2.11</v>
+      </c>
+      <c r="AT111">
+        <v>0.4</v>
+      </c>
+      <c r="AU111">
+        <v>1.7</v>
+      </c>
+      <c r="AV111">
+        <v>1.34</v>
+      </c>
+      <c r="AW111">
+        <v>3.04</v>
+      </c>
+      <c r="AX111">
+        <v>1.55</v>
+      </c>
+      <c r="AY111">
+        <v>10.25</v>
+      </c>
+      <c r="AZ111">
+        <v>2.85</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>1.16</v>
+      </c>
+      <c r="BC111">
+        <v>1.3</v>
+      </c>
+      <c r="BD111">
+        <v>1.52</v>
+      </c>
+      <c r="BE111">
+        <v>1.9</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>2</v>
+      </c>
+      <c r="BH111">
+        <v>3</v>
+      </c>
+      <c r="BI111">
+        <v>5</v>
+      </c>
+      <c r="BJ111">
+        <v>8</v>
+      </c>
+      <c r="BK111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4933993</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45151.63541666666</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>162</v>
+      </c>
+      <c r="P112" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q112">
+        <v>8</v>
+      </c>
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>2.1</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>4.33</v>
+      </c>
+      <c r="W112">
+        <v>1.25</v>
+      </c>
+      <c r="X112">
+        <v>3.72</v>
+      </c>
+      <c r="Y112">
+        <v>2.18</v>
+      </c>
+      <c r="Z112">
+        <v>1.64</v>
+      </c>
+      <c r="AA112">
+        <v>4.8</v>
+      </c>
+      <c r="AB112">
+        <v>1.16</v>
+      </c>
+      <c r="AC112">
+        <v>1.54</v>
+      </c>
+      <c r="AD112">
+        <v>4</v>
+      </c>
+      <c r="AE112">
+        <v>4.55</v>
+      </c>
+      <c r="AF112">
+        <v>1.02</v>
+      </c>
+      <c r="AG112">
+        <v>12</v>
+      </c>
+      <c r="AH112">
+        <v>1.15</v>
+      </c>
+      <c r="AI112">
+        <v>4.75</v>
+      </c>
+      <c r="AJ112">
+        <v>1.5</v>
+      </c>
+      <c r="AK112">
+        <v>2.4</v>
+      </c>
+      <c r="AL112">
+        <v>1.52</v>
+      </c>
+      <c r="AM112">
+        <v>2.46</v>
+      </c>
+      <c r="AN112">
+        <v>1.2</v>
+      </c>
+      <c r="AO112">
+        <v>1.22</v>
+      </c>
+      <c r="AP112">
+        <v>2.21</v>
+      </c>
+      <c r="AQ112">
+        <v>1.44</v>
+      </c>
+      <c r="AR112">
+        <v>0.11</v>
+      </c>
+      <c r="AS112">
+        <v>1.6</v>
+      </c>
+      <c r="AT112">
+        <v>0.1</v>
+      </c>
+      <c r="AU112">
+        <v>1.5</v>
+      </c>
+      <c r="AV112">
+        <v>1.2</v>
+      </c>
+      <c r="AW112">
+        <v>2.7</v>
+      </c>
+      <c r="AX112">
+        <v>1.41</v>
+      </c>
+      <c r="AY112">
+        <v>11</v>
+      </c>
+      <c r="AZ112">
+        <v>3.42</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>1.15</v>
+      </c>
+      <c r="BC112">
+        <v>1.33</v>
+      </c>
+      <c r="BD112">
+        <v>1.58</v>
+      </c>
+      <c r="BE112">
+        <v>2</v>
+      </c>
+      <c r="BF112">
+        <v>8</v>
+      </c>
+      <c r="BG112">
+        <v>6</v>
+      </c>
+      <c r="BH112">
+        <v>8</v>
+      </c>
+      <c r="BI112">
+        <v>9</v>
+      </c>
+      <c r="BJ112">
+        <v>16</v>
+      </c>
+      <c r="BK112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4933992</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45151.67708333334</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="O113" t="s">
+        <v>163</v>
+      </c>
+      <c r="P113" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q113">
+        <v>16</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>20</v>
+      </c>
+      <c r="T113">
+        <v>1.79</v>
+      </c>
+      <c r="U113">
+        <v>2.74</v>
+      </c>
+      <c r="V113">
+        <v>6.16</v>
+      </c>
+      <c r="W113">
+        <v>1.22</v>
+      </c>
+      <c r="X113">
+        <v>4.05</v>
+      </c>
+      <c r="Y113">
+        <v>2.05</v>
+      </c>
+      <c r="Z113">
+        <v>1.73</v>
+      </c>
+      <c r="AA113">
+        <v>4.33</v>
+      </c>
+      <c r="AB113">
+        <v>1.2</v>
+      </c>
+      <c r="AC113">
+        <v>1.42</v>
+      </c>
+      <c r="AD113">
+        <v>4.4</v>
+      </c>
+      <c r="AE113">
+        <v>5.3</v>
+      </c>
+      <c r="AF113">
+        <v>1.02</v>
+      </c>
+      <c r="AG113">
+        <v>13</v>
+      </c>
+      <c r="AH113">
+        <v>1.09</v>
+      </c>
+      <c r="AI113">
+        <v>5.7</v>
+      </c>
+      <c r="AJ113">
+        <v>1.44</v>
+      </c>
+      <c r="AK113">
+        <v>2.6</v>
+      </c>
+      <c r="AL113">
+        <v>1.63</v>
+      </c>
+      <c r="AM113">
+        <v>2.22</v>
+      </c>
+      <c r="AN113">
+        <v>1.09</v>
+      </c>
+      <c r="AO113">
+        <v>1.15</v>
+      </c>
+      <c r="AP113">
+        <v>3.13</v>
+      </c>
+      <c r="AQ113">
+        <v>2.67</v>
+      </c>
+      <c r="AR113">
+        <v>1.22</v>
+      </c>
+      <c r="AS113">
+        <v>2.7</v>
+      </c>
+      <c r="AT113">
+        <v>1.1</v>
+      </c>
+      <c r="AU113">
+        <v>1.72</v>
+      </c>
+      <c r="AV113">
+        <v>1.49</v>
+      </c>
+      <c r="AW113">
+        <v>3.21</v>
+      </c>
+      <c r="AX113">
+        <v>1.28</v>
+      </c>
+      <c r="AY113">
+        <v>11.75</v>
+      </c>
+      <c r="AZ113">
+        <v>4.4</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>1.17</v>
+      </c>
+      <c r="BC113">
+        <v>1.3</v>
+      </c>
+      <c r="BD113">
+        <v>1.55</v>
+      </c>
+      <c r="BE113">
+        <v>1.98</v>
+      </c>
+      <c r="BF113">
+        <v>15</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>16</v>
+      </c>
+      <c r="BI113">
+        <v>3</v>
+      </c>
+      <c r="BJ113">
+        <v>31</v>
+      </c>
+      <c r="BK113">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['5', '36', '72', '79']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT3">
         <v>0.67</v>
@@ -2924,7 +2927,7 @@
         <v>2.11</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4258,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT17">
         <v>0.89</v>
@@ -5789,7 +5792,7 @@
         <v>2.22</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -6550,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT29">
         <v>2.2</v>
@@ -7699,7 +7702,7 @@
         <v>1.56</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -8078,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
         <v>1.8</v>
@@ -9224,7 +9227,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT43">
         <v>0.1</v>
@@ -10943,7 +10946,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT52">
         <v>0.4</v>
@@ -11137,7 +11140,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -12280,7 +12283,7 @@
         <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT59">
         <v>1.33</v>
@@ -14193,7 +14196,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -15339,7 +15342,7 @@
         <v>2.7</v>
       </c>
       <c r="AT75">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -16291,7 +16294,7 @@
         <v>2.6</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT80">
         <v>2.56</v>
@@ -18010,7 +18013,7 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT89">
         <v>1.1</v>
@@ -18968,7 +18971,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU94">
         <v>1.42</v>
@@ -19732,7 +19735,7 @@
         <v>1.89</v>
       </c>
       <c r="AT98">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU98">
         <v>1.78</v>
@@ -20687,7 +20690,7 @@
         <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU103">
         <v>1.7</v>
@@ -22649,6 +22652,197 @@
       </c>
       <c r="BK113">
         <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4933994</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45152.67708333334</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>80</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>9</v>
+      </c>
+      <c r="S114">
+        <v>12</v>
+      </c>
+      <c r="T114">
+        <v>3.2</v>
+      </c>
+      <c r="U114">
+        <v>2.5</v>
+      </c>
+      <c r="V114">
+        <v>2.45</v>
+      </c>
+      <c r="W114">
+        <v>1.25</v>
+      </c>
+      <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.1</v>
+      </c>
+      <c r="Z114">
+        <v>1.67</v>
+      </c>
+      <c r="AA114">
+        <v>4.33</v>
+      </c>
+      <c r="AB114">
+        <v>1.2</v>
+      </c>
+      <c r="AC114">
+        <v>2.23</v>
+      </c>
+      <c r="AD114">
+        <v>3.49</v>
+      </c>
+      <c r="AE114">
+        <v>2.53</v>
+      </c>
+      <c r="AF114">
+        <v>1.02</v>
+      </c>
+      <c r="AG114">
+        <v>13</v>
+      </c>
+      <c r="AH114">
+        <v>1.14</v>
+      </c>
+      <c r="AI114">
+        <v>5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.4</v>
+      </c>
+      <c r="AK114">
+        <v>2.75</v>
+      </c>
+      <c r="AL114">
+        <v>1.44</v>
+      </c>
+      <c r="AM114">
+        <v>2.62</v>
+      </c>
+      <c r="AN114">
+        <v>1.75</v>
+      </c>
+      <c r="AO114">
+        <v>1.22</v>
+      </c>
+      <c r="AP114">
+        <v>1.33</v>
+      </c>
+      <c r="AQ114">
+        <v>1.22</v>
+      </c>
+      <c r="AR114">
+        <v>0.67</v>
+      </c>
+      <c r="AS114">
+        <v>1.1</v>
+      </c>
+      <c r="AT114">
+        <v>0.9</v>
+      </c>
+      <c r="AU114">
+        <v>1.34</v>
+      </c>
+      <c r="AV114">
+        <v>1.57</v>
+      </c>
+      <c r="AW114">
+        <v>2.91</v>
+      </c>
+      <c r="AX114">
+        <v>2.19</v>
+      </c>
+      <c r="AY114">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ114">
+        <v>1.87</v>
+      </c>
+      <c r="BA114">
+        <v>1.11</v>
+      </c>
+      <c r="BB114">
+        <v>1.16</v>
+      </c>
+      <c r="BC114">
+        <v>1.32</v>
+      </c>
+      <c r="BD114">
+        <v>1.63</v>
+      </c>
+      <c r="BE114">
+        <v>1.96</v>
+      </c>
+      <c r="BF114">
+        <v>3</v>
+      </c>
+      <c r="BG114">
+        <v>8</v>
+      </c>
+      <c r="BH114">
+        <v>3</v>
+      </c>
+      <c r="BI114">
+        <v>2</v>
+      </c>
+      <c r="BJ114">
+        <v>6</v>
+      </c>
+      <c r="BK114">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,15 @@
     <t>['10', '30', '38', '40', '69', '88']</t>
   </si>
   <si>
+    <t>['23', '90']</t>
+  </si>
+  <si>
+    <t>['31', '65']</t>
+  </si>
+  <si>
+    <t>['63', '87']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -704,6 +713,18 @@
   </si>
   <si>
     <t>['5', '36', '72', '79']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['3', '27', '65', '75']</t>
+  </si>
+  <si>
+    <t>['13', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1330,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1500,7 +1521,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1590,7 +1611,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1691,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1778,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.4</v>
@@ -1882,7 +1903,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1972,7 +1993,7 @@
         <v>2.11</v>
       </c>
       <c r="AT5">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2073,7 +2094,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2160,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2264,7 +2285,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2351,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>1.1</v>
@@ -2455,7 +2476,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3118,7 +3139,7 @@
         <v>2.7</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3219,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3306,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.8</v>
@@ -3410,7 +3431,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3497,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT13">
         <v>0.1</v>
@@ -3601,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3688,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT14">
         <v>1.8</v>
@@ -3882,7 +3903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -3983,7 +4004,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4070,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
         <v>2.2</v>
@@ -4174,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4264,7 +4285,7 @@
         <v>1.1</v>
       </c>
       <c r="AT17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4556,7 +4577,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4747,7 +4768,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4834,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>0.1</v>
@@ -5216,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5320,7 +5341,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5601,7 +5622,7 @@
         <v>2.7</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5702,7 +5723,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5789,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>0.9</v>
@@ -5980,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
         <v>0.4</v>
@@ -6084,7 +6105,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6174,7 +6195,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6275,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6466,7 +6487,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6657,7 +6678,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6848,7 +6869,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6938,7 +6959,7 @@
         <v>2.7</v>
       </c>
       <c r="AT31">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -7039,7 +7060,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7126,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7317,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7508,10 +7529,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT34">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7612,7 +7633,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7699,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -7803,7 +7824,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7893,7 +7914,7 @@
         <v>2.11</v>
       </c>
       <c r="AT36">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -7994,7 +8015,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8376,7 +8397,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8567,7 +8588,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8758,7 +8779,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9039,7 +9060,7 @@
         <v>2.7</v>
       </c>
       <c r="AT42">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9140,7 +9161,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9418,10 +9439,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9609,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9713,7 +9734,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9800,10 +9821,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9904,7 +9925,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9991,10 +10012,10 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT47">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -10095,7 +10116,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10185,7 +10206,7 @@
         <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10286,7 +10307,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10373,7 +10394,7 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10477,7 +10498,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10567,7 +10588,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10755,7 +10776,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>2.2</v>
@@ -11241,7 +11262,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11432,7 +11453,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11814,7 +11835,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12092,7 +12113,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT58">
         <v>1.1</v>
@@ -12196,7 +12217,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12477,7 +12498,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12578,7 +12599,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12665,10 +12686,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT61">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12769,7 +12790,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12856,10 +12877,10 @@
         <v>0.8</v>
       </c>
       <c r="AS62">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU62">
         <v>1.67</v>
@@ -12960,7 +12981,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13047,10 +13068,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU63">
         <v>1.6</v>
@@ -13241,7 +13262,7 @@
         <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13342,7 +13363,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13533,7 +13554,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13724,7 +13745,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13811,7 +13832,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
         <v>2.2</v>
@@ -13915,7 +13936,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14106,7 +14127,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14578,7 +14599,7 @@
         <v>0.5</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -14679,7 +14700,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14766,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT72">
         <v>1.8</v>
@@ -14870,7 +14891,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14957,7 +14978,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT73">
         <v>2.2</v>
@@ -15151,7 +15172,7 @@
         <v>1.6</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15530,10 +15551,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU76">
         <v>1.78</v>
@@ -15724,7 +15745,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15825,7 +15846,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15912,7 +15933,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -16106,7 +16127,7 @@
         <v>2.11</v>
       </c>
       <c r="AT79">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16207,7 +16228,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16297,7 +16318,7 @@
         <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16485,10 +16506,10 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT81">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU81">
         <v>1.81</v>
@@ -16676,7 +16697,7 @@
         <v>0.17</v>
       </c>
       <c r="AS82">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT82">
         <v>0.1</v>
@@ -16780,7 +16801,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16870,7 +16891,7 @@
         <v>0.5</v>
       </c>
       <c r="AT83">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -17058,10 +17079,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17249,7 +17270,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17353,7 +17374,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17440,7 +17461,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT86">
         <v>1.8</v>
@@ -17544,7 +17565,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17631,10 +17652,10 @@
         <v>0.71</v>
       </c>
       <c r="AS87">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -18207,7 +18228,7 @@
         <v>1.6</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90">
         <v>1.46</v>
@@ -18308,7 +18329,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18395,7 +18416,7 @@
         <v>0.57</v>
       </c>
       <c r="AS91">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.4</v>
@@ -18499,7 +18520,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18589,7 +18610,7 @@
         <v>1.6</v>
       </c>
       <c r="AT92">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU92">
         <v>1.5</v>
@@ -18777,7 +18798,7 @@
         <v>0.14</v>
       </c>
       <c r="AS93">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>0.1</v>
@@ -18968,7 +18989,7 @@
         <v>0.17</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT94">
         <v>0.9</v>
@@ -19072,7 +19093,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19162,7 +19183,7 @@
         <v>0.5</v>
       </c>
       <c r="AT95">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19263,7 +19284,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19353,7 +19374,7 @@
         <v>2.11</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU96">
         <v>1.75</v>
@@ -19732,7 +19753,7 @@
         <v>0.29</v>
       </c>
       <c r="AS98">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0.9</v>
@@ -20218,7 +20239,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20308,7 +20329,7 @@
         <v>0.5</v>
       </c>
       <c r="AT101">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU101">
         <v>1.24</v>
@@ -20409,7 +20430,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20600,7 +20621,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20687,7 +20708,7 @@
         <v>0.38</v>
       </c>
       <c r="AS103">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT103">
         <v>0.9</v>
@@ -20791,7 +20812,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20878,7 +20899,7 @@
         <v>1.13</v>
       </c>
       <c r="AS104">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>1.33</v>
@@ -20982,7 +21003,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21069,10 +21090,10 @@
         <v>0.86</v>
       </c>
       <c r="AS105">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21173,7 +21194,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21263,7 +21284,7 @@
         <v>2.11</v>
       </c>
       <c r="AT106">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU106">
         <v>1.74</v>
@@ -21364,7 +21385,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21451,10 +21472,10 @@
         <v>0.63</v>
       </c>
       <c r="AS107">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU107">
         <v>1.54</v>
@@ -21555,7 +21576,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21642,10 +21663,10 @@
         <v>0.75</v>
       </c>
       <c r="AS108">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT108">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -21746,7 +21767,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21937,7 +21958,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22128,7 +22149,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22319,7 +22340,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22510,7 +22531,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>16</v>
@@ -22701,7 +22722,7 @@
         <v>80</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22843,6 +22864,961 @@
       </c>
       <c r="BK114">
         <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4933995</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45158.55208333334</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>80</v>
+      </c>
+      <c r="P115" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>-1</v>
+      </c>
+      <c r="S115">
+        <v>-1</v>
+      </c>
+      <c r="T115">
+        <v>2.55</v>
+      </c>
+      <c r="U115">
+        <v>2.41</v>
+      </c>
+      <c r="V115">
+        <v>3.5</v>
+      </c>
+      <c r="W115">
+        <v>1.26</v>
+      </c>
+      <c r="X115">
+        <v>3.5</v>
+      </c>
+      <c r="Y115">
+        <v>2.24</v>
+      </c>
+      <c r="Z115">
+        <v>1.61</v>
+      </c>
+      <c r="AA115">
+        <v>5</v>
+      </c>
+      <c r="AB115">
+        <v>1.15</v>
+      </c>
+      <c r="AC115">
+        <v>1.98</v>
+      </c>
+      <c r="AD115">
+        <v>3.52</v>
+      </c>
+      <c r="AE115">
+        <v>2.94</v>
+      </c>
+      <c r="AF115">
+        <v>1.02</v>
+      </c>
+      <c r="AG115">
+        <v>12</v>
+      </c>
+      <c r="AH115">
+        <v>1.15</v>
+      </c>
+      <c r="AI115">
+        <v>4.75</v>
+      </c>
+      <c r="AJ115">
+        <v>1.55</v>
+      </c>
+      <c r="AK115">
+        <v>2.29</v>
+      </c>
+      <c r="AL115">
+        <v>1.52</v>
+      </c>
+      <c r="AM115">
+        <v>2.46</v>
+      </c>
+      <c r="AN115">
+        <v>1.36</v>
+      </c>
+      <c r="AO115">
+        <v>1.26</v>
+      </c>
+      <c r="AP115">
+        <v>1.73</v>
+      </c>
+      <c r="AQ115">
+        <v>1.44</v>
+      </c>
+      <c r="AR115">
+        <v>0.67</v>
+      </c>
+      <c r="AS115">
+        <v>1.3</v>
+      </c>
+      <c r="AT115">
+        <v>0.9</v>
+      </c>
+      <c r="AU115">
+        <v>1.65</v>
+      </c>
+      <c r="AV115">
+        <v>1.57</v>
+      </c>
+      <c r="AW115">
+        <v>3.22</v>
+      </c>
+      <c r="AX115">
+        <v>1.59</v>
+      </c>
+      <c r="AY115">
+        <v>9</v>
+      </c>
+      <c r="AZ115">
+        <v>2.67</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>1.13</v>
+      </c>
+      <c r="BC115">
+        <v>1.26</v>
+      </c>
+      <c r="BD115">
+        <v>1.48</v>
+      </c>
+      <c r="BE115">
+        <v>1.98</v>
+      </c>
+      <c r="BF115">
+        <v>-1</v>
+      </c>
+      <c r="BG115">
+        <v>-1</v>
+      </c>
+      <c r="BH115">
+        <v>-1</v>
+      </c>
+      <c r="BI115">
+        <v>-1</v>
+      </c>
+      <c r="BJ115">
+        <v>-1</v>
+      </c>
+      <c r="BK115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4933996</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45158.58333333334</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" t="s">
+        <v>65</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>164</v>
+      </c>
+      <c r="P116" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>7</v>
+      </c>
+      <c r="S116">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>3.18</v>
+      </c>
+      <c r="U116">
+        <v>2.42</v>
+      </c>
+      <c r="V116">
+        <v>2.74</v>
+      </c>
+      <c r="W116">
+        <v>1.25</v>
+      </c>
+      <c r="X116">
+        <v>3.72</v>
+      </c>
+      <c r="Y116">
+        <v>2.15</v>
+      </c>
+      <c r="Z116">
+        <v>1.66</v>
+      </c>
+      <c r="AA116">
+        <v>4.7</v>
+      </c>
+      <c r="AB116">
+        <v>1.17</v>
+      </c>
+      <c r="AC116">
+        <v>2.69</v>
+      </c>
+      <c r="AD116">
+        <v>3.4</v>
+      </c>
+      <c r="AE116">
+        <v>2.16</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>12</v>
+      </c>
+      <c r="AH116">
+        <v>1.15</v>
+      </c>
+      <c r="AI116">
+        <v>4.75</v>
+      </c>
+      <c r="AJ116">
+        <v>1.44</v>
+      </c>
+      <c r="AK116">
+        <v>2.59</v>
+      </c>
+      <c r="AL116">
+        <v>1.43</v>
+      </c>
+      <c r="AM116">
+        <v>2.7</v>
+      </c>
+      <c r="AN116">
+        <v>1.61</v>
+      </c>
+      <c r="AO116">
+        <v>1.26</v>
+      </c>
+      <c r="AP116">
+        <v>1.45</v>
+      </c>
+      <c r="AQ116">
+        <v>1.56</v>
+      </c>
+      <c r="AR116">
+        <v>0.75</v>
+      </c>
+      <c r="AS116">
+        <v>1.7</v>
+      </c>
+      <c r="AT116">
+        <v>0.67</v>
+      </c>
+      <c r="AU116">
+        <v>1.54</v>
+      </c>
+      <c r="AV116">
+        <v>1.46</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>2.32</v>
+      </c>
+      <c r="AY116">
+        <v>8.5</v>
+      </c>
+      <c r="AZ116">
+        <v>1.82</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>1.18</v>
+      </c>
+      <c r="BC116">
+        <v>1.34</v>
+      </c>
+      <c r="BD116">
+        <v>1.65</v>
+      </c>
+      <c r="BE116">
+        <v>1.98</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>4</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>8</v>
+      </c>
+      <c r="BK116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4933999</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45158.625</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>165</v>
+      </c>
+      <c r="P117" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q117">
+        <v>8</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
+        <v>1.6</v>
+      </c>
+      <c r="U117">
+        <v>2.85</v>
+      </c>
+      <c r="V117">
+        <v>6.5</v>
+      </c>
+      <c r="W117">
+        <v>1.22</v>
+      </c>
+      <c r="X117">
+        <v>3.8</v>
+      </c>
+      <c r="Y117">
+        <v>1.97</v>
+      </c>
+      <c r="Z117">
+        <v>1.72</v>
+      </c>
+      <c r="AA117">
+        <v>4</v>
+      </c>
+      <c r="AB117">
+        <v>1.2</v>
+      </c>
+      <c r="AC117">
+        <v>1.36</v>
+      </c>
+      <c r="AD117">
+        <v>4.43</v>
+      </c>
+      <c r="AE117">
+        <v>5.98</v>
+      </c>
+      <c r="AF117">
+        <v>1.02</v>
+      </c>
+      <c r="AG117">
+        <v>15</v>
+      </c>
+      <c r="AH117">
+        <v>1.07</v>
+      </c>
+      <c r="AI117">
+        <v>6.5</v>
+      </c>
+      <c r="AJ117">
+        <v>1.35</v>
+      </c>
+      <c r="AK117">
+        <v>2.94</v>
+      </c>
+      <c r="AL117">
+        <v>1.65</v>
+      </c>
+      <c r="AM117">
+        <v>2.1</v>
+      </c>
+      <c r="AN117">
+        <v>1.06</v>
+      </c>
+      <c r="AO117">
+        <v>1.05</v>
+      </c>
+      <c r="AP117">
+        <v>3.7</v>
+      </c>
+      <c r="AQ117">
+        <v>1.89</v>
+      </c>
+      <c r="AR117">
+        <v>0.67</v>
+      </c>
+      <c r="AS117">
+        <v>2</v>
+      </c>
+      <c r="AT117">
+        <v>0.6</v>
+      </c>
+      <c r="AU117">
+        <v>1.91</v>
+      </c>
+      <c r="AV117">
+        <v>1.08</v>
+      </c>
+      <c r="AW117">
+        <v>2.99</v>
+      </c>
+      <c r="AX117">
+        <v>1.15</v>
+      </c>
+      <c r="AY117">
+        <v>14.7</v>
+      </c>
+      <c r="AZ117">
+        <v>6.91</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>1.13</v>
+      </c>
+      <c r="BC117">
+        <v>1.27</v>
+      </c>
+      <c r="BD117">
+        <v>1.49</v>
+      </c>
+      <c r="BE117">
+        <v>1.85</v>
+      </c>
+      <c r="BF117">
+        <v>7</v>
+      </c>
+      <c r="BG117">
+        <v>2</v>
+      </c>
+      <c r="BH117">
+        <v>4</v>
+      </c>
+      <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>11</v>
+      </c>
+      <c r="BK117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4933998</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45158.67708333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>80</v>
+      </c>
+      <c r="P118" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>12</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2.45</v>
+      </c>
+      <c r="V118">
+        <v>2.84</v>
+      </c>
+      <c r="W118">
+        <v>1.24</v>
+      </c>
+      <c r="X118">
+        <v>3.82</v>
+      </c>
+      <c r="Y118">
+        <v>2.12</v>
+      </c>
+      <c r="Z118">
+        <v>1.68</v>
+      </c>
+      <c r="AA118">
+        <v>4.55</v>
+      </c>
+      <c r="AB118">
+        <v>1.18</v>
+      </c>
+      <c r="AC118">
+        <v>2.31</v>
+      </c>
+      <c r="AD118">
+        <v>3.43</v>
+      </c>
+      <c r="AE118">
+        <v>2.46</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>13</v>
+      </c>
+      <c r="AH118">
+        <v>1.13</v>
+      </c>
+      <c r="AI118">
+        <v>5</v>
+      </c>
+      <c r="AJ118">
+        <v>1.45</v>
+      </c>
+      <c r="AK118">
+        <v>2.56</v>
+      </c>
+      <c r="AL118">
+        <v>1.41</v>
+      </c>
+      <c r="AM118">
+        <v>2.77</v>
+      </c>
+      <c r="AN118">
+        <v>1.45</v>
+      </c>
+      <c r="AO118">
+        <v>1.26</v>
+      </c>
+      <c r="AP118">
+        <v>1.42</v>
+      </c>
+      <c r="AQ118">
+        <v>2.22</v>
+      </c>
+      <c r="AR118">
+        <v>2.56</v>
+      </c>
+      <c r="AS118">
+        <v>2</v>
+      </c>
+      <c r="AT118">
+        <v>2.6</v>
+      </c>
+      <c r="AU118">
+        <v>1.68</v>
+      </c>
+      <c r="AV118">
+        <v>1.77</v>
+      </c>
+      <c r="AW118">
+        <v>3.45</v>
+      </c>
+      <c r="AX118">
+        <v>2.05</v>
+      </c>
+      <c r="AY118">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ118">
+        <v>1.99</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>1.18</v>
+      </c>
+      <c r="BC118">
+        <v>1.35</v>
+      </c>
+      <c r="BD118">
+        <v>1.67</v>
+      </c>
+      <c r="BE118">
+        <v>2</v>
+      </c>
+      <c r="BF118">
+        <v>3</v>
+      </c>
+      <c r="BG118">
+        <v>10</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>7</v>
+      </c>
+      <c r="BJ118">
+        <v>6</v>
+      </c>
+      <c r="BK118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4933997</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45158.67708333334</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>72</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>166</v>
+      </c>
+      <c r="P119" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q119">
+        <v>2</v>
+      </c>
+      <c r="R119">
+        <v>9</v>
+      </c>
+      <c r="S119">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>3.34</v>
+      </c>
+      <c r="U119">
+        <v>2.39</v>
+      </c>
+      <c r="V119">
+        <v>2.67</v>
+      </c>
+      <c r="W119">
+        <v>1.26</v>
+      </c>
+      <c r="X119">
+        <v>3.64</v>
+      </c>
+      <c r="Y119">
+        <v>2.22</v>
+      </c>
+      <c r="Z119">
+        <v>1.62</v>
+      </c>
+      <c r="AA119">
+        <v>4.95</v>
+      </c>
+      <c r="AB119">
+        <v>1.16</v>
+      </c>
+      <c r="AC119">
+        <v>3.13</v>
+      </c>
+      <c r="AD119">
+        <v>3.68</v>
+      </c>
+      <c r="AE119">
+        <v>2.03</v>
+      </c>
+      <c r="AF119">
+        <v>1.02</v>
+      </c>
+      <c r="AG119">
+        <v>12</v>
+      </c>
+      <c r="AH119">
+        <v>1.15</v>
+      </c>
+      <c r="AI119">
+        <v>4.75</v>
+      </c>
+      <c r="AJ119">
+        <v>1.48</v>
+      </c>
+      <c r="AK119">
+        <v>2.47</v>
+      </c>
+      <c r="AL119">
+        <v>1.46</v>
+      </c>
+      <c r="AM119">
+        <v>2.6</v>
+      </c>
+      <c r="AN119">
+        <v>1.65</v>
+      </c>
+      <c r="AO119">
+        <v>1.26</v>
+      </c>
+      <c r="AP119">
+        <v>1.41</v>
+      </c>
+      <c r="AQ119">
+        <v>1.33</v>
+      </c>
+      <c r="AR119">
+        <v>0.89</v>
+      </c>
+      <c r="AS119">
+        <v>1.3</v>
+      </c>
+      <c r="AT119">
+        <v>0.9</v>
+      </c>
+      <c r="AU119">
+        <v>1.44</v>
+      </c>
+      <c r="AV119">
+        <v>1.45</v>
+      </c>
+      <c r="AW119">
+        <v>2.89</v>
+      </c>
+      <c r="AX119">
+        <v>2.2</v>
+      </c>
+      <c r="AY119">
+        <v>8.5</v>
+      </c>
+      <c r="AZ119">
+        <v>1.83</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>1.19</v>
+      </c>
+      <c r="BC119">
+        <v>1.36</v>
+      </c>
+      <c r="BD119">
+        <v>1.71</v>
+      </c>
+      <c r="BE119">
+        <v>2.06</v>
+      </c>
+      <c r="BF119">
+        <v>6</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>6</v>
+      </c>
+      <c r="BK119">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['63', '87']</t>
   </si>
   <si>
+    <t>['18', '30', '86']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -725,6 +728,9 @@
   </si>
   <si>
     <t>['13', '90+1']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1336,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1420,7 +1426,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1521,7 +1527,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1712,7 +1718,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1903,7 +1909,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1990,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT5">
         <v>2.6</v>
@@ -2094,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2285,7 +2291,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2476,7 +2482,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2566,7 +2572,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3240,7 +3246,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3431,7 +3437,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3622,7 +3628,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4004,7 +4010,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4195,7 +4201,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4476,7 +4482,7 @@
         <v>2.7</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU18">
         <v>1.43</v>
@@ -4577,7 +4583,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4664,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT19">
         <v>1.1</v>
@@ -4768,7 +4774,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5049,7 +5055,7 @@
         <v>2.11</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>1.21</v>
@@ -5341,7 +5347,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5723,7 +5729,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6105,7 +6111,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6296,7 +6302,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6487,7 +6493,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6678,7 +6684,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6765,7 +6771,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT30">
         <v>1.8</v>
@@ -6869,7 +6875,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7060,7 +7066,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7341,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.46</v>
@@ -7633,7 +7639,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7824,7 +7830,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8015,7 +8021,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8293,7 +8299,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT38">
         <v>0.4</v>
@@ -8397,7 +8403,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8588,7 +8594,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8779,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9161,7 +9167,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9734,7 +9740,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9925,7 +9931,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10116,7 +10122,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10203,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT48">
         <v>0.9</v>
@@ -10307,7 +10313,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10397,7 +10403,7 @@
         <v>1.7</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>1.51</v>
@@ -10498,7 +10504,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11262,7 +11268,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11453,7 +11459,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11835,7 +11841,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12217,7 +12223,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12307,7 +12313,7 @@
         <v>1.1</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>1.32</v>
@@ -12495,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12599,7 +12605,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12790,7 +12796,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12981,7 +12987,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13363,7 +13369,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13554,7 +13560,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13745,7 +13751,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13936,7 +13942,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14127,7 +14133,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14700,7 +14706,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14891,7 +14897,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15846,7 +15852,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16124,7 +16130,7 @@
         <v>0.83</v>
       </c>
       <c r="AS79">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT79">
         <v>0.9</v>
@@ -16228,7 +16234,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16801,7 +16807,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17273,7 +17279,7 @@
         <v>1.3</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>1.33</v>
@@ -17374,7 +17380,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17565,7 +17571,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17843,7 +17849,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT88">
         <v>2.2</v>
@@ -18329,7 +18335,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18520,7 +18526,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19093,7 +19099,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19284,7 +19290,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19562,7 +19568,7 @@
         <v>0.13</v>
       </c>
       <c r="AS97">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT97">
         <v>0.1</v>
@@ -20239,7 +20245,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20430,7 +20436,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20621,7 +20627,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20812,7 +20818,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20902,7 +20908,7 @@
         <v>2</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU104">
         <v>1.78</v>
@@ -21003,7 +21009,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21194,7 +21200,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21385,7 +21391,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21576,7 +21582,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21767,7 +21773,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21958,7 +21964,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22149,7 +22155,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22340,7 +22346,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22531,7 +22537,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>16</v>
@@ -22722,7 +22728,7 @@
         <v>80</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22913,16 +22919,16 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S115">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T115">
         <v>2.55</v>
@@ -23039,22 +23045,22 @@
         <v>1.98</v>
       </c>
       <c r="BF115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG115">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH115">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI115">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ115">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK115">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -23104,7 +23110,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23295,7 +23301,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23486,7 +23492,7 @@
         <v>80</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23677,7 +23683,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23819,6 +23825,197 @@
       </c>
       <c r="BK119">
         <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4934000</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45159.67708333334</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>167</v>
+      </c>
+      <c r="P120" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120">
+        <v>2.3</v>
+      </c>
+      <c r="U120">
+        <v>2.45</v>
+      </c>
+      <c r="V120">
+        <v>3.5</v>
+      </c>
+      <c r="W120">
+        <v>1.25</v>
+      </c>
+      <c r="X120">
+        <v>3.6</v>
+      </c>
+      <c r="Y120">
+        <v>2.15</v>
+      </c>
+      <c r="Z120">
+        <v>1.62</v>
+      </c>
+      <c r="AA120">
+        <v>4.4</v>
+      </c>
+      <c r="AB120">
+        <v>1.17</v>
+      </c>
+      <c r="AC120">
+        <v>1.8</v>
+      </c>
+      <c r="AD120">
+        <v>3.6</v>
+      </c>
+      <c r="AE120">
+        <v>3.6</v>
+      </c>
+      <c r="AF120">
+        <v>1.02</v>
+      </c>
+      <c r="AG120">
+        <v>10</v>
+      </c>
+      <c r="AH120">
+        <v>1.15</v>
+      </c>
+      <c r="AI120">
+        <v>4.75</v>
+      </c>
+      <c r="AJ120">
+        <v>1.53</v>
+      </c>
+      <c r="AK120">
+        <v>2.35</v>
+      </c>
+      <c r="AL120">
+        <v>1.5</v>
+      </c>
+      <c r="AM120">
+        <v>2.4</v>
+      </c>
+      <c r="AN120">
+        <v>1.25</v>
+      </c>
+      <c r="AO120">
+        <v>1.17</v>
+      </c>
+      <c r="AP120">
+        <v>1.95</v>
+      </c>
+      <c r="AQ120">
+        <v>2.11</v>
+      </c>
+      <c r="AR120">
+        <v>1.33</v>
+      </c>
+      <c r="AS120">
+        <v>2.2</v>
+      </c>
+      <c r="AT120">
+        <v>1.2</v>
+      </c>
+      <c r="AU120">
+        <v>1.7</v>
+      </c>
+      <c r="AV120">
+        <v>1.85</v>
+      </c>
+      <c r="AW120">
+        <v>3.55</v>
+      </c>
+      <c r="AX120">
+        <v>1.69</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>2.53</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>1.16</v>
+      </c>
+      <c r="BC120">
+        <v>1.31</v>
+      </c>
+      <c r="BD120">
+        <v>1.64</v>
+      </c>
+      <c r="BE120">
+        <v>1.93</v>
+      </c>
+      <c r="BF120">
+        <v>5</v>
+      </c>
+      <c r="BG120">
+        <v>6</v>
+      </c>
+      <c r="BH120">
+        <v>2</v>
+      </c>
+      <c r="BI120">
+        <v>3</v>
+      </c>
+      <c r="BJ120">
+        <v>7</v>
+      </c>
+      <c r="BK120">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,12 @@
     <t>['18', '30', '86']</t>
   </si>
   <si>
+    <t>['16', '90']</t>
+  </si>
+  <si>
+    <t>['23', '49', '60']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -731,6 +737,9 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['25', '34']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1345,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1423,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
         <v>1.2</v>
@@ -1527,7 +1536,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1718,7 +1727,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1909,7 +1918,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2100,7 +2109,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2291,7 +2300,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2482,7 +2491,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2760,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT9">
         <v>0.4</v>
@@ -2951,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT10">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3246,7 +3255,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3437,7 +3446,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3628,7 +3637,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3906,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT15">
         <v>0.6</v>
@@ -4010,7 +4019,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4100,7 +4109,7 @@
         <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -4201,7 +4210,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4583,7 +4592,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4774,7 +4783,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5052,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT21">
         <v>1.2</v>
@@ -5347,7 +5356,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5729,7 +5738,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5819,7 +5828,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -6111,7 +6120,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6198,7 +6207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT27">
         <v>0.9</v>
@@ -6302,7 +6311,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6493,7 +6502,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6583,7 +6592,7 @@
         <v>1.1</v>
       </c>
       <c r="AT29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6684,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6875,7 +6884,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7066,7 +7075,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7639,7 +7648,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7729,7 +7738,7 @@
         <v>1.7</v>
       </c>
       <c r="AT35">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -7830,7 +7839,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7917,7 +7926,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT36">
         <v>0.6</v>
@@ -8021,7 +8030,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8403,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8490,10 +8499,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8594,7 +8603,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8785,7 +8794,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9167,7 +9176,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9740,7 +9749,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9931,7 +9940,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10122,7 +10131,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10313,7 +10322,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10504,7 +10513,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10591,7 +10600,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT50">
         <v>2.6</v>
@@ -10785,7 +10794,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -11167,7 +11176,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -11268,7 +11277,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11355,7 +11364,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT54">
         <v>1.1</v>
@@ -11459,7 +11468,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11546,7 +11555,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT55">
         <v>0.1</v>
@@ -11841,7 +11850,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11931,7 +11940,7 @@
         <v>2.7</v>
       </c>
       <c r="AT57">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12223,7 +12232,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12605,7 +12614,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12796,7 +12805,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12987,7 +12996,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13265,7 +13274,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT64">
         <v>0.9</v>
@@ -13369,7 +13378,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13560,7 +13569,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13647,7 +13656,7 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT66">
         <v>1.8</v>
@@ -13751,7 +13760,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13841,7 +13850,7 @@
         <v>1.3</v>
       </c>
       <c r="AT67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13942,7 +13951,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14133,7 +14142,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14223,7 +14232,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14411,7 +14420,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT70">
         <v>0.1</v>
@@ -14706,7 +14715,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14897,7 +14906,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14987,7 +14996,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>1.72</v>
@@ -15369,7 +15378,7 @@
         <v>2.7</v>
       </c>
       <c r="AT75">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU75">
         <v>1.67</v>
@@ -15852,7 +15861,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16234,7 +16243,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16807,7 +16816,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17380,7 +17389,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17571,7 +17580,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17852,7 +17861,7 @@
         <v>2.2</v>
       </c>
       <c r="AT88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.85</v>
@@ -18335,7 +18344,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18526,7 +18535,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18998,7 +19007,7 @@
         <v>1.3</v>
       </c>
       <c r="AT94">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU94">
         <v>1.42</v>
@@ -19099,7 +19108,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19290,7 +19299,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19377,7 +19386,7 @@
         <v>0.29</v>
       </c>
       <c r="AS96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT96">
         <v>0.9</v>
@@ -19762,7 +19771,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU98">
         <v>1.78</v>
@@ -19950,7 +19959,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
         <v>1.1</v>
@@ -20245,7 +20254,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20436,7 +20445,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20526,7 +20535,7 @@
         <v>1.6</v>
       </c>
       <c r="AT102">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.48</v>
@@ -20627,7 +20636,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20717,7 +20726,7 @@
         <v>1.3</v>
       </c>
       <c r="AT103">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU103">
         <v>1.7</v>
@@ -20818,7 +20827,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21009,7 +21018,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21200,7 +21209,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21287,7 +21296,7 @@
         <v>2.5</v>
       </c>
       <c r="AS106">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT106">
         <v>2.6</v>
@@ -21391,7 +21400,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21582,7 +21591,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21773,7 +21782,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21860,7 +21869,7 @@
         <v>1.89</v>
       </c>
       <c r="AS109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT109">
         <v>1.8</v>
@@ -21964,7 +21973,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22054,7 +22063,7 @@
         <v>0.5</v>
       </c>
       <c r="AT110">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU110">
         <v>1.28</v>
@@ -22155,7 +22164,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22242,7 +22251,7 @@
         <v>0.44</v>
       </c>
       <c r="AS111">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT111">
         <v>0.4</v>
@@ -22346,7 +22355,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22537,7 +22546,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>16</v>
@@ -22728,7 +22737,7 @@
         <v>80</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22818,7 +22827,7 @@
         <v>1.1</v>
       </c>
       <c r="AT114">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU114">
         <v>1.34</v>
@@ -22919,7 +22928,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23110,7 +23119,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23301,7 +23310,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23492,7 +23501,7 @@
         <v>80</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23683,7 +23692,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23874,7 +23883,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24016,6 +24025,388 @@
       </c>
       <c r="BK120">
         <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4934001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>65</v>
+      </c>
+      <c r="H121" t="s">
+        <v>68</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>168</v>
+      </c>
+      <c r="P121" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>3.48</v>
+      </c>
+      <c r="U121">
+        <v>2.42</v>
+      </c>
+      <c r="V121">
+        <v>2.6</v>
+      </c>
+      <c r="W121">
+        <v>1.25</v>
+      </c>
+      <c r="X121">
+        <v>3.72</v>
+      </c>
+      <c r="Y121">
+        <v>2.17</v>
+      </c>
+      <c r="Z121">
+        <v>1.65</v>
+      </c>
+      <c r="AA121">
+        <v>4.75</v>
+      </c>
+      <c r="AB121">
+        <v>1.17</v>
+      </c>
+      <c r="AC121">
+        <v>2.75</v>
+      </c>
+      <c r="AD121">
+        <v>3.55</v>
+      </c>
+      <c r="AE121">
+        <v>2.25</v>
+      </c>
+      <c r="AF121">
+        <v>1.02</v>
+      </c>
+      <c r="AG121">
+        <v>14</v>
+      </c>
+      <c r="AH121">
+        <v>1.12</v>
+      </c>
+      <c r="AI121">
+        <v>5.1</v>
+      </c>
+      <c r="AJ121">
+        <v>1.45</v>
+      </c>
+      <c r="AK121">
+        <v>2.56</v>
+      </c>
+      <c r="AL121">
+        <v>1.44</v>
+      </c>
+      <c r="AM121">
+        <v>2.7</v>
+      </c>
+      <c r="AN121">
+        <v>1.7</v>
+      </c>
+      <c r="AO121">
+        <v>1.26</v>
+      </c>
+      <c r="AP121">
+        <v>1.38</v>
+      </c>
+      <c r="AQ121">
+        <v>1.6</v>
+      </c>
+      <c r="AR121">
+        <v>0.9</v>
+      </c>
+      <c r="AS121">
+        <v>1.73</v>
+      </c>
+      <c r="AT121">
+        <v>0.82</v>
+      </c>
+      <c r="AU121">
+        <v>1.54</v>
+      </c>
+      <c r="AV121">
+        <v>1.61</v>
+      </c>
+      <c r="AW121">
+        <v>3.15</v>
+      </c>
+      <c r="AX121">
+        <v>1.97</v>
+      </c>
+      <c r="AY121">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ121">
+        <v>2.07</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>1.18</v>
+      </c>
+      <c r="BC121">
+        <v>1.35</v>
+      </c>
+      <c r="BD121">
+        <v>1.63</v>
+      </c>
+      <c r="BE121">
+        <v>2.04</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>7</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>5</v>
+      </c>
+      <c r="BJ121">
+        <v>9</v>
+      </c>
+      <c r="BK121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4934004</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>169</v>
+      </c>
+      <c r="P122" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q122">
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <v>-1</v>
+      </c>
+      <c r="S122">
+        <v>-1</v>
+      </c>
+      <c r="T122">
+        <v>3.5</v>
+      </c>
+      <c r="U122">
+        <v>2.41</v>
+      </c>
+      <c r="V122">
+        <v>2.55</v>
+      </c>
+      <c r="W122">
+        <v>1.26</v>
+      </c>
+      <c r="X122">
+        <v>3.64</v>
+      </c>
+      <c r="Y122">
+        <v>2.2</v>
+      </c>
+      <c r="Z122">
+        <v>1.63</v>
+      </c>
+      <c r="AA122">
+        <v>4.9</v>
+      </c>
+      <c r="AB122">
+        <v>1.16</v>
+      </c>
+      <c r="AC122">
+        <v>2.95</v>
+      </c>
+      <c r="AD122">
+        <v>3.55</v>
+      </c>
+      <c r="AE122">
+        <v>2.15</v>
+      </c>
+      <c r="AF122">
+        <v>1.02</v>
+      </c>
+      <c r="AG122">
+        <v>10</v>
+      </c>
+      <c r="AH122">
+        <v>1.12</v>
+      </c>
+      <c r="AI122">
+        <v>4.9</v>
+      </c>
+      <c r="AJ122">
+        <v>1.46</v>
+      </c>
+      <c r="AK122">
+        <v>2.52</v>
+      </c>
+      <c r="AL122">
+        <v>1.46</v>
+      </c>
+      <c r="AM122">
+        <v>2.6</v>
+      </c>
+      <c r="AN122">
+        <v>1.73</v>
+      </c>
+      <c r="AO122">
+        <v>1.26</v>
+      </c>
+      <c r="AP122">
+        <v>1.36</v>
+      </c>
+      <c r="AQ122">
+        <v>2.11</v>
+      </c>
+      <c r="AR122">
+        <v>2.2</v>
+      </c>
+      <c r="AS122">
+        <v>2.2</v>
+      </c>
+      <c r="AT122">
+        <v>2</v>
+      </c>
+      <c r="AU122">
+        <v>1.68</v>
+      </c>
+      <c r="AV122">
+        <v>1.57</v>
+      </c>
+      <c r="AW122">
+        <v>3.25</v>
+      </c>
+      <c r="AX122">
+        <v>2.07</v>
+      </c>
+      <c r="AY122">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ122">
+        <v>1.97</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1.16</v>
+      </c>
+      <c r="BC122">
+        <v>1.31</v>
+      </c>
+      <c r="BD122">
+        <v>1.56</v>
+      </c>
+      <c r="BE122">
+        <v>1.9</v>
+      </c>
+      <c r="BF122">
+        <v>-1</v>
+      </c>
+      <c r="BG122">
+        <v>-1</v>
+      </c>
+      <c r="BH122">
+        <v>-1</v>
+      </c>
+      <c r="BI122">
+        <v>-1</v>
+      </c>
+      <c r="BJ122">
+        <v>-1</v>
+      </c>
+      <c r="BK122">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,15 @@
     <t>['23', '49', '60']</t>
   </si>
   <si>
+    <t>['45', '83']</t>
+  </si>
+  <si>
+    <t>['23', '36', '48', '64', '69']</t>
+  </si>
+  <si>
+    <t>['13', '68']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -740,6 +749,12 @@
   </si>
   <si>
     <t>['25', '34']</t>
+  </si>
+  <si>
+    <t>['42', '72', '75']</t>
+  </si>
+  <si>
+    <t>['74', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1360,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1536,7 +1551,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1727,7 +1742,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1817,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1918,7 +1933,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2109,7 +2124,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2300,7 +2315,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2491,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2578,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -2772,7 +2787,7 @@
         <v>1.73</v>
       </c>
       <c r="AT9">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU9">
         <v>1.32</v>
@@ -3151,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3255,7 +3270,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3345,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU12">
         <v>1.81</v>
@@ -3446,7 +3461,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3533,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3637,7 +3652,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3727,7 +3742,7 @@
         <v>1.3</v>
       </c>
       <c r="AT14">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4019,7 +4034,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4210,7 +4225,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4488,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT18">
         <v>1.2</v>
@@ -4592,7 +4607,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4783,7 +4798,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4873,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -5252,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5356,7 +5371,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5443,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT23">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU23">
         <v>1.41</v>
@@ -5634,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT24">
         <v>0.67</v>
@@ -5738,7 +5753,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6019,7 +6034,7 @@
         <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU26">
         <v>1.25</v>
@@ -6120,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6311,7 +6326,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6398,7 +6413,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
         <v>1.1</v>
@@ -6502,7 +6517,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6693,7 +6708,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6783,7 +6798,7 @@
         <v>2.2</v>
       </c>
       <c r="AT30">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6884,7 +6899,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6971,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT31">
         <v>0.6</v>
@@ -7075,7 +7090,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7162,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
         <v>0.67</v>
@@ -7648,7 +7663,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7839,7 +7854,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8030,7 +8045,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8120,7 +8135,7 @@
         <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8311,7 +8326,7 @@
         <v>2.2</v>
       </c>
       <c r="AT38">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU38">
         <v>1.79</v>
@@ -8412,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8603,7 +8618,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8690,10 +8705,10 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT40">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8794,7 +8809,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8881,7 +8896,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT41">
         <v>1.1</v>
@@ -9072,7 +9087,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT42">
         <v>0.9</v>
@@ -9176,7 +9191,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9266,7 +9281,7 @@
         <v>1.1</v>
       </c>
       <c r="AT43">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9749,7 +9764,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9836,7 +9851,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
         <v>2.6</v>
@@ -9940,7 +9955,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10131,7 +10146,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10221,7 +10236,7 @@
         <v>2.2</v>
       </c>
       <c r="AT48">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10322,7 +10337,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10513,7 +10528,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10985,7 +11000,7 @@
         <v>1.1</v>
       </c>
       <c r="AT52">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU52">
         <v>1.23</v>
@@ -11173,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT53">
         <v>0.82</v>
@@ -11277,7 +11292,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11468,7 +11483,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11558,7 +11573,7 @@
         <v>1.73</v>
       </c>
       <c r="AT55">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11746,10 +11761,10 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT56">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11850,7 +11865,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11937,7 +11952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS57">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT57">
         <v>2</v>
@@ -12232,7 +12247,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12614,7 +12629,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12805,7 +12820,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12996,7 +13011,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13277,7 +13292,7 @@
         <v>1.73</v>
       </c>
       <c r="AT64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13378,7 +13393,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13465,10 +13480,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT65">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU65">
         <v>1.59</v>
@@ -13569,7 +13584,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13659,7 +13674,7 @@
         <v>2.2</v>
       </c>
       <c r="AT66">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -13760,7 +13775,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13847,7 +13862,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT67">
         <v>2</v>
@@ -13951,7 +13966,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14038,10 +14053,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT68">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14142,7 +14157,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14229,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT69">
         <v>0.82</v>
@@ -14423,7 +14438,7 @@
         <v>2.2</v>
       </c>
       <c r="AT70">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14611,10 +14626,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT71">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -14715,7 +14730,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14802,10 +14817,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU72">
         <v>1.29</v>
@@ -14906,7 +14921,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15184,7 +15199,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15375,7 +15390,7 @@
         <v>0.2</v>
       </c>
       <c r="AS75">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT75">
         <v>0.82</v>
@@ -15757,7 +15772,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
         <v>0.6</v>
@@ -15861,7 +15876,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16243,7 +16258,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16524,7 +16539,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU81">
         <v>1.81</v>
@@ -16715,7 +16730,7 @@
         <v>1.3</v>
       </c>
       <c r="AT82">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU82">
         <v>1.64</v>
@@ -16816,7 +16831,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16903,7 +16918,7 @@
         <v>2.67</v>
       </c>
       <c r="AS83">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT83">
         <v>2.6</v>
@@ -17097,7 +17112,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17285,7 +17300,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT85">
         <v>1.2</v>
@@ -17389,7 +17404,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17479,7 +17494,7 @@
         <v>1.7</v>
       </c>
       <c r="AT86">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU86">
         <v>1.62</v>
@@ -17580,7 +17595,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18240,7 +18255,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18344,7 +18359,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18434,7 +18449,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18535,7 +18550,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18622,7 +18637,7 @@
         <v>2.43</v>
       </c>
       <c r="AS92">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT92">
         <v>2.6</v>
@@ -18816,7 +18831,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19004,7 +19019,7 @@
         <v>0.17</v>
       </c>
       <c r="AS94">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
         <v>0.82</v>
@@ -19108,7 +19123,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19195,7 +19210,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT95">
         <v>0.67</v>
@@ -19299,7 +19314,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19389,7 +19404,7 @@
         <v>2.2</v>
       </c>
       <c r="AT96">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU96">
         <v>1.75</v>
@@ -19580,7 +19595,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU97">
         <v>1.72</v>
@@ -20150,10 +20165,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT100">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU100">
         <v>1.66</v>
@@ -20254,7 +20269,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20341,7 +20356,7 @@
         <v>0.63</v>
       </c>
       <c r="AS101">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT101">
         <v>0.9</v>
@@ -20445,7 +20460,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20532,7 +20547,7 @@
         <v>2.25</v>
       </c>
       <c r="AS102">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT102">
         <v>2</v>
@@ -20636,7 +20651,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20827,7 +20842,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21018,7 +21033,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21209,7 +21224,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21400,7 +21415,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21490,7 +21505,7 @@
         <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU107">
         <v>1.54</v>
@@ -21591,7 +21606,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21678,7 +21693,7 @@
         <v>0.75</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>0.6</v>
@@ -21782,7 +21797,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21872,7 +21887,7 @@
         <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU109">
         <v>1.5</v>
@@ -21973,7 +21988,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22060,7 +22075,7 @@
         <v>2.33</v>
       </c>
       <c r="AS110">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT110">
         <v>2</v>
@@ -22164,7 +22179,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22254,7 +22269,7 @@
         <v>2.2</v>
       </c>
       <c r="AT111">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AU111">
         <v>1.7</v>
@@ -22355,7 +22370,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22442,10 +22457,10 @@
         <v>0.11</v>
       </c>
       <c r="AS112">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT112">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU112">
         <v>1.5</v>
@@ -22546,7 +22561,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>16</v>
@@ -22633,7 +22648,7 @@
         <v>1.22</v>
       </c>
       <c r="AS113">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT113">
         <v>1.1</v>
@@ -22737,7 +22752,7 @@
         <v>80</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22928,7 +22943,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23018,7 +23033,7 @@
         <v>1.3</v>
       </c>
       <c r="AT115">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU115">
         <v>1.65</v>
@@ -23119,7 +23134,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23310,7 +23325,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23501,7 +23516,7 @@
         <v>80</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23692,7 +23707,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23779,7 +23794,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT119">
         <v>0.9</v>
@@ -23883,7 +23898,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24265,16 +24280,16 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R122">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S122">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T122">
         <v>3.5</v>
@@ -24391,22 +24406,786 @@
         <v>1.9</v>
       </c>
       <c r="BF122">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG122">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH122">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI122">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ122">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK122">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4934002</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45165.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>9</v>
+      </c>
+      <c r="S123">
+        <v>15</v>
+      </c>
+      <c r="T123">
+        <v>2.08</v>
+      </c>
+      <c r="U123">
+        <v>2.52</v>
+      </c>
+      <c r="V123">
+        <v>4.65</v>
+      </c>
+      <c r="W123">
+        <v>1.24</v>
+      </c>
+      <c r="X123">
+        <v>3.82</v>
+      </c>
+      <c r="Y123">
+        <v>2.15</v>
+      </c>
+      <c r="Z123">
+        <v>1.66</v>
+      </c>
+      <c r="AA123">
+        <v>4.7</v>
+      </c>
+      <c r="AB123">
+        <v>1.17</v>
+      </c>
+      <c r="AC123">
+        <v>1.68</v>
+      </c>
+      <c r="AD123">
+        <v>4.35</v>
+      </c>
+      <c r="AE123">
+        <v>4.38</v>
+      </c>
+      <c r="AF123">
+        <v>1</v>
+      </c>
+      <c r="AG123">
+        <v>12</v>
+      </c>
+      <c r="AH123">
+        <v>1.11</v>
+      </c>
+      <c r="AI123">
+        <v>5.2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.42</v>
+      </c>
+      <c r="AK123">
+        <v>2.46</v>
+      </c>
+      <c r="AL123">
+        <v>1.52</v>
+      </c>
+      <c r="AM123">
+        <v>2.43</v>
+      </c>
+      <c r="AN123">
+        <v>1.16</v>
+      </c>
+      <c r="AO123">
+        <v>1.19</v>
+      </c>
+      <c r="AP123">
+        <v>2.05</v>
+      </c>
+      <c r="AQ123">
+        <v>1.6</v>
+      </c>
+      <c r="AR123">
+        <v>0.9</v>
+      </c>
+      <c r="AS123">
+        <v>1.73</v>
+      </c>
+      <c r="AT123">
+        <v>0.82</v>
+      </c>
+      <c r="AU123">
+        <v>1.55</v>
+      </c>
+      <c r="AV123">
+        <v>1.55</v>
+      </c>
+      <c r="AW123">
+        <v>3.1</v>
+      </c>
+      <c r="AX123">
+        <v>1.4</v>
+      </c>
+      <c r="AY123">
+        <v>11.25</v>
+      </c>
+      <c r="AZ123">
+        <v>3.44</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>1.12</v>
+      </c>
+      <c r="BC123">
+        <v>1.25</v>
+      </c>
+      <c r="BD123">
+        <v>1.46</v>
+      </c>
+      <c r="BE123">
+        <v>1.9</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>2</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>7</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4934005</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45165.58333333334</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>69</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>80</v>
+      </c>
+      <c r="P124" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>2.9</v>
+      </c>
+      <c r="U124">
+        <v>2.35</v>
+      </c>
+      <c r="V124">
+        <v>2.85</v>
+      </c>
+      <c r="W124">
+        <v>1.27</v>
+      </c>
+      <c r="X124">
+        <v>3.4</v>
+      </c>
+      <c r="Y124">
+        <v>2.15</v>
+      </c>
+      <c r="Z124">
+        <v>1.62</v>
+      </c>
+      <c r="AA124">
+        <v>4.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.17</v>
+      </c>
+      <c r="AC124">
+        <v>2.55</v>
+      </c>
+      <c r="AD124">
+        <v>3.82</v>
+      </c>
+      <c r="AE124">
+        <v>2.48</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>12</v>
+      </c>
+      <c r="AH124">
+        <v>1.12</v>
+      </c>
+      <c r="AI124">
+        <v>5.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.43</v>
+      </c>
+      <c r="AK124">
+        <v>2.42</v>
+      </c>
+      <c r="AL124">
+        <v>1.4</v>
+      </c>
+      <c r="AM124">
+        <v>2.7</v>
+      </c>
+      <c r="AN124">
+        <v>1.47</v>
+      </c>
+      <c r="AO124">
+        <v>1.25</v>
+      </c>
+      <c r="AP124">
+        <v>1.47</v>
+      </c>
+      <c r="AQ124">
+        <v>0.5</v>
+      </c>
+      <c r="AR124">
+        <v>0.1</v>
+      </c>
+      <c r="AS124">
+        <v>0.55</v>
+      </c>
+      <c r="AT124">
+        <v>0.18</v>
+      </c>
+      <c r="AU124">
+        <v>1.26</v>
+      </c>
+      <c r="AV124">
+        <v>1.24</v>
+      </c>
+      <c r="AW124">
+        <v>2.5</v>
+      </c>
+      <c r="AX124">
+        <v>2.03</v>
+      </c>
+      <c r="AY124">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ124">
+        <v>2.01</v>
+      </c>
+      <c r="BA124">
+        <v>1.09</v>
+      </c>
+      <c r="BB124">
+        <v>1.21</v>
+      </c>
+      <c r="BC124">
+        <v>1.4</v>
+      </c>
+      <c r="BD124">
+        <v>1.7</v>
+      </c>
+      <c r="BE124">
+        <v>1.93</v>
+      </c>
+      <c r="BF124">
+        <v>6</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>5</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4934006</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45165.67708333334</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125" t="s">
+        <v>171</v>
+      </c>
+      <c r="P125" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
+        <v>13</v>
+      </c>
+      <c r="T125">
+        <v>2.1</v>
+      </c>
+      <c r="U125">
+        <v>2.45</v>
+      </c>
+      <c r="V125">
+        <v>4.2</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>3.6</v>
+      </c>
+      <c r="Y125">
+        <v>2.19</v>
+      </c>
+      <c r="Z125">
+        <v>1.68</v>
+      </c>
+      <c r="AA125">
+        <v>4.4</v>
+      </c>
+      <c r="AB125">
+        <v>1.17</v>
+      </c>
+      <c r="AC125">
+        <v>1.61</v>
+      </c>
+      <c r="AD125">
+        <v>4.45</v>
+      </c>
+      <c r="AE125">
+        <v>4.8</v>
+      </c>
+      <c r="AF125">
+        <v>1</v>
+      </c>
+      <c r="AG125">
+        <v>12</v>
+      </c>
+      <c r="AH125">
+        <v>1.11</v>
+      </c>
+      <c r="AI125">
+        <v>5.3</v>
+      </c>
+      <c r="AJ125">
+        <v>1.35</v>
+      </c>
+      <c r="AK125">
+        <v>2.72</v>
+      </c>
+      <c r="AL125">
+        <v>1.51</v>
+      </c>
+      <c r="AM125">
+        <v>2.5</v>
+      </c>
+      <c r="AN125">
+        <v>1.32</v>
+      </c>
+      <c r="AO125">
+        <v>1.23</v>
+      </c>
+      <c r="AP125">
+        <v>1.6</v>
+      </c>
+      <c r="AQ125">
+        <v>2.7</v>
+      </c>
+      <c r="AR125">
+        <v>1.8</v>
+      </c>
+      <c r="AS125">
+        <v>2.73</v>
+      </c>
+      <c r="AT125">
+        <v>1.64</v>
+      </c>
+      <c r="AU125">
+        <v>1.9</v>
+      </c>
+      <c r="AV125">
+        <v>1.63</v>
+      </c>
+      <c r="AW125">
+        <v>3.53</v>
+      </c>
+      <c r="AX125">
+        <v>1.64</v>
+      </c>
+      <c r="AY125">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ125">
+        <v>2.67</v>
+      </c>
+      <c r="BA125">
+        <v>1.1</v>
+      </c>
+      <c r="BB125">
+        <v>1.23</v>
+      </c>
+      <c r="BC125">
+        <v>1.44</v>
+      </c>
+      <c r="BD125">
+        <v>1.72</v>
+      </c>
+      <c r="BE125">
+        <v>2.09</v>
+      </c>
+      <c r="BF125">
+        <v>11</v>
+      </c>
+      <c r="BG125">
+        <v>6</v>
+      </c>
+      <c r="BH125">
+        <v>7</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>18</v>
+      </c>
+      <c r="BK125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4934003</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45166.625</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>172</v>
+      </c>
+      <c r="P126" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>9</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2.35</v>
+      </c>
+      <c r="V126">
+        <v>3.48</v>
+      </c>
+      <c r="W126">
+        <v>1.27</v>
+      </c>
+      <c r="X126">
+        <v>3.4</v>
+      </c>
+      <c r="Y126">
+        <v>2.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.6</v>
+      </c>
+      <c r="AA126">
+        <v>4.8</v>
+      </c>
+      <c r="AB126">
+        <v>1.15</v>
+      </c>
+      <c r="AC126">
+        <v>2.09</v>
+      </c>
+      <c r="AD126">
+        <v>3.8</v>
+      </c>
+      <c r="AE126">
+        <v>2.79</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>10</v>
+      </c>
+      <c r="AH126">
+        <v>1.13</v>
+      </c>
+      <c r="AI126">
+        <v>5.16</v>
+      </c>
+      <c r="AJ126">
+        <v>1.52</v>
+      </c>
+      <c r="AK126">
+        <v>2.45</v>
+      </c>
+      <c r="AL126">
+        <v>1.42</v>
+      </c>
+      <c r="AM126">
+        <v>2.6</v>
+      </c>
+      <c r="AN126">
+        <v>1.3</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.67</v>
+      </c>
+      <c r="AQ126">
+        <v>1.3</v>
+      </c>
+      <c r="AR126">
+        <v>0.4</v>
+      </c>
+      <c r="AS126">
+        <v>1.27</v>
+      </c>
+      <c r="AT126">
+        <v>0.45</v>
+      </c>
+      <c r="AU126">
+        <v>1.42</v>
+      </c>
+      <c r="AV126">
+        <v>1.34</v>
+      </c>
+      <c r="AW126">
+        <v>2.76</v>
+      </c>
+      <c r="AX126">
+        <v>1.8</v>
+      </c>
+      <c r="AY126">
+        <v>9.9</v>
+      </c>
+      <c r="AZ126">
+        <v>2.29</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>1.15</v>
+      </c>
+      <c r="BC126">
+        <v>1.3</v>
+      </c>
+      <c r="BD126">
+        <v>1.58</v>
+      </c>
+      <c r="BE126">
+        <v>1.95</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>6</v>
+      </c>
+      <c r="BH126">
+        <v>1</v>
+      </c>
+      <c r="BI126">
+        <v>10</v>
+      </c>
+      <c r="BJ126">
+        <v>6</v>
+      </c>
+      <c r="BK126">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -756,6 +756,9 @@
   <si>
     <t>['74', '90+6']</t>
   </si>
+  <si>
+    <t>['31', '45+3', '56']</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2975,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>0.82</v>
@@ -5076,7 +5079,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.2</v>
@@ -5652,7 +5655,7 @@
         <v>2.73</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -7180,7 +7183,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7941,7 +7944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>0.6</v>
@@ -9472,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -11379,7 +11382,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.1</v>
@@ -12528,7 +12531,7 @@
         <v>2.2</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -13671,7 +13674,7 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.64</v>
@@ -14435,7 +14438,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>0.18</v>
@@ -15202,7 +15205,7 @@
         <v>1.73</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15584,7 +15587,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU76">
         <v>1.78</v>
@@ -19213,7 +19216,7 @@
         <v>0.55</v>
       </c>
       <c r="AT95">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19401,7 +19404,7 @@
         <v>0.29</v>
       </c>
       <c r="AS96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>0.82</v>
@@ -21123,7 +21126,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21311,7 +21314,7 @@
         <v>2.5</v>
       </c>
       <c r="AS106">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>2.6</v>
@@ -22266,7 +22269,7 @@
         <v>0.44</v>
       </c>
       <c r="AS111">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>0.45</v>
@@ -23224,7 +23227,7 @@
         <v>1.7</v>
       </c>
       <c r="AT116">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU116">
         <v>1.54</v>
@@ -24367,7 +24370,7 @@
         <v>2.2</v>
       </c>
       <c r="AS122">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT122">
         <v>2</v>
@@ -25186,6 +25189,197 @@
       </c>
       <c r="BK126">
         <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4933963</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45168.60416666666</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>80</v>
+      </c>
+      <c r="P127" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>-1</v>
+      </c>
+      <c r="S127">
+        <v>-1</v>
+      </c>
+      <c r="T127">
+        <v>2.35</v>
+      </c>
+      <c r="U127">
+        <v>2.35</v>
+      </c>
+      <c r="V127">
+        <v>3.6</v>
+      </c>
+      <c r="W127">
+        <v>1.29</v>
+      </c>
+      <c r="X127">
+        <v>3.15</v>
+      </c>
+      <c r="Y127">
+        <v>2.27</v>
+      </c>
+      <c r="Z127">
+        <v>1.51</v>
+      </c>
+      <c r="AA127">
+        <v>5.25</v>
+      </c>
+      <c r="AB127">
+        <v>1.13</v>
+      </c>
+      <c r="AC127">
+        <v>1.8</v>
+      </c>
+      <c r="AD127">
+        <v>3.8</v>
+      </c>
+      <c r="AE127">
+        <v>3</v>
+      </c>
+      <c r="AF127">
+        <v>1.03</v>
+      </c>
+      <c r="AG127">
+        <v>11.5</v>
+      </c>
+      <c r="AH127">
+        <v>1.19</v>
+      </c>
+      <c r="AI127">
+        <v>4.2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.42</v>
+      </c>
+      <c r="AK127">
+        <v>2.75</v>
+      </c>
+      <c r="AL127">
+        <v>1.53</v>
+      </c>
+      <c r="AM127">
+        <v>2.3</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.28</v>
+      </c>
+      <c r="AP127">
+        <v>1.7</v>
+      </c>
+      <c r="AQ127">
+        <v>2.2</v>
+      </c>
+      <c r="AR127">
+        <v>0.67</v>
+      </c>
+      <c r="AS127">
+        <v>2</v>
+      </c>
+      <c r="AT127">
+        <v>0.9</v>
+      </c>
+      <c r="AU127">
+        <v>1.7</v>
+      </c>
+      <c r="AV127">
+        <v>1.45</v>
+      </c>
+      <c r="AW127">
+        <v>3.15</v>
+      </c>
+      <c r="AX127">
+        <v>1.88</v>
+      </c>
+      <c r="AY127">
+        <v>9.5</v>
+      </c>
+      <c r="AZ127">
+        <v>2.19</v>
+      </c>
+      <c r="BA127">
+        <v>1.12</v>
+      </c>
+      <c r="BB127">
+        <v>1.26</v>
+      </c>
+      <c r="BC127">
+        <v>1.52</v>
+      </c>
+      <c r="BD127">
+        <v>1.72</v>
+      </c>
+      <c r="BE127">
+        <v>2.08</v>
+      </c>
+      <c r="BF127">
+        <v>-1</v>
+      </c>
+      <c r="BG127">
+        <v>-1</v>
+      </c>
+      <c r="BH127">
+        <v>-1</v>
+      </c>
+      <c r="BI127">
+        <v>-1</v>
+      </c>
+      <c r="BJ127">
+        <v>-1</v>
+      </c>
+      <c r="BK127">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,21 @@
     <t>['13', '68']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['21', '32', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '53']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+3']</t>
+  </si>
+  <si>
+    <t>['13', '45', '52', '63']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -758,6 +773,15 @@
   </si>
   <si>
     <t>['31', '45+3', '56']</t>
+  </si>
+  <si>
+    <t>['29', '39', '86']</t>
+  </si>
+  <si>
+    <t>['54', '90+2']</t>
+  </si>
+  <si>
+    <t>['61', '79']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1387,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1453,7 +1477,7 @@
         <v>1.73</v>
       </c>
       <c r="AT2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1554,7 +1578,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1641,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1745,7 +1769,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1832,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT4">
         <v>0.45</v>
@@ -1936,7 +1960,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2023,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT5">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2127,7 +2151,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2214,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT6">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2318,7 +2342,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2405,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2509,7 +2533,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2599,7 +2623,7 @@
         <v>0.55</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3273,7 +3297,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3360,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT12">
         <v>1.64</v>
@@ -3464,7 +3488,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3655,7 +3679,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3742,7 +3766,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT14">
         <v>1.64</v>
@@ -3936,7 +3960,7 @@
         <v>1.73</v>
       </c>
       <c r="AT15">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -4037,7 +4061,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4124,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT16">
         <v>2</v>
@@ -4228,7 +4252,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4315,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT17">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4509,7 +4533,7 @@
         <v>2.73</v>
       </c>
       <c r="AT18">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU18">
         <v>1.43</v>
@@ -4610,7 +4634,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4697,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4801,7 +4825,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4888,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT20">
         <v>0.18</v>
@@ -5082,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU21">
         <v>1.21</v>
@@ -5374,7 +5398,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5655,7 +5679,7 @@
         <v>2.73</v>
       </c>
       <c r="AT24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5756,7 +5780,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5843,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT25">
         <v>0.82</v>
@@ -6034,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT26">
         <v>0.45</v>
@@ -6138,7 +6162,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6228,7 +6252,7 @@
         <v>1.73</v>
       </c>
       <c r="AT27">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6329,7 +6353,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6419,7 +6443,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6520,7 +6544,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6607,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -6711,7 +6735,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6798,7 +6822,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT30">
         <v>1.64</v>
@@ -6902,7 +6926,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6992,7 +7016,7 @@
         <v>2.73</v>
       </c>
       <c r="AT31">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -7093,7 +7117,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7183,7 +7207,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7371,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>1.46</v>
@@ -7562,10 +7586,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT34">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7666,7 +7690,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7753,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
         <v>0.82</v>
@@ -7857,7 +7881,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7947,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -8048,7 +8072,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8135,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT37">
         <v>1.64</v>
@@ -8326,7 +8350,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT38">
         <v>0.45</v>
@@ -8430,7 +8454,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8621,7 +8645,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8812,7 +8836,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8902,7 +8926,7 @@
         <v>0.55</v>
       </c>
       <c r="AT41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -9093,7 +9117,7 @@
         <v>2.73</v>
       </c>
       <c r="AT42">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9194,7 +9218,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9281,7 +9305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT43">
         <v>0.18</v>
@@ -9472,10 +9496,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9663,10 +9687,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT45">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9767,7 +9791,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9857,7 +9881,7 @@
         <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9958,7 +9982,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -10045,10 +10069,10 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -10149,7 +10173,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10236,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT48">
         <v>0.82</v>
@@ -10340,7 +10364,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10427,10 +10451,10 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT49">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU49">
         <v>1.51</v>
@@ -10531,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10621,7 +10645,7 @@
         <v>1.73</v>
       </c>
       <c r="AT50">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10809,7 +10833,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT51">
         <v>2</v>
@@ -11000,7 +11024,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT52">
         <v>0.45</v>
@@ -11295,7 +11319,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11385,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11486,7 +11510,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11868,7 +11892,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12146,10 +12170,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.31</v>
@@ -12250,7 +12274,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12337,10 +12361,10 @@
         <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>1.32</v>
@@ -12528,10 +12552,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT60">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12632,7 +12656,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12719,10 +12743,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT61">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12823,7 +12847,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12910,10 +12934,10 @@
         <v>0.8</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT62">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU62">
         <v>1.67</v>
@@ -13014,7 +13038,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13101,10 +13125,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU63">
         <v>1.6</v>
@@ -13396,7 +13420,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13587,7 +13611,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13778,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13969,7 +13993,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14160,7 +14184,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14733,7 +14757,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14924,7 +14948,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15011,7 +15035,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
         <v>2</v>
@@ -15205,7 +15229,7 @@
         <v>1.73</v>
       </c>
       <c r="AT74">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15584,10 +15608,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU76">
         <v>1.78</v>
@@ -15778,7 +15802,7 @@
         <v>1.73</v>
       </c>
       <c r="AT77">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU77">
         <v>1.4</v>
@@ -15879,7 +15903,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15966,10 +15990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -16157,10 +16181,10 @@
         <v>0.83</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT79">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16261,7 +16285,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16348,10 +16372,10 @@
         <v>2.6</v>
       </c>
       <c r="AS80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT80">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16539,7 +16563,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
         <v>0.82</v>
@@ -16730,7 +16754,7 @@
         <v>0.17</v>
       </c>
       <c r="AS82">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT82">
         <v>0.18</v>
@@ -16834,7 +16858,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16924,7 +16948,7 @@
         <v>0.55</v>
       </c>
       <c r="AT83">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -17112,7 +17136,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84">
         <v>0.82</v>
@@ -17306,7 +17330,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU85">
         <v>1.33</v>
@@ -17407,7 +17431,7 @@
         <v>80</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17494,7 +17518,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
         <v>1.64</v>
@@ -17598,7 +17622,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17685,10 +17709,10 @@
         <v>0.71</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT87">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17876,7 +17900,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT88">
         <v>2</v>
@@ -18067,10 +18091,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT89">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.34</v>
@@ -18261,7 +18285,7 @@
         <v>1.73</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU90">
         <v>1.46</v>
@@ -18362,7 +18386,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18449,7 +18473,7 @@
         <v>0.57</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT91">
         <v>0.45</v>
@@ -18553,7 +18577,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18643,7 +18667,7 @@
         <v>1.73</v>
       </c>
       <c r="AT92">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU92">
         <v>1.5</v>
@@ -18831,7 +18855,7 @@
         <v>0.14</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT93">
         <v>0.18</v>
@@ -19126,7 +19150,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19216,7 +19240,7 @@
         <v>0.55</v>
       </c>
       <c r="AT95">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19317,7 +19341,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19595,7 +19619,7 @@
         <v>0.13</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT97">
         <v>0.18</v>
@@ -19786,7 +19810,7 @@
         <v>0.29</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
         <v>0.82</v>
@@ -19980,7 +20004,7 @@
         <v>1.73</v>
       </c>
       <c r="AT99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20272,7 +20296,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20362,7 +20386,7 @@
         <v>0.55</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU101">
         <v>1.24</v>
@@ -20463,7 +20487,7 @@
         <v>80</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20654,7 +20678,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20741,7 +20765,7 @@
         <v>0.38</v>
       </c>
       <c r="AS103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT103">
         <v>0.82</v>
@@ -20845,7 +20869,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20932,10 +20956,10 @@
         <v>1.13</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT104">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU104">
         <v>1.78</v>
@@ -21036,7 +21060,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21123,10 +21147,10 @@
         <v>0.86</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21227,7 +21251,7 @@
         <v>141</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21317,7 +21341,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU106">
         <v>1.74</v>
@@ -21418,7 +21442,7 @@
         <v>141</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21505,7 +21529,7 @@
         <v>0.63</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT107">
         <v>0.82</v>
@@ -21609,7 +21633,7 @@
         <v>158</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>11</v>
@@ -21699,7 +21723,7 @@
         <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU108">
         <v>1.38</v>
@@ -21800,7 +21824,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21991,7 +22015,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22182,7 +22206,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22373,7 +22397,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22564,7 +22588,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>16</v>
@@ -22654,7 +22678,7 @@
         <v>2.73</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.72</v>
@@ -22755,7 +22779,7 @@
         <v>80</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22842,7 +22866,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT114">
         <v>0.82</v>
@@ -22946,7 +22970,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23033,7 +23057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT115">
         <v>0.82</v>
@@ -23137,7 +23161,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23224,10 +23248,10 @@
         <v>0.75</v>
       </c>
       <c r="AS116">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU116">
         <v>1.54</v>
@@ -23328,7 +23352,7 @@
         <v>165</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23415,10 +23439,10 @@
         <v>0.67</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU117">
         <v>1.91</v>
@@ -23519,7 +23543,7 @@
         <v>80</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23606,10 +23630,10 @@
         <v>2.56</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT118">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU118">
         <v>1.68</v>
@@ -23710,7 +23734,7 @@
         <v>166</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23800,7 +23824,7 @@
         <v>1.27</v>
       </c>
       <c r="AT119">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.44</v>
@@ -23901,7 +23925,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23988,10 +24012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS120">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT120">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU120">
         <v>1.7</v>
@@ -24283,7 +24307,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24856,7 +24880,7 @@
         <v>171</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25047,7 +25071,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25238,16 +25262,16 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T127">
         <v>2.35</v>
@@ -25328,7 +25352,7 @@
         <v>2</v>
       </c>
       <c r="AT127">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU127">
         <v>1.7</v>
@@ -25364,22 +25388,1168 @@
         <v>2.08</v>
       </c>
       <c r="BF127">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG127">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ127">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK127">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4934007</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
+      </c>
+      <c r="H128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>173</v>
+      </c>
+      <c r="P128" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>8</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>3.4</v>
+      </c>
+      <c r="U128">
+        <v>2.63</v>
+      </c>
+      <c r="V128">
+        <v>2.67</v>
+      </c>
+      <c r="W128">
+        <v>1.22</v>
+      </c>
+      <c r="X128">
+        <v>4.05</v>
+      </c>
+      <c r="Y128">
+        <v>2.12</v>
+      </c>
+      <c r="Z128">
+        <v>1.74</v>
+      </c>
+      <c r="AA128">
+        <v>4.35</v>
+      </c>
+      <c r="AB128">
+        <v>1.19</v>
+      </c>
+      <c r="AC128">
+        <v>2.74</v>
+      </c>
+      <c r="AD128">
+        <v>3.81</v>
+      </c>
+      <c r="AE128">
+        <v>2.4</v>
+      </c>
+      <c r="AF128">
+        <v>1</v>
+      </c>
+      <c r="AG128">
+        <v>12</v>
+      </c>
+      <c r="AH128">
+        <v>1.09</v>
+      </c>
+      <c r="AI128">
+        <v>5.65</v>
+      </c>
+      <c r="AJ128">
+        <v>1.35</v>
+      </c>
+      <c r="AK128">
+        <v>2.71</v>
+      </c>
+      <c r="AL128">
+        <v>1.35</v>
+      </c>
+      <c r="AM128">
+        <v>2.9</v>
+      </c>
+      <c r="AN128">
+        <v>1.62</v>
+      </c>
+      <c r="AO128">
+        <v>1.24</v>
+      </c>
+      <c r="AP128">
+        <v>1.35</v>
+      </c>
+      <c r="AQ128">
+        <v>1.1</v>
+      </c>
+      <c r="AR128">
+        <v>0.9</v>
+      </c>
+      <c r="AS128">
+        <v>1.09</v>
+      </c>
+      <c r="AT128">
+        <v>0.91</v>
+      </c>
+      <c r="AU128">
+        <v>1.33</v>
+      </c>
+      <c r="AV128">
+        <v>1.41</v>
+      </c>
+      <c r="AW128">
+        <v>2.74</v>
+      </c>
+      <c r="AX128">
+        <v>2.53</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>1.69</v>
+      </c>
+      <c r="BA128">
+        <v>1.08</v>
+      </c>
+      <c r="BB128">
+        <v>1.13</v>
+      </c>
+      <c r="BC128">
+        <v>1.27</v>
+      </c>
+      <c r="BD128">
+        <v>1.56</v>
+      </c>
+      <c r="BE128">
+        <v>1.93</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>9</v>
+      </c>
+      <c r="BI128">
+        <v>9</v>
+      </c>
+      <c r="BJ128">
+        <v>15</v>
+      </c>
+      <c r="BK128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4934008</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>174</v>
+      </c>
+      <c r="P129" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.78</v>
+      </c>
+      <c r="U129">
+        <v>2.95</v>
+      </c>
+      <c r="V129">
+        <v>6.57</v>
+      </c>
+      <c r="W129">
+        <v>1.21</v>
+      </c>
+      <c r="X129">
+        <v>4.15</v>
+      </c>
+      <c r="Y129">
+        <v>2.07</v>
+      </c>
+      <c r="Z129">
+        <v>1.79</v>
+      </c>
+      <c r="AA129">
+        <v>4.05</v>
+      </c>
+      <c r="AB129">
+        <v>1.22</v>
+      </c>
+      <c r="AC129">
+        <v>1.33</v>
+      </c>
+      <c r="AD129">
+        <v>5.76</v>
+      </c>
+      <c r="AE129">
+        <v>7.82</v>
+      </c>
+      <c r="AF129">
+        <v>1.02</v>
+      </c>
+      <c r="AG129">
+        <v>13</v>
+      </c>
+      <c r="AH129">
+        <v>1.08</v>
+      </c>
+      <c r="AI129">
+        <v>6.05</v>
+      </c>
+      <c r="AJ129">
+        <v>1.33</v>
+      </c>
+      <c r="AK129">
+        <v>2.78</v>
+      </c>
+      <c r="AL129">
+        <v>1.62</v>
+      </c>
+      <c r="AM129">
+        <v>2.21</v>
+      </c>
+      <c r="AN129">
+        <v>1.08</v>
+      </c>
+      <c r="AO129">
+        <v>1.14</v>
+      </c>
+      <c r="AP129">
+        <v>3.28</v>
+      </c>
+      <c r="AQ129">
+        <v>2.2</v>
+      </c>
+      <c r="AR129">
+        <v>0.6</v>
+      </c>
+      <c r="AS129">
+        <v>2.27</v>
+      </c>
+      <c r="AT129">
+        <v>0.55</v>
+      </c>
+      <c r="AU129">
+        <v>1.66</v>
+      </c>
+      <c r="AV129">
+        <v>1.06</v>
+      </c>
+      <c r="AW129">
+        <v>2.72</v>
+      </c>
+      <c r="AX129">
+        <v>1.18</v>
+      </c>
+      <c r="AY129">
+        <v>12</v>
+      </c>
+      <c r="AZ129">
+        <v>6.11</v>
+      </c>
+      <c r="BA129">
+        <v>1.14</v>
+      </c>
+      <c r="BB129">
+        <v>1.2</v>
+      </c>
+      <c r="BC129">
+        <v>1.43</v>
+      </c>
+      <c r="BD129">
+        <v>1.9</v>
+      </c>
+      <c r="BE129">
+        <v>2.05</v>
+      </c>
+      <c r="BF129">
+        <v>9</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>6</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>15</v>
+      </c>
+      <c r="BK129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4934009</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>175</v>
+      </c>
+      <c r="P130" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q130">
+        <v>10</v>
+      </c>
+      <c r="R130">
+        <v>4</v>
+      </c>
+      <c r="S130">
+        <v>14</v>
+      </c>
+      <c r="T130">
+        <v>5.85</v>
+      </c>
+      <c r="U130">
+        <v>2.83</v>
+      </c>
+      <c r="V130">
+        <v>1.78</v>
+      </c>
+      <c r="W130">
+        <v>1.19</v>
+      </c>
+      <c r="X130">
+        <v>4.45</v>
+      </c>
+      <c r="Y130">
+        <v>1.92</v>
+      </c>
+      <c r="Z130">
+        <v>1.83</v>
+      </c>
+      <c r="AA130">
+        <v>3.82</v>
+      </c>
+      <c r="AB130">
+        <v>1.24</v>
+      </c>
+      <c r="AC130">
+        <v>7.44</v>
+      </c>
+      <c r="AD130">
+        <v>5.4</v>
+      </c>
+      <c r="AE130">
+        <v>1.37</v>
+      </c>
+      <c r="AF130">
+        <v>1.02</v>
+      </c>
+      <c r="AG130">
+        <v>15</v>
+      </c>
+      <c r="AH130">
+        <v>1.06</v>
+      </c>
+      <c r="AI130">
+        <v>7</v>
+      </c>
+      <c r="AJ130">
+        <v>1.25</v>
+      </c>
+      <c r="AK130">
+        <v>3.26</v>
+      </c>
+      <c r="AL130">
+        <v>1.53</v>
+      </c>
+      <c r="AM130">
+        <v>2.43</v>
+      </c>
+      <c r="AN130">
+        <v>2.55</v>
+      </c>
+      <c r="AO130">
+        <v>1.15</v>
+      </c>
+      <c r="AP130">
+        <v>1.11</v>
+      </c>
+      <c r="AQ130">
+        <v>1.7</v>
+      </c>
+      <c r="AR130">
+        <v>2.6</v>
+      </c>
+      <c r="AS130">
+        <v>1.55</v>
+      </c>
+      <c r="AT130">
+        <v>2.64</v>
+      </c>
+      <c r="AU130">
+        <v>1.52</v>
+      </c>
+      <c r="AV130">
+        <v>1.8</v>
+      </c>
+      <c r="AW130">
+        <v>3.32</v>
+      </c>
+      <c r="AX130">
+        <v>3.82</v>
+      </c>
+      <c r="AY130">
+        <v>9.5</v>
+      </c>
+      <c r="AZ130">
+        <v>1.37</v>
+      </c>
+      <c r="BA130">
+        <v>1.11</v>
+      </c>
+      <c r="BB130">
+        <v>1.24</v>
+      </c>
+      <c r="BC130">
+        <v>1.53</v>
+      </c>
+      <c r="BD130">
+        <v>1.74</v>
+      </c>
+      <c r="BE130">
+        <v>2.13</v>
+      </c>
+      <c r="BF130">
+        <v>5</v>
+      </c>
+      <c r="BG130">
+        <v>6</v>
+      </c>
+      <c r="BH130">
+        <v>3</v>
+      </c>
+      <c r="BI130">
+        <v>5</v>
+      </c>
+      <c r="BJ130">
+        <v>8</v>
+      </c>
+      <c r="BK130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4934010</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>80</v>
+      </c>
+      <c r="P131" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <v>2.32</v>
+      </c>
+      <c r="U131">
+        <v>2.63</v>
+      </c>
+      <c r="V131">
+        <v>4.18</v>
+      </c>
+      <c r="W131">
+        <v>1.24</v>
+      </c>
+      <c r="X131">
+        <v>3.82</v>
+      </c>
+      <c r="Y131">
+        <v>2.2</v>
+      </c>
+      <c r="Z131">
+        <v>1.68</v>
+      </c>
+      <c r="AA131">
+        <v>4.6</v>
+      </c>
+      <c r="AB131">
+        <v>1.18</v>
+      </c>
+      <c r="AC131">
+        <v>1.64</v>
+      </c>
+      <c r="AD131">
+        <v>4.57</v>
+      </c>
+      <c r="AE131">
+        <v>4.52</v>
+      </c>
+      <c r="AF131">
+        <v>1</v>
+      </c>
+      <c r="AG131">
+        <v>12</v>
+      </c>
+      <c r="AH131">
+        <v>1.11</v>
+      </c>
+      <c r="AI131">
+        <v>5.3</v>
+      </c>
+      <c r="AJ131">
+        <v>1.36</v>
+      </c>
+      <c r="AK131">
+        <v>2.67</v>
+      </c>
+      <c r="AL131">
+        <v>1.46</v>
+      </c>
+      <c r="AM131">
+        <v>2.6</v>
+      </c>
+      <c r="AN131">
+        <v>1.25</v>
+      </c>
+      <c r="AO131">
+        <v>1.23</v>
+      </c>
+      <c r="AP131">
+        <v>2.04</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>0.9</v>
+      </c>
+      <c r="AS131">
+        <v>1.82</v>
+      </c>
+      <c r="AT131">
+        <v>1.09</v>
+      </c>
+      <c r="AU131">
+        <v>1.91</v>
+      </c>
+      <c r="AV131">
+        <v>1.46</v>
+      </c>
+      <c r="AW131">
+        <v>3.37</v>
+      </c>
+      <c r="AX131">
+        <v>1.55</v>
+      </c>
+      <c r="AY131">
+        <v>8.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.91</v>
+      </c>
+      <c r="BA131">
+        <v>1.11</v>
+      </c>
+      <c r="BB131">
+        <v>1.6</v>
+      </c>
+      <c r="BC131">
+        <v>1.44</v>
+      </c>
+      <c r="BD131">
+        <v>2</v>
+      </c>
+      <c r="BE131">
+        <v>2.14</v>
+      </c>
+      <c r="BF131">
+        <v>2</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>11</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4934011</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>176</v>
+      </c>
+      <c r="P132" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>8</v>
+      </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
+      <c r="T132">
+        <v>3.1</v>
+      </c>
+      <c r="U132">
+        <v>2.3</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>3.4</v>
+      </c>
+      <c r="Y132">
+        <v>2.38</v>
+      </c>
+      <c r="Z132">
+        <v>1.53</v>
+      </c>
+      <c r="AA132">
+        <v>5</v>
+      </c>
+      <c r="AB132">
+        <v>1.14</v>
+      </c>
+      <c r="AC132">
+        <v>2.83</v>
+      </c>
+      <c r="AD132">
+        <v>3.7</v>
+      </c>
+      <c r="AE132">
+        <v>2.38</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>9</v>
+      </c>
+      <c r="AH132">
+        <v>1.14</v>
+      </c>
+      <c r="AI132">
+        <v>4.7</v>
+      </c>
+      <c r="AJ132">
+        <v>1.57</v>
+      </c>
+      <c r="AK132">
+        <v>2.3</v>
+      </c>
+      <c r="AL132">
+        <v>1.53</v>
+      </c>
+      <c r="AM132">
+        <v>2.38</v>
+      </c>
+      <c r="AN132">
+        <v>1.55</v>
+      </c>
+      <c r="AO132">
+        <v>1.2</v>
+      </c>
+      <c r="AP132">
+        <v>1.45</v>
+      </c>
+      <c r="AQ132">
+        <v>1.3</v>
+      </c>
+      <c r="AR132">
+        <v>1.2</v>
+      </c>
+      <c r="AS132">
+        <v>1.27</v>
+      </c>
+      <c r="AT132">
+        <v>1.18</v>
+      </c>
+      <c r="AU132">
+        <v>1.63</v>
+      </c>
+      <c r="AV132">
+        <v>1.84</v>
+      </c>
+      <c r="AW132">
+        <v>3.47</v>
+      </c>
+      <c r="AX132">
+        <v>2.2</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>1.83</v>
+      </c>
+      <c r="BA132">
+        <v>1.07</v>
+      </c>
+      <c r="BB132">
+        <v>1.11</v>
+      </c>
+      <c r="BC132">
+        <v>1.23</v>
+      </c>
+      <c r="BD132">
+        <v>1.5</v>
+      </c>
+      <c r="BE132">
+        <v>1.78</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>12</v>
+      </c>
+      <c r="BH132">
+        <v>7</v>
+      </c>
+      <c r="BI132">
+        <v>9</v>
+      </c>
+      <c r="BJ132">
+        <v>11</v>
+      </c>
+      <c r="BK132">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4934012</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>177</v>
+      </c>
+      <c r="P133" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q133">
+        <v>7</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>12</v>
+      </c>
+      <c r="T133">
+        <v>1.73</v>
+      </c>
+      <c r="U133">
+        <v>2.88</v>
+      </c>
+      <c r="V133">
+        <v>5.5</v>
+      </c>
+      <c r="W133">
+        <v>1.17</v>
+      </c>
+      <c r="X133">
+        <v>4.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.83</v>
+      </c>
+      <c r="Z133">
+        <v>1.83</v>
+      </c>
+      <c r="AA133">
+        <v>3.75</v>
+      </c>
+      <c r="AB133">
+        <v>1.25</v>
+      </c>
+      <c r="AC133">
+        <v>1.37</v>
+      </c>
+      <c r="AD133">
+        <v>5.77</v>
+      </c>
+      <c r="AE133">
+        <v>7.06</v>
+      </c>
+      <c r="AF133">
+        <v>1.02</v>
+      </c>
+      <c r="AG133">
+        <v>15</v>
+      </c>
+      <c r="AH133">
+        <v>1.08</v>
+      </c>
+      <c r="AI133">
+        <v>7</v>
+      </c>
+      <c r="AJ133">
+        <v>1.24</v>
+      </c>
+      <c r="AK133">
+        <v>3.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.5</v>
+      </c>
+      <c r="AM133">
+        <v>2.5</v>
+      </c>
+      <c r="AN133">
+        <v>1.1</v>
+      </c>
+      <c r="AO133">
+        <v>1.14</v>
+      </c>
+      <c r="AP133">
+        <v>2.7</v>
+      </c>
+      <c r="AQ133">
+        <v>2</v>
+      </c>
+      <c r="AR133">
+        <v>1.1</v>
+      </c>
+      <c r="AS133">
+        <v>2.09</v>
+      </c>
+      <c r="AT133">
+        <v>1</v>
+      </c>
+      <c r="AU133">
+        <v>1.61</v>
+      </c>
+      <c r="AV133">
+        <v>1.44</v>
+      </c>
+      <c r="AW133">
+        <v>3.05</v>
+      </c>
+      <c r="AX133">
+        <v>1.19</v>
+      </c>
+      <c r="AY133">
+        <v>12</v>
+      </c>
+      <c r="AZ133">
+        <v>5.62</v>
+      </c>
+      <c r="BA133">
+        <v>1.07</v>
+      </c>
+      <c r="BB133">
+        <v>1.11</v>
+      </c>
+      <c r="BC133">
+        <v>1.24</v>
+      </c>
+      <c r="BD133">
+        <v>1.48</v>
+      </c>
+      <c r="BE133">
+        <v>1.76</v>
+      </c>
+      <c r="BF133">
+        <v>11</v>
+      </c>
+      <c r="BG133">
+        <v>3</v>
+      </c>
+      <c r="BH133">
+        <v>7</v>
+      </c>
+      <c r="BI133">
+        <v>6</v>
+      </c>
+      <c r="BJ133">
+        <v>18</v>
+      </c>
+      <c r="BK133">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -310,10 +310,10 @@
     <t>['6', '36', '90+7']</t>
   </si>
   <si>
-    <t>['34', '67', '80']</t>
+    <t>['45+7', '50', '74', '88']</t>
   </si>
   <si>
-    <t>['45+7', '50', '74', '88']</t>
+    <t>['34', '67', '80']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -340,10 +340,10 @@
     <t>['5', '60', '64', '77']</t>
   </si>
   <si>
-    <t>['6', '22']</t>
+    <t>['34', '50', '60']</t>
   </si>
   <si>
-    <t>['34', '50', '60']</t>
+    <t>['6', '22']</t>
   </si>
   <si>
     <t>['47', '54']</t>
@@ -382,13 +382,13 @@
     <t>['29', '51', '62', '83']</t>
   </si>
   <si>
+    <t>['45+1', '57', '83', '90']</t>
+  </si>
+  <si>
     <t>['90+6', '90+7']</t>
   </si>
   <si>
     <t>['10']</t>
-  </si>
-  <si>
-    <t>['45+1', '57', '83', '90']</t>
   </si>
   <si>
     <t>['29', '62']</t>
@@ -406,13 +406,13 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['5', '15', '54', '89']</t>
-  </si>
-  <si>
     <t>['77']</t>
   </si>
   <si>
     <t>['26', '38', '47', '62', '90']</t>
+  </si>
+  <si>
+    <t>['5', '15', '54', '89']</t>
   </si>
   <si>
     <t>['42', '78']</t>
@@ -460,10 +460,10 @@
     <t>['20', '35', '44']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['16']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['60']</t>
   </si>
   <si>
     <t>['14', '59', '72']</t>
@@ -496,10 +496,10 @@
     <t>['45+5']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['49', '61']</t>
   </si>
   <si>
-    <t>['49', '61']</t>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['8', '9', '81']</t>
@@ -661,10 +661,10 @@
     <t>['12', '19', '71']</t>
   </si>
   <si>
-    <t>['14', '45+3']</t>
+    <t>['70']</t>
   </si>
   <si>
-    <t>['70']</t>
+    <t>['14', '45+3']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -709,10 +709,10 @@
     <t>['18', '40', '90+4', '90+5']</t>
   </si>
   <si>
-    <t>['7', '43', '87']</t>
+    <t>['32', '45+2', '52', '56']</t>
   </si>
   <si>
-    <t>['32', '45+2', '52', '56']</t>
+    <t>['7', '43', '87']</t>
   </si>
   <si>
     <t>['89', '90+1']</t>
@@ -754,10 +754,10 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['3', '27', '65', '75']</t>
+    <t>['13', '90+1']</t>
   </si>
   <si>
-    <t>['13', '90+1']</t>
+    <t>['3', '27', '65', '75']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -5929,7 +5929,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4933905</v>
+        <v>4933906</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5944,175 +5944,175 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S26">
         <v>8</v>
       </c>
       <c r="T26">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="U26">
         <v>2.4</v>
       </c>
       <c r="V26">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="W26">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X26">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z26">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AA26">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB26">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AC26">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD26">
         <v>3.6</v>
       </c>
       <c r="AE26">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AF26">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG26">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="AH26">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AI26">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AJ26">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AK26">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AL26">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AN26">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AO26">
         <v>1.2</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26">
+        <v>1.67</v>
+      </c>
+      <c r="AR26">
         <v>0.5</v>
       </c>
-      <c r="AR26">
-        <v>1</v>
-      </c>
       <c r="AS26">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT26">
-        <v>0.45</v>
+        <v>1.09</v>
       </c>
       <c r="AU26">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AV26">
-        <v>1.25</v>
+        <v>2.01</v>
       </c>
       <c r="AW26">
-        <v>2.5</v>
+        <v>3.42</v>
       </c>
       <c r="AX26">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AY26">
         <v>8.5</v>
       </c>
       <c r="AZ26">
-        <v>2.05</v>
+        <v>2.41</v>
       </c>
       <c r="BA26">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="BB26">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="BC26">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BD26">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BE26">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="BF26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK26">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -6120,7 +6120,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4933906</v>
+        <v>4933905</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -6135,175 +6135,175 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>4</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
       </c>
       <c r="O27" t="s">
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
         <v>6</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
       </c>
       <c r="S27">
         <v>8</v>
       </c>
       <c r="T27">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="U27">
         <v>2.4</v>
       </c>
       <c r="V27">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="W27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y27">
+        <v>2.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.66</v>
+      </c>
+      <c r="AA27">
+        <v>4.4</v>
+      </c>
+      <c r="AB27">
+        <v>1.17</v>
+      </c>
+      <c r="AC27">
         <v>2.2</v>
-      </c>
-      <c r="Z27">
-        <v>1.6</v>
-      </c>
-      <c r="AA27">
-        <v>4.7</v>
-      </c>
-      <c r="AB27">
-        <v>1.16</v>
-      </c>
-      <c r="AC27">
-        <v>1.8</v>
       </c>
       <c r="AD27">
         <v>3.6</v>
       </c>
       <c r="AE27">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="AF27">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG27">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="AH27">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AI27">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AJ27">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AK27">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AL27">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AM27">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AN27">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AO27">
         <v>1.2</v>
       </c>
       <c r="AP27">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AT27">
-        <v>1.09</v>
+        <v>0.45</v>
       </c>
       <c r="AU27">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AV27">
-        <v>2.01</v>
+        <v>1.25</v>
       </c>
       <c r="AW27">
-        <v>3.42</v>
+        <v>2.5</v>
       </c>
       <c r="AX27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AY27">
         <v>8.5</v>
       </c>
       <c r="AZ27">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="BA27">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="BB27">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="BC27">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BD27">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BE27">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="BF27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -7499,7 +7499,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8985,7 +8985,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4933919</v>
+        <v>4933921</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -9000,175 +9000,175 @@
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>3.08</v>
       </c>
       <c r="U42">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="V42">
-        <v>4.2</v>
+        <v>2.97</v>
       </c>
       <c r="W42">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X42">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="Y42">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Z42">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AA42">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AB42">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AC42">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="AD42">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE42">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="AF42">
         <v>1.02</v>
       </c>
       <c r="AG42">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH42">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AI42">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AK42">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AL42">
+        <v>1.37</v>
+      </c>
+      <c r="AM42">
+        <v>2.85</v>
+      </c>
+      <c r="AN42">
+        <v>1.49</v>
+      </c>
+      <c r="AO42">
+        <v>1.23</v>
+      </c>
+      <c r="AP42">
+        <v>1.44</v>
+      </c>
+      <c r="AQ42">
+        <v>0.75</v>
+      </c>
+      <c r="AR42">
+        <v>0.5</v>
+      </c>
+      <c r="AS42">
+        <v>1.09</v>
+      </c>
+      <c r="AT42">
+        <v>0.18</v>
+      </c>
+      <c r="AU42">
+        <v>1.24</v>
+      </c>
+      <c r="AV42">
+        <v>1.45</v>
+      </c>
+      <c r="AW42">
+        <v>2.69</v>
+      </c>
+      <c r="AX42">
+        <v>1.83</v>
+      </c>
+      <c r="AY42">
+        <v>8.5</v>
+      </c>
+      <c r="AZ42">
+        <v>2.2</v>
+      </c>
+      <c r="BA42">
+        <v>1.13</v>
+      </c>
+      <c r="BB42">
+        <v>1.18</v>
+      </c>
+      <c r="BC42">
+        <v>1.35</v>
+      </c>
+      <c r="BD42">
         <v>1.62</v>
       </c>
-      <c r="AM42">
-        <v>2.2</v>
-      </c>
-      <c r="AN42">
-        <v>1.16</v>
-      </c>
-      <c r="AO42">
-        <v>1.19</v>
-      </c>
-      <c r="AP42">
-        <v>2</v>
-      </c>
-      <c r="AQ42">
-        <v>3</v>
-      </c>
-      <c r="AR42">
-        <v>0.33</v>
-      </c>
-      <c r="AS42">
-        <v>2.73</v>
-      </c>
-      <c r="AT42">
-        <v>1.09</v>
-      </c>
-      <c r="AU42">
-        <v>1.86</v>
-      </c>
-      <c r="AV42">
-        <v>1.68</v>
-      </c>
-      <c r="AW42">
-        <v>3.54</v>
-      </c>
-      <c r="AX42">
-        <v>1.51</v>
-      </c>
-      <c r="AY42">
-        <v>9</v>
-      </c>
-      <c r="AZ42">
-        <v>3.06</v>
-      </c>
-      <c r="BA42">
-        <v>1.09</v>
-      </c>
-      <c r="BB42">
-        <v>1.21</v>
-      </c>
-      <c r="BC42">
-        <v>1.36</v>
-      </c>
-      <c r="BD42">
-        <v>1.64</v>
-      </c>
       <c r="BE42">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BF42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH42">
         <v>5</v>
       </c>
       <c r="BI42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BJ42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK42">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -9176,7 +9176,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4933921</v>
+        <v>4933919</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -9191,175 +9191,175 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O43" t="s">
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T43">
-        <v>3.08</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="V43">
-        <v>2.97</v>
+        <v>4.2</v>
       </c>
       <c r="W43">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X43">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="Y43">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Z43">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AA43">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB43">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AC43">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="AD43">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AE43">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="AF43">
         <v>1.02</v>
       </c>
       <c r="AG43">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH43">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AI43">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AJ43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AK43">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL43">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AM43">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="AN43">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="AO43">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AR43">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AS43">
+        <v>2.73</v>
+      </c>
+      <c r="AT43">
         <v>1.09</v>
       </c>
-      <c r="AT43">
-        <v>0.18</v>
-      </c>
       <c r="AU43">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="AV43">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AW43">
-        <v>2.69</v>
+        <v>3.54</v>
       </c>
       <c r="AX43">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="AY43">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ43">
-        <v>2.2</v>
+        <v>3.06</v>
       </c>
       <c r="BA43">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="BB43">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BC43">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BD43">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="BE43">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BF43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH43">
         <v>5</v>
       </c>
       <c r="BI43">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BJ43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK43">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -10937,7 +10937,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -12614,7 +12614,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4933940</v>
+        <v>4933942</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -12629,28 +12629,28 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
         <v>122</v>
@@ -12659,22 +12659,22 @@
         <v>215</v>
       </c>
       <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
         <v>7</v>
       </c>
-      <c r="R61">
+      <c r="T61">
+        <v>2.43</v>
+      </c>
+      <c r="U61">
+        <v>2.32</v>
+      </c>
+      <c r="V61">
         <v>4</v>
-      </c>
-      <c r="S61">
-        <v>11</v>
-      </c>
-      <c r="T61">
-        <v>2.51</v>
-      </c>
-      <c r="U61">
-        <v>2.45</v>
-      </c>
-      <c r="V61">
-        <v>3.5</v>
       </c>
       <c r="W61">
         <v>1.25</v>
@@ -12689,19 +12689,19 @@
         <v>1.67</v>
       </c>
       <c r="AA61">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB61">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AC61">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AD61">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AE61">
-        <v>2.82</v>
+        <v>3.54</v>
       </c>
       <c r="AF61">
         <v>1.02</v>
@@ -12710,94 +12710,94 @@
         <v>13</v>
       </c>
       <c r="AH61">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AI61">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ61">
+        <v>1.45</v>
+      </c>
+      <c r="AK61">
+        <v>2.56</v>
+      </c>
+      <c r="AL61">
+        <v>1.44</v>
+      </c>
+      <c r="AM61">
+        <v>2.65</v>
+      </c>
+      <c r="AN61">
+        <v>1.29</v>
+      </c>
+      <c r="AO61">
+        <v>1.27</v>
+      </c>
+      <c r="AP61">
+        <v>1.84</v>
+      </c>
+      <c r="AQ61">
+        <v>1.4</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
         <v>1.55</v>
       </c>
-      <c r="AK61">
-        <v>2.29</v>
-      </c>
-      <c r="AL61">
-        <v>1.43</v>
-      </c>
-      <c r="AM61">
-        <v>2.63</v>
-      </c>
-      <c r="AN61">
-        <v>1.36</v>
-      </c>
-      <c r="AO61">
-        <v>1.24</v>
-      </c>
-      <c r="AP61">
-        <v>1.75</v>
-      </c>
-      <c r="AQ61">
-        <v>2.25</v>
-      </c>
-      <c r="AR61">
-        <v>3</v>
-      </c>
-      <c r="AS61">
-        <v>1.82</v>
-      </c>
       <c r="AT61">
-        <v>2.64</v>
+        <v>0.55</v>
       </c>
       <c r="AU61">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AV61">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AW61">
-        <v>3.98</v>
+        <v>2.87</v>
       </c>
       <c r="AX61">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AY61">
         <v>8.5</v>
       </c>
       <c r="AZ61">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="BA61">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="BB61">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BC61">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BD61">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="BE61">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="BF61">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ61">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK61">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:63">
@@ -12805,7 +12805,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4933941</v>
+        <v>4933940</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -12820,172 +12820,172 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O62" t="s">
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Q62">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S62">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T62">
-        <v>2.21</v>
+        <v>2.51</v>
       </c>
       <c r="U62">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="V62">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="W62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
+        <v>3.75</v>
+      </c>
+      <c r="Y62">
+        <v>2.1</v>
+      </c>
+      <c r="Z62">
+        <v>1.67</v>
+      </c>
+      <c r="AA62">
+        <v>4.33</v>
+      </c>
+      <c r="AB62">
+        <v>1.2</v>
+      </c>
+      <c r="AC62">
+        <v>2.25</v>
+      </c>
+      <c r="AD62">
         <v>3.5</v>
       </c>
-      <c r="Y62">
-        <v>2.2</v>
-      </c>
-      <c r="Z62">
-        <v>1.62</v>
-      </c>
-      <c r="AA62">
-        <v>4.5</v>
-      </c>
-      <c r="AB62">
-        <v>1.17</v>
-      </c>
-      <c r="AC62">
-        <v>1.65</v>
-      </c>
-      <c r="AD62">
-        <v>4</v>
-      </c>
       <c r="AE62">
-        <v>4.19</v>
+        <v>2.82</v>
       </c>
       <c r="AF62">
         <v>1.02</v>
       </c>
       <c r="AG62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH62">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI62">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AJ62">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AK62">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AL62">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AM62">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="AN62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AO62">
         <v>1.24</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR62">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AS62">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AT62">
+        <v>2.64</v>
+      </c>
+      <c r="AU62">
+        <v>1.9</v>
+      </c>
+      <c r="AV62">
+        <v>2.08</v>
+      </c>
+      <c r="AW62">
+        <v>3.98</v>
+      </c>
+      <c r="AX62">
+        <v>1.75</v>
+      </c>
+      <c r="AY62">
+        <v>8.5</v>
+      </c>
+      <c r="AZ62">
+        <v>2.43</v>
+      </c>
+      <c r="BA62">
         <v>1.09</v>
       </c>
-      <c r="AU62">
-        <v>1.67</v>
-      </c>
-      <c r="AV62">
-        <v>1.64</v>
-      </c>
-      <c r="AW62">
-        <v>3.31</v>
-      </c>
-      <c r="AX62">
-        <v>1.59</v>
-      </c>
-      <c r="AY62">
-        <v>9</v>
-      </c>
-      <c r="AZ62">
-        <v>2.77</v>
-      </c>
-      <c r="BA62">
-        <v>1.11</v>
-      </c>
       <c r="BB62">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="BC62">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BD62">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BE62">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BF62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG62">
         <v>4</v>
       </c>
       <c r="BH62">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BI62">
         <v>3</v>
       </c>
       <c r="BJ62">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BK62">
         <v>7</v>
@@ -12996,7 +12996,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4933942</v>
+        <v>4933941</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -13011,64 +13011,64 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="Q63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S63">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="T63">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="U63">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V63">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z63">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA63">
         <v>4.5</v>
@@ -13077,109 +13077,109 @@
         <v>1.17</v>
       </c>
       <c r="AC63">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="AD63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AE63">
-        <v>3.54</v>
+        <v>4.19</v>
       </c>
       <c r="AF63">
         <v>1.02</v>
       </c>
       <c r="AG63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH63">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AI63">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AJ63">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AK63">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="AL63">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AM63">
-        <v>2.65</v>
+        <v>2.29</v>
       </c>
       <c r="AN63">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AO63">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AP63">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="AT63">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AU63">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AV63">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AW63">
-        <v>2.87</v>
+        <v>3.31</v>
       </c>
       <c r="AX63">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AY63">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
-        <v>2.53</v>
+        <v>2.77</v>
       </c>
       <c r="BA63">
         <v>1.11</v>
       </c>
       <c r="BB63">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BC63">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BD63">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="BE63">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="BF63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BG63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH63">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ63">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BK63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:63">
@@ -14333,7 +14333,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4933949</v>
+        <v>4933950</v>
       </c>
       <c r="C70" t="s">
         <v>63</v>
@@ -14348,79 +14348,79 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T70">
+        <v>2.95</v>
+      </c>
+      <c r="U70">
         <v>2.25</v>
       </c>
-      <c r="U70">
-        <v>2.4</v>
-      </c>
       <c r="V70">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="W70">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X70">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="Y70">
         <v>2.25</v>
       </c>
       <c r="Z70">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA70">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="AB70">
         <v>1.15</v>
       </c>
       <c r="AC70">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AE70">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AF70">
         <v>1.03</v>
@@ -14429,94 +14429,94 @@
         <v>11</v>
       </c>
       <c r="AH70">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI70">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AJ70">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AK70">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AL70">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AM70">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AN70">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AO70">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP70">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AR70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="AT70">
-        <v>0.18</v>
+        <v>0.82</v>
       </c>
       <c r="AU70">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="AV70">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AW70">
-        <v>3.27</v>
+        <v>2.59</v>
       </c>
       <c r="AX70">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AY70">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ70">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="BA70">
         <v>1.09</v>
       </c>
       <c r="BB70">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="BC70">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BD70">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="BE70">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BF70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ70">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK70">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:63">
@@ -14524,7 +14524,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4933950</v>
+        <v>4933951</v>
       </c>
       <c r="C71" t="s">
         <v>63</v>
@@ -14539,79 +14539,79 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O71" t="s">
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="Q71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S71">
         <v>13</v>
       </c>
       <c r="T71">
-        <v>2.95</v>
+        <v>5</v>
       </c>
       <c r="U71">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="V71">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X71">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="Y71">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z71">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AA71">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB71">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AC71">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD71">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE71">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="AF71">
         <v>1.03</v>
@@ -14620,94 +14620,94 @@
         <v>11</v>
       </c>
       <c r="AH71">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AI71">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="AJ71">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AK71">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="AL71">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AM71">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AN71">
-        <v>1.44</v>
+        <v>2.55</v>
       </c>
       <c r="AO71">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AP71">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AQ71">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.55</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
-        <v>0.82</v>
+        <v>1.64</v>
       </c>
       <c r="AU71">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="AV71">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="AW71">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="AX71">
-        <v>1.91</v>
+        <v>3.48</v>
       </c>
       <c r="AY71">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ71">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="BA71">
         <v>1.09</v>
       </c>
       <c r="BB71">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="BC71">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BD71">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BE71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="BF71">
+        <v>8</v>
+      </c>
+      <c r="BG71">
+        <v>4</v>
+      </c>
+      <c r="BH71">
+        <v>3</v>
+      </c>
+      <c r="BI71">
         <v>6</v>
       </c>
-      <c r="BG71">
-        <v>5</v>
-      </c>
-      <c r="BH71">
-        <v>9</v>
-      </c>
-      <c r="BI71">
-        <v>4</v>
-      </c>
       <c r="BJ71">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK71">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:63">
@@ -14715,7 +14715,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4933951</v>
+        <v>4933949</v>
       </c>
       <c r="C72" t="s">
         <v>63</v>
@@ -14730,79 +14730,79 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R72">
+        <v>5</v>
+      </c>
+      <c r="S72">
         <v>12</v>
       </c>
-      <c r="S72">
-        <v>13</v>
-      </c>
       <c r="T72">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="W72">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y72">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z72">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AA72">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AB72">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AC72">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD72">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE72">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="AF72">
         <v>1.03</v>
@@ -14811,61 +14811,61 @@
         <v>11</v>
       </c>
       <c r="AH72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AI72">
         <v>4.5</v>
       </c>
       <c r="AJ72">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AK72">
+        <v>2.45</v>
+      </c>
+      <c r="AL72">
+        <v>1.53</v>
+      </c>
+      <c r="AM72">
         <v>2.38</v>
       </c>
-      <c r="AL72">
-        <v>1.68</v>
-      </c>
-      <c r="AM72">
-        <v>2.1</v>
-      </c>
       <c r="AN72">
-        <v>2.55</v>
+        <v>1.29</v>
       </c>
       <c r="AO72">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.09</v>
+        <v>1.85</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AR72">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.64</v>
+        <v>0.18</v>
       </c>
       <c r="AU72">
-        <v>1.29</v>
+        <v>1.78</v>
       </c>
       <c r="AV72">
         <v>1.49</v>
       </c>
       <c r="AW72">
-        <v>2.78</v>
+        <v>3.27</v>
       </c>
       <c r="AX72">
-        <v>3.48</v>
+        <v>1.55</v>
       </c>
       <c r="AY72">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ72">
-        <v>1.41</v>
+        <v>2.9</v>
       </c>
       <c r="BA72">
         <v>1.09</v>
@@ -14874,31 +14874,31 @@
         <v>1.21</v>
       </c>
       <c r="BC72">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BD72">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="BE72">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="BF72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG72">
+        <v>2</v>
+      </c>
+      <c r="BH72">
+        <v>6</v>
+      </c>
+      <c r="BI72">
+        <v>2</v>
+      </c>
+      <c r="BJ72">
+        <v>13</v>
+      </c>
+      <c r="BK72">
         <v>4</v>
-      </c>
-      <c r="BH72">
-        <v>3</v>
-      </c>
-      <c r="BI72">
-        <v>6</v>
-      </c>
-      <c r="BJ72">
-        <v>11</v>
-      </c>
-      <c r="BK72">
-        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:63">
@@ -17962,7 +17962,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4933969</v>
+        <v>4933968</v>
       </c>
       <c r="C89" t="s">
         <v>63</v>
@@ -17977,10 +17977,10 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -17992,160 +17992,160 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="P89" t="s">
         <v>80</v>
       </c>
       <c r="Q89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S89">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T89">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="U89">
         <v>2.38</v>
       </c>
       <c r="V89">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="W89">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X89">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y89">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA89">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AB89">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AC89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AD89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE89">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AF89">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH89">
         <v>1.15</v>
       </c>
       <c r="AI89">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AJ89">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AK89">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AL89">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AM89">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="AN89">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO89">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AS89">
+        <v>1.73</v>
+      </c>
+      <c r="AT89">
         <v>1.09</v>
       </c>
-      <c r="AT89">
-        <v>1</v>
-      </c>
       <c r="AU89">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AV89">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AW89">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AX89">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AY89">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="AZ89">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="BA89">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BB89">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BC89">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BD89">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="BE89">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="BF89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH89">
         <v>11</v>
       </c>
       <c r="BI89">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ89">
+        <v>16</v>
+      </c>
+      <c r="BK89">
         <v>13</v>
-      </c>
-      <c r="BK89">
-        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:63">
@@ -18153,7 +18153,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4933968</v>
+        <v>4933969</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
@@ -18168,10 +18168,10 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -18183,160 +18183,160 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="P90" t="s">
         <v>80</v>
       </c>
       <c r="Q90">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S90">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T90">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="U90">
         <v>2.38</v>
       </c>
       <c r="V90">
+        <v>3.27</v>
+      </c>
+      <c r="W90">
+        <v>1.25</v>
+      </c>
+      <c r="X90">
+        <v>3.75</v>
+      </c>
+      <c r="Y90">
+        <v>2.2</v>
+      </c>
+      <c r="Z90">
+        <v>1.62</v>
+      </c>
+      <c r="AA90">
+        <v>4.33</v>
+      </c>
+      <c r="AB90">
+        <v>1.2</v>
+      </c>
+      <c r="AC90">
+        <v>2.1</v>
+      </c>
+      <c r="AD90">
         <v>3.6</v>
       </c>
-      <c r="W90">
-        <v>1.29</v>
-      </c>
-      <c r="X90">
-        <v>3.5</v>
-      </c>
-      <c r="Y90">
-        <v>2.25</v>
-      </c>
-      <c r="Z90">
-        <v>1.57</v>
-      </c>
-      <c r="AA90">
-        <v>5</v>
-      </c>
-      <c r="AB90">
-        <v>1.14</v>
-      </c>
-      <c r="AC90">
-        <v>2.05</v>
-      </c>
-      <c r="AD90">
-        <v>3.5</v>
-      </c>
       <c r="AE90">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AF90">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG90">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH90">
         <v>1.15</v>
       </c>
       <c r="AI90">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AJ90">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AK90">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AL90">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AM90">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="AN90">
+        <v>1.4</v>
+      </c>
+      <c r="AO90">
         <v>1.25</v>
       </c>
-      <c r="AO90">
-        <v>1.2</v>
-      </c>
       <c r="AP90">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AS90">
-        <v>1.73</v>
+        <v>1.09</v>
       </c>
       <c r="AT90">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU90">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AV90">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AW90">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AX90">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AY90">
-        <v>9.9</v>
+        <v>7.2</v>
       </c>
       <c r="AZ90">
-        <v>2.61</v>
+        <v>2.45</v>
       </c>
       <c r="BA90">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BB90">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="BC90">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="BD90">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="BE90">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="BF90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH90">
         <v>11</v>
       </c>
       <c r="BI90">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ90">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK90">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:63">
@@ -18535,7 +18535,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4933896</v>
+        <v>4933974</v>
       </c>
       <c r="C92" t="s">
         <v>63</v>
@@ -18550,16 +18550,16 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H92" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -18568,157 +18568,157 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O92" t="s">
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="Q92">
+        <v>8</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="S92">
+        <v>12</v>
+      </c>
+      <c r="T92">
+        <v>1.83</v>
+      </c>
+      <c r="U92">
+        <v>2.7</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1.2</v>
+      </c>
+      <c r="X92">
+        <v>4.3</v>
+      </c>
+      <c r="Y92">
+        <v>1.95</v>
+      </c>
+      <c r="Z92">
+        <v>1.75</v>
+      </c>
+      <c r="AA92">
+        <v>4.05</v>
+      </c>
+      <c r="AB92">
+        <v>1.22</v>
+      </c>
+      <c r="AC92">
+        <v>1.42</v>
+      </c>
+      <c r="AD92">
+        <v>5</v>
+      </c>
+      <c r="AE92">
+        <v>5.24</v>
+      </c>
+      <c r="AF92">
+        <v>1.01</v>
+      </c>
+      <c r="AG92">
+        <v>21</v>
+      </c>
+      <c r="AH92">
+        <v>1.09</v>
+      </c>
+      <c r="AI92">
+        <v>6</v>
+      </c>
+      <c r="AJ92">
+        <v>1.35</v>
+      </c>
+      <c r="AK92">
+        <v>2.94</v>
+      </c>
+      <c r="AL92">
+        <v>1.52</v>
+      </c>
+      <c r="AM92">
+        <v>2.45</v>
+      </c>
+      <c r="AN92">
+        <v>1.06</v>
+      </c>
+      <c r="AO92">
+        <v>1.12</v>
+      </c>
+      <c r="AP92">
+        <v>2.85</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>0.14</v>
+      </c>
+      <c r="AS92">
+        <v>2.09</v>
+      </c>
+      <c r="AT92">
+        <v>0.18</v>
+      </c>
+      <c r="AU92">
+        <v>1.68</v>
+      </c>
+      <c r="AV92">
+        <v>1.29</v>
+      </c>
+      <c r="AW92">
+        <v>2.97</v>
+      </c>
+      <c r="AX92">
+        <v>1.36</v>
+      </c>
+      <c r="AY92">
+        <v>11.5</v>
+      </c>
+      <c r="AZ92">
+        <v>3.68</v>
+      </c>
+      <c r="BA92">
+        <v>1.07</v>
+      </c>
+      <c r="BB92">
+        <v>1.15</v>
+      </c>
+      <c r="BC92">
+        <v>1.3</v>
+      </c>
+      <c r="BD92">
+        <v>1.53</v>
+      </c>
+      <c r="BE92">
+        <v>1.89</v>
+      </c>
+      <c r="BF92">
+        <v>4</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>3</v>
+      </c>
+      <c r="BI92">
+        <v>5</v>
+      </c>
+      <c r="BJ92">
         <v>7</v>
       </c>
-      <c r="R92">
-        <v>8</v>
-      </c>
-      <c r="S92">
-        <v>15</v>
-      </c>
-      <c r="T92">
-        <v>3.5</v>
-      </c>
-      <c r="U92">
-        <v>2.3</v>
-      </c>
-      <c r="V92">
-        <v>2.55</v>
-      </c>
-      <c r="W92">
-        <v>1.27</v>
-      </c>
-      <c r="X92">
-        <v>3.56</v>
-      </c>
-      <c r="Y92">
-        <v>2.3</v>
-      </c>
-      <c r="Z92">
-        <v>1.55</v>
-      </c>
-      <c r="AA92">
-        <v>5.15</v>
-      </c>
-      <c r="AB92">
-        <v>1.14</v>
-      </c>
-      <c r="AC92">
-        <v>3.08</v>
-      </c>
-      <c r="AD92">
-        <v>3.7</v>
-      </c>
-      <c r="AE92">
-        <v>2</v>
-      </c>
-      <c r="AF92">
-        <v>1.02</v>
-      </c>
-      <c r="AG92">
-        <v>12</v>
-      </c>
-      <c r="AH92">
-        <v>1.18</v>
-      </c>
-      <c r="AI92">
-        <v>4.5</v>
-      </c>
-      <c r="AJ92">
-        <v>1.55</v>
-      </c>
-      <c r="AK92">
-        <v>2.29</v>
-      </c>
-      <c r="AL92">
-        <v>1.5</v>
-      </c>
-      <c r="AM92">
-        <v>2.5</v>
-      </c>
-      <c r="AN92">
-        <v>1.65</v>
-      </c>
-      <c r="AO92">
-        <v>1.22</v>
-      </c>
-      <c r="AP92">
-        <v>1.28</v>
-      </c>
-      <c r="AQ92">
-        <v>1.86</v>
-      </c>
-      <c r="AR92">
-        <v>2.43</v>
-      </c>
-      <c r="AS92">
-        <v>1.73</v>
-      </c>
-      <c r="AT92">
-        <v>2.64</v>
-      </c>
-      <c r="AU92">
-        <v>1.5</v>
-      </c>
-      <c r="AV92">
-        <v>1.83</v>
-      </c>
-      <c r="AW92">
-        <v>3.33</v>
-      </c>
-      <c r="AX92">
-        <v>2.43</v>
-      </c>
-      <c r="AY92">
-        <v>8.5</v>
-      </c>
-      <c r="AZ92">
-        <v>1.75</v>
-      </c>
-      <c r="BA92">
-        <v>1.09</v>
-      </c>
-      <c r="BB92">
-        <v>1.16</v>
-      </c>
-      <c r="BC92">
-        <v>1.31</v>
-      </c>
-      <c r="BD92">
-        <v>1.56</v>
-      </c>
-      <c r="BE92">
-        <v>1.92</v>
-      </c>
-      <c r="BF92">
-        <v>2</v>
-      </c>
-      <c r="BG92">
-        <v>4</v>
-      </c>
-      <c r="BH92">
-        <v>7</v>
-      </c>
-      <c r="BI92">
-        <v>6</v>
-      </c>
-      <c r="BJ92">
-        <v>9</v>
-      </c>
       <c r="BK92">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:63">
@@ -18726,7 +18726,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4933974</v>
+        <v>4933975</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18741,10 +18741,10 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -18759,157 +18759,157 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="Q93">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>3.1</v>
+      </c>
+      <c r="U93">
+        <v>2.4</v>
+      </c>
+      <c r="V93">
+        <v>2.6</v>
+      </c>
+      <c r="W93">
+        <v>1.25</v>
+      </c>
+      <c r="X93">
+        <v>3.72</v>
+      </c>
+      <c r="Y93">
+        <v>2.17</v>
+      </c>
+      <c r="Z93">
+        <v>1.65</v>
+      </c>
+      <c r="AA93">
+        <v>4.75</v>
+      </c>
+      <c r="AB93">
+        <v>1.17</v>
+      </c>
+      <c r="AC93">
+        <v>3.27</v>
+      </c>
+      <c r="AD93">
+        <v>3.8</v>
+      </c>
+      <c r="AE93">
+        <v>1.9</v>
+      </c>
+      <c r="AF93">
+        <v>1.02</v>
+      </c>
+      <c r="AG93">
+        <v>13.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.12</v>
+      </c>
+      <c r="AI93">
+        <v>5.05</v>
+      </c>
+      <c r="AJ93">
+        <v>1.48</v>
+      </c>
+      <c r="AK93">
+        <v>2.47</v>
+      </c>
+      <c r="AL93">
+        <v>1.45</v>
+      </c>
+      <c r="AM93">
+        <v>2.65</v>
+      </c>
+      <c r="AN93">
+        <v>1.65</v>
+      </c>
+      <c r="AO93">
+        <v>1.2</v>
+      </c>
+      <c r="AP93">
+        <v>1.28</v>
+      </c>
+      <c r="AQ93">
+        <v>1.14</v>
+      </c>
+      <c r="AR93">
+        <v>0.17</v>
+      </c>
+      <c r="AS93">
+        <v>1.27</v>
+      </c>
+      <c r="AT93">
+        <v>0.82</v>
+      </c>
+      <c r="AU93">
+        <v>1.42</v>
+      </c>
+      <c r="AV93">
+        <v>1.57</v>
+      </c>
+      <c r="AW93">
+        <v>2.99</v>
+      </c>
+      <c r="AX93">
+        <v>2.43</v>
+      </c>
+      <c r="AY93">
+        <v>9.9</v>
+      </c>
+      <c r="AZ93">
+        <v>1.72</v>
+      </c>
+      <c r="BA93">
+        <v>1.12</v>
+      </c>
+      <c r="BB93">
+        <v>1.19</v>
+      </c>
+      <c r="BC93">
+        <v>1.37</v>
+      </c>
+      <c r="BD93">
+        <v>1.65</v>
+      </c>
+      <c r="BE93">
+        <v>2.08</v>
+      </c>
+      <c r="BF93">
+        <v>5</v>
+      </c>
+      <c r="BG93">
         <v>4</v>
       </c>
-      <c r="S93">
-        <v>12</v>
-      </c>
-      <c r="T93">
-        <v>1.83</v>
-      </c>
-      <c r="U93">
-        <v>2.7</v>
-      </c>
-      <c r="V93">
-        <v>5</v>
-      </c>
-      <c r="W93">
-        <v>1.2</v>
-      </c>
-      <c r="X93">
-        <v>4.3</v>
-      </c>
-      <c r="Y93">
-        <v>1.95</v>
-      </c>
-      <c r="Z93">
-        <v>1.75</v>
-      </c>
-      <c r="AA93">
-        <v>4.05</v>
-      </c>
-      <c r="AB93">
-        <v>1.22</v>
-      </c>
-      <c r="AC93">
-        <v>1.42</v>
-      </c>
-      <c r="AD93">
-        <v>5</v>
-      </c>
-      <c r="AE93">
-        <v>5.24</v>
-      </c>
-      <c r="AF93">
-        <v>1.01</v>
-      </c>
-      <c r="AG93">
-        <v>21</v>
-      </c>
-      <c r="AH93">
-        <v>1.09</v>
-      </c>
-      <c r="AI93">
-        <v>6</v>
-      </c>
-      <c r="AJ93">
-        <v>1.35</v>
-      </c>
-      <c r="AK93">
-        <v>2.94</v>
-      </c>
-      <c r="AL93">
-        <v>1.52</v>
-      </c>
-      <c r="AM93">
-        <v>2.45</v>
-      </c>
-      <c r="AN93">
-        <v>1.06</v>
-      </c>
-      <c r="AO93">
-        <v>1.12</v>
-      </c>
-      <c r="AP93">
-        <v>2.85</v>
-      </c>
-      <c r="AQ93">
-        <v>2</v>
-      </c>
-      <c r="AR93">
-        <v>0.14</v>
-      </c>
-      <c r="AS93">
-        <v>2.09</v>
-      </c>
-      <c r="AT93">
-        <v>0.18</v>
-      </c>
-      <c r="AU93">
-        <v>1.68</v>
-      </c>
-      <c r="AV93">
-        <v>1.29</v>
-      </c>
-      <c r="AW93">
-        <v>2.97</v>
-      </c>
-      <c r="AX93">
-        <v>1.36</v>
-      </c>
-      <c r="AY93">
-        <v>11.5</v>
-      </c>
-      <c r="AZ93">
-        <v>3.68</v>
-      </c>
-      <c r="BA93">
-        <v>1.07</v>
-      </c>
-      <c r="BB93">
-        <v>1.15</v>
-      </c>
-      <c r="BC93">
-        <v>1.3</v>
-      </c>
-      <c r="BD93">
-        <v>1.53</v>
-      </c>
-      <c r="BE93">
-        <v>1.89</v>
-      </c>
-      <c r="BF93">
+      <c r="BH93">
         <v>4</v>
       </c>
-      <c r="BG93">
-        <v>0</v>
-      </c>
-      <c r="BH93">
-        <v>3</v>
-      </c>
       <c r="BI93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK93">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18917,7 +18917,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4933975</v>
+        <v>4933896</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -18932,16 +18932,16 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -18950,157 +18950,157 @@
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S94">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="T94">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U94">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V94">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W94">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X94">
-        <v>3.72</v>
+        <v>3.56</v>
       </c>
       <c r="Y94">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="Z94">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AA94">
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
       <c r="AB94">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AC94">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="AD94">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AE94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AF94">
         <v>1.02</v>
       </c>
       <c r="AG94">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH94">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AI94">
-        <v>5.05</v>
+        <v>4.5</v>
       </c>
       <c r="AJ94">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AK94">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="AL94">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AM94">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AN94">
         <v>1.65</v>
       </c>
       <c r="AO94">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AP94">
         <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="AR94">
-        <v>0.17</v>
+        <v>2.43</v>
       </c>
       <c r="AS94">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="AT94">
-        <v>0.82</v>
+        <v>2.64</v>
       </c>
       <c r="AU94">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AV94">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AW94">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="AX94">
         <v>2.43</v>
       </c>
       <c r="AY94">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ94">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="BA94">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="BB94">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="BC94">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="BD94">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="BE94">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BF94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG94">
         <v>4</v>
       </c>
       <c r="BH94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BJ94">
         <v>9</v>
       </c>
       <c r="BK94">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -20254,7 +20254,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4933980</v>
+        <v>4933982</v>
       </c>
       <c r="C101" t="s">
         <v>63</v>
@@ -20269,10 +20269,10 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -20284,160 +20284,160 @@
         <v>2</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O101" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="P101" t="s">
         <v>231</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T101">
-        <v>4.05</v>
+        <v>3.15</v>
       </c>
       <c r="U101">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="V101">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="W101">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="X101">
-        <v>3.25</v>
+        <v>3.56</v>
       </c>
       <c r="Y101">
+        <v>2.29</v>
+      </c>
+      <c r="Z101">
+        <v>1.61</v>
+      </c>
+      <c r="AA101">
+        <v>5</v>
+      </c>
+      <c r="AB101">
+        <v>1.15</v>
+      </c>
+      <c r="AC101">
+        <v>2.88</v>
+      </c>
+      <c r="AD101">
+        <v>3.5</v>
+      </c>
+      <c r="AE101">
         <v>2.3</v>
       </c>
-      <c r="Z101">
-        <v>1.57</v>
-      </c>
-      <c r="AA101">
-        <v>5.5</v>
-      </c>
-      <c r="AB101">
-        <v>1.12</v>
-      </c>
-      <c r="AC101">
-        <v>3.8</v>
-      </c>
-      <c r="AD101">
-        <v>3.6</v>
-      </c>
-      <c r="AE101">
-        <v>1.91</v>
-      </c>
       <c r="AF101">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH101">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AI101">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AJ101">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AK101">
-        <v>2.09</v>
+        <v>2.5</v>
       </c>
       <c r="AL101">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AM101">
+        <v>2.64</v>
+      </c>
+      <c r="AN101">
+        <v>1.5</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>1.35</v>
+      </c>
+      <c r="AQ101">
+        <v>1.63</v>
+      </c>
+      <c r="AR101">
         <v>2.25</v>
       </c>
-      <c r="AN101">
-        <v>1.85</v>
-      </c>
-      <c r="AO101">
-        <v>1.2</v>
-      </c>
-      <c r="AP101">
-        <v>1.22</v>
-      </c>
-      <c r="AQ101">
-        <v>0.5</v>
-      </c>
-      <c r="AR101">
-        <v>0.63</v>
-      </c>
       <c r="AS101">
-        <v>0.55</v>
+        <v>1.73</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="AU101">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="AV101">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AW101">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
       <c r="AX101">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="AY101">
         <v>9</v>
       </c>
       <c r="AZ101">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="BA101">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="BB101">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="BC101">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="BD101">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="BE101">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BF101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG101">
         <v>7</v>
       </c>
       <c r="BH101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ101">
+        <v>11</v>
+      </c>
+      <c r="BK101">
         <v>12</v>
-      </c>
-      <c r="BK101">
-        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:63">
@@ -20445,7 +20445,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>4933982</v>
+        <v>4933980</v>
       </c>
       <c r="C102" t="s">
         <v>63</v>
@@ -20460,10 +20460,10 @@
         <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H102" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -20475,160 +20475,160 @@
         <v>2</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="P102" t="s">
         <v>232</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T102">
-        <v>3.15</v>
+        <v>4.05</v>
       </c>
       <c r="U102">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="V102">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="W102">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X102">
-        <v>3.56</v>
+        <v>3.25</v>
       </c>
       <c r="Y102">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="Z102">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AA102">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB102">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AC102">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="AD102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AE102">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AF102">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH102">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AI102">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AJ102">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AK102">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="AL102">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AM102">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="AN102">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AO102">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
-        <v>2.25</v>
+        <v>0.63</v>
       </c>
       <c r="AS102">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="AU102">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="AV102">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AW102">
-        <v>3.06</v>
+        <v>2.66</v>
       </c>
       <c r="AX102">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="AY102">
         <v>9</v>
       </c>
       <c r="AZ102">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="BA102">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="BB102">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="BC102">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="BD102">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="BE102">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BF102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG102">
         <v>7</v>
       </c>
       <c r="BH102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK102">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:63">
@@ -21973,7 +21973,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>4933990</v>
+        <v>4933991</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -21988,175 +21988,175 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110">
         <v>1</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O110" t="s">
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R110">
+        <v>9</v>
+      </c>
+      <c r="S110">
+        <v>14</v>
+      </c>
+      <c r="T110">
+        <v>2.31</v>
+      </c>
+      <c r="U110">
+        <v>2.36</v>
+      </c>
+      <c r="V110">
+        <v>4.38</v>
+      </c>
+      <c r="W110">
+        <v>1.29</v>
+      </c>
+      <c r="X110">
+        <v>3.42</v>
+      </c>
+      <c r="Y110">
+        <v>2.36</v>
+      </c>
+      <c r="Z110">
+        <v>1.55</v>
+      </c>
+      <c r="AA110">
+        <v>5.45</v>
+      </c>
+      <c r="AB110">
+        <v>1.13</v>
+      </c>
+      <c r="AC110">
+        <v>1.62</v>
+      </c>
+      <c r="AD110">
+        <v>3.8</v>
+      </c>
+      <c r="AE110">
+        <v>4.15</v>
+      </c>
+      <c r="AF110">
+        <v>1.03</v>
+      </c>
+      <c r="AG110">
+        <v>11</v>
+      </c>
+      <c r="AH110">
+        <v>1.18</v>
+      </c>
+      <c r="AI110">
+        <v>4.33</v>
+      </c>
+      <c r="AJ110">
+        <v>1.53</v>
+      </c>
+      <c r="AK110">
+        <v>2.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.59</v>
+      </c>
+      <c r="AM110">
+        <v>2.29</v>
+      </c>
+      <c r="AN110">
+        <v>1.23</v>
+      </c>
+      <c r="AO110">
+        <v>1.24</v>
+      </c>
+      <c r="AP110">
+        <v>2.04</v>
+      </c>
+      <c r="AQ110">
+        <v>2</v>
+      </c>
+      <c r="AR110">
+        <v>0.44</v>
+      </c>
+      <c r="AS110">
+        <v>2</v>
+      </c>
+      <c r="AT110">
+        <v>0.45</v>
+      </c>
+      <c r="AU110">
+        <v>1.7</v>
+      </c>
+      <c r="AV110">
+        <v>1.34</v>
+      </c>
+      <c r="AW110">
+        <v>3.04</v>
+      </c>
+      <c r="AX110">
+        <v>1.55</v>
+      </c>
+      <c r="AY110">
+        <v>10.25</v>
+      </c>
+      <c r="AZ110">
+        <v>2.85</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>1.16</v>
+      </c>
+      <c r="BC110">
+        <v>1.3</v>
+      </c>
+      <c r="BD110">
+        <v>1.52</v>
+      </c>
+      <c r="BE110">
+        <v>1.9</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>5</v>
+      </c>
+      <c r="BJ110">
         <v>8</v>
       </c>
-      <c r="S110">
-        <v>10</v>
-      </c>
-      <c r="T110">
-        <v>6.05</v>
-      </c>
-      <c r="U110">
-        <v>2.61</v>
-      </c>
-      <c r="V110">
-        <v>1.83</v>
-      </c>
-      <c r="W110">
-        <v>1.25</v>
-      </c>
-      <c r="X110">
-        <v>3.72</v>
-      </c>
-      <c r="Y110">
-        <v>2.2</v>
-      </c>
-      <c r="Z110">
-        <v>1.63</v>
-      </c>
-      <c r="AA110">
-        <v>4.85</v>
-      </c>
-      <c r="AB110">
-        <v>1.16</v>
-      </c>
-      <c r="AC110">
-        <v>6.1</v>
-      </c>
-      <c r="AD110">
-        <v>4.55</v>
-      </c>
-      <c r="AE110">
-        <v>1.36</v>
-      </c>
-      <c r="AF110">
-        <v>1.02</v>
-      </c>
-      <c r="AG110">
-        <v>13</v>
-      </c>
-      <c r="AH110">
-        <v>1.12</v>
-      </c>
-      <c r="AI110">
-        <v>4.95</v>
-      </c>
-      <c r="AJ110">
-        <v>1.5</v>
-      </c>
-      <c r="AK110">
-        <v>2.4</v>
-      </c>
-      <c r="AL110">
-        <v>1.7</v>
-      </c>
-      <c r="AM110">
-        <v>2.08</v>
-      </c>
-      <c r="AN110">
-        <v>2.92</v>
-      </c>
-      <c r="AO110">
-        <v>1.17</v>
-      </c>
-      <c r="AP110">
-        <v>1.1</v>
-      </c>
-      <c r="AQ110">
-        <v>0.44</v>
-      </c>
-      <c r="AR110">
-        <v>2.33</v>
-      </c>
-      <c r="AS110">
-        <v>0.55</v>
-      </c>
-      <c r="AT110">
-        <v>2</v>
-      </c>
-      <c r="AU110">
-        <v>1.28</v>
-      </c>
-      <c r="AV110">
-        <v>1.6</v>
-      </c>
-      <c r="AW110">
-        <v>2.88</v>
-      </c>
-      <c r="AX110">
-        <v>3.32</v>
-      </c>
-      <c r="AY110">
-        <v>10.75</v>
-      </c>
-      <c r="AZ110">
-        <v>1.43</v>
-      </c>
-      <c r="BA110">
-        <v>0</v>
-      </c>
-      <c r="BB110">
-        <v>1.15</v>
-      </c>
-      <c r="BC110">
-        <v>1.26</v>
-      </c>
-      <c r="BD110">
-        <v>1.46</v>
-      </c>
-      <c r="BE110">
-        <v>1.8</v>
-      </c>
-      <c r="BF110">
-        <v>3</v>
-      </c>
-      <c r="BG110">
-        <v>2</v>
-      </c>
-      <c r="BH110">
+      <c r="BK110">
         <v>7</v>
-      </c>
-      <c r="BI110">
-        <v>6</v>
-      </c>
-      <c r="BJ110">
-        <v>10</v>
-      </c>
-      <c r="BK110">
-        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:63">
@@ -22164,7 +22164,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>4933991</v>
+        <v>4933990</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22179,175 +22179,175 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H111" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O111" t="s">
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="Q111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S111">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T111">
-        <v>2.31</v>
+        <v>6.05</v>
       </c>
       <c r="U111">
-        <v>2.36</v>
+        <v>2.61</v>
       </c>
       <c r="V111">
-        <v>4.38</v>
+        <v>1.83</v>
       </c>
       <c r="W111">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X111">
-        <v>3.42</v>
+        <v>3.72</v>
       </c>
       <c r="Y111">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="Z111">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AA111">
-        <v>5.45</v>
+        <v>4.85</v>
       </c>
       <c r="AB111">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AC111">
-        <v>1.62</v>
+        <v>6.1</v>
       </c>
       <c r="AD111">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="AE111">
-        <v>4.15</v>
+        <v>1.36</v>
       </c>
       <c r="AF111">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG111">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH111">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AI111">
-        <v>4.33</v>
+        <v>4.95</v>
       </c>
       <c r="AJ111">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK111">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AL111">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AM111">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="AN111">
-        <v>1.23</v>
+        <v>2.92</v>
       </c>
       <c r="AO111">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2.04</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>0.44</v>
       </c>
       <c r="AR111">
-        <v>0.44</v>
+        <v>2.33</v>
       </c>
       <c r="AS111">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="AT111">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="AU111">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="AV111">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AW111">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AX111">
-        <v>1.55</v>
+        <v>3.32</v>
       </c>
       <c r="AY111">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AZ111">
-        <v>2.85</v>
+        <v>1.43</v>
       </c>
       <c r="BA111">
         <v>0</v>
       </c>
       <c r="BB111">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BC111">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BD111">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="BE111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BF111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG111">
         <v>2</v>
       </c>
       <c r="BH111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ111">
+        <v>10</v>
+      </c>
+      <c r="BK111">
         <v>8</v>
-      </c>
-      <c r="BK111">
-        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -23501,7 +23501,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>4933998</v>
+        <v>4933997</v>
       </c>
       <c r="C118" t="s">
         <v>63</v>
@@ -23516,175 +23516,175 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N118">
         <v>4</v>
       </c>
       <c r="O118" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="P118" t="s">
         <v>246</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S118">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="U118">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="V118">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="W118">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X118">
-        <v>3.82</v>
+        <v>3.64</v>
       </c>
       <c r="Y118">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Z118">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AA118">
-        <v>4.55</v>
+        <v>4.95</v>
       </c>
       <c r="AB118">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AC118">
-        <v>2.31</v>
+        <v>3.13</v>
       </c>
       <c r="AD118">
-        <v>3.43</v>
+        <v>3.68</v>
       </c>
       <c r="AE118">
-        <v>2.46</v>
+        <v>2.03</v>
       </c>
       <c r="AF118">
         <v>1.02</v>
       </c>
       <c r="AG118">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH118">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AI118">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ118">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AK118">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="AL118">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AM118">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AN118">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AO118">
         <v>1.26</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AQ118">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
-        <v>2.56</v>
+        <v>0.89</v>
       </c>
       <c r="AS118">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="AT118">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="AU118">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AV118">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="AW118">
-        <v>3.45</v>
+        <v>2.89</v>
       </c>
       <c r="AX118">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AY118">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AZ118">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="BA118">
         <v>0</v>
       </c>
       <c r="BB118">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BC118">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BD118">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="BE118">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>4</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
         <v>3</v>
-      </c>
-      <c r="BG118">
-        <v>10</v>
-      </c>
-      <c r="BH118">
-        <v>3</v>
-      </c>
-      <c r="BI118">
-        <v>7</v>
       </c>
       <c r="BJ118">
         <v>6</v>
       </c>
       <c r="BK118">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:63">
@@ -23692,7 +23692,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>4933997</v>
+        <v>4933998</v>
       </c>
       <c r="C119" t="s">
         <v>63</v>
@@ -23707,175 +23707,175 @@
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H119" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N119">
         <v>4</v>
       </c>
       <c r="O119" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="P119" t="s">
         <v>247</v>
       </c>
       <c r="Q119">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R119">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T119">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="V119">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="W119">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X119">
-        <v>3.64</v>
+        <v>3.82</v>
       </c>
       <c r="Y119">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Z119">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AA119">
-        <v>4.95</v>
+        <v>4.55</v>
       </c>
       <c r="AB119">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AC119">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="AD119">
-        <v>3.68</v>
+        <v>3.43</v>
       </c>
       <c r="AE119">
-        <v>2.03</v>
+        <v>2.46</v>
       </c>
       <c r="AF119">
         <v>1.02</v>
       </c>
       <c r="AG119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH119">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AI119">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AJ119">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AK119">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="AL119">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AM119">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AN119">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AO119">
         <v>1.26</v>
       </c>
       <c r="AP119">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AQ119">
-        <v>1.33</v>
+        <v>2.22</v>
       </c>
       <c r="AR119">
-        <v>0.89</v>
+        <v>2.56</v>
       </c>
       <c r="AS119">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="AU119">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AV119">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="AW119">
-        <v>2.89</v>
+        <v>3.45</v>
       </c>
       <c r="AX119">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AY119">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AZ119">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="BA119">
         <v>0</v>
       </c>
       <c r="BB119">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BC119">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BD119">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="BE119">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BF119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ119">
         <v>6</v>
       </c>
       <c r="BK119">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:63">
@@ -24456,7 +24456,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>4934002</v>
+        <v>4934005</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -24471,175 +24471,175 @@
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="P123" t="s">
         <v>80</v>
       </c>
       <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
         <v>6</v>
       </c>
-      <c r="R123">
+      <c r="S123">
         <v>9</v>
       </c>
-      <c r="S123">
-        <v>15</v>
-      </c>
       <c r="T123">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="U123">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="V123">
-        <v>4.65</v>
+        <v>2.85</v>
       </c>
       <c r="W123">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X123">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="Y123">
         <v>2.15</v>
       </c>
       <c r="Z123">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AA123">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB123">
         <v>1.17</v>
       </c>
       <c r="AC123">
-        <v>1.68</v>
+        <v>2.55</v>
       </c>
       <c r="AD123">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="AE123">
-        <v>4.38</v>
+        <v>2.48</v>
       </c>
       <c r="AF123">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AG123">
         <v>12</v>
       </c>
       <c r="AH123">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AI123">
         <v>5.2</v>
       </c>
       <c r="AJ123">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AK123">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AL123">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AM123">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="AN123">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="AO123">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AP123">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AS123">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="AT123">
-        <v>0.82</v>
+        <v>0.18</v>
       </c>
       <c r="AU123">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AV123">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AW123">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AX123">
+        <v>2.03</v>
+      </c>
+      <c r="AY123">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ123">
+        <v>2.01</v>
+      </c>
+      <c r="BA123">
+        <v>1.09</v>
+      </c>
+      <c r="BB123">
+        <v>1.21</v>
+      </c>
+      <c r="BC123">
         <v>1.4</v>
       </c>
-      <c r="AY123">
-        <v>11.25</v>
-      </c>
-      <c r="AZ123">
-        <v>3.44</v>
-      </c>
-      <c r="BA123">
-        <v>0</v>
-      </c>
-      <c r="BB123">
-        <v>1.12</v>
-      </c>
-      <c r="BC123">
-        <v>1.25</v>
-      </c>
       <c r="BD123">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="BE123">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
         <v>5</v>
       </c>
-      <c r="BG123">
-        <v>0</v>
-      </c>
       <c r="BH123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ123">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK123">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:63">
@@ -24647,7 +24647,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>4934005</v>
+        <v>4934002</v>
       </c>
       <c r="C124" t="s">
         <v>63</v>
@@ -24662,175 +24662,175 @@
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H124" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O124" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="P124" t="s">
         <v>80</v>
       </c>
       <c r="Q124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R124">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S124">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T124">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="U124">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="V124">
-        <v>2.85</v>
+        <v>4.65</v>
       </c>
       <c r="W124">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X124">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="Y124">
         <v>2.15</v>
       </c>
       <c r="Z124">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AA124">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AB124">
         <v>1.17</v>
       </c>
       <c r="AC124">
-        <v>2.55</v>
+        <v>1.68</v>
       </c>
       <c r="AD124">
-        <v>3.82</v>
+        <v>4.35</v>
       </c>
       <c r="AE124">
-        <v>2.48</v>
+        <v>4.38</v>
       </c>
       <c r="AF124">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AG124">
         <v>12</v>
       </c>
       <c r="AH124">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AI124">
         <v>5.2</v>
       </c>
       <c r="AJ124">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AK124">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AL124">
+        <v>1.52</v>
+      </c>
+      <c r="AM124">
+        <v>2.43</v>
+      </c>
+      <c r="AN124">
+        <v>1.16</v>
+      </c>
+      <c r="AO124">
+        <v>1.19</v>
+      </c>
+      <c r="AP124">
+        <v>2.05</v>
+      </c>
+      <c r="AQ124">
+        <v>1.6</v>
+      </c>
+      <c r="AR124">
+        <v>0.9</v>
+      </c>
+      <c r="AS124">
+        <v>1.73</v>
+      </c>
+      <c r="AT124">
+        <v>0.82</v>
+      </c>
+      <c r="AU124">
+        <v>1.55</v>
+      </c>
+      <c r="AV124">
+        <v>1.55</v>
+      </c>
+      <c r="AW124">
+        <v>3.1</v>
+      </c>
+      <c r="AX124">
         <v>1.4</v>
       </c>
-      <c r="AM124">
-        <v>2.7</v>
-      </c>
-      <c r="AN124">
-        <v>1.47</v>
-      </c>
-      <c r="AO124">
+      <c r="AY124">
+        <v>11.25</v>
+      </c>
+      <c r="AZ124">
+        <v>3.44</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1.12</v>
+      </c>
+      <c r="BC124">
         <v>1.25</v>
       </c>
-      <c r="AP124">
-        <v>1.47</v>
-      </c>
-      <c r="AQ124">
-        <v>0.5</v>
-      </c>
-      <c r="AR124">
-        <v>0.1</v>
-      </c>
-      <c r="AS124">
-        <v>0.55</v>
-      </c>
-      <c r="AT124">
-        <v>0.18</v>
-      </c>
-      <c r="AU124">
-        <v>1.26</v>
-      </c>
-      <c r="AV124">
-        <v>1.24</v>
-      </c>
-      <c r="AW124">
-        <v>2.5</v>
-      </c>
-      <c r="AX124">
-        <v>2.03</v>
-      </c>
-      <c r="AY124">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ124">
-        <v>2.01</v>
-      </c>
-      <c r="BA124">
-        <v>1.09</v>
-      </c>
-      <c r="BB124">
-        <v>1.21</v>
-      </c>
-      <c r="BC124">
-        <v>1.4</v>
-      </c>
       <c r="BD124">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="BE124">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BF124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ124">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK124">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.55</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>0.55</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>1.32</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT11" t="n">
         <v>0.82</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT12" t="n">
         <v>1.64</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>1.26</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4148,10 +4148,10 @@
         <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU18" t="n">
         <v>1.43</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>2.18</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>1.21</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>0.82</v>
@@ -5166,7 +5166,7 @@
         <v>0.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.41</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT24" t="n">
         <v>0.91</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.43</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.41</v>
@@ -5978,7 +5978,7 @@
         <v>1.55</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.25</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT29" t="n">
         <v>2</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.82</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT32" t="n">
         <v>0.91</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU33" t="n">
         <v>1.46</v>
@@ -7602,7 +7602,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.36</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.48</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT37" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>2.27</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.79</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>2</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.24</v>
@@ -9223,10 +9223,10 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.86</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>0.91</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.46</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
         <v>2.64</v>
@@ -10038,7 +10038,7 @@
         <v>1.27</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.38</v>
@@ -10444,7 +10444,7 @@
         <v>1.55</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.51</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT50" t="n">
         <v>2.64</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11050,10 +11050,10 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.23</v>
@@ -11256,7 +11256,7 @@
         <v>1.73</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.17</v>
@@ -11659,10 +11659,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.39</v>
@@ -12065,7 +12065,7 @@
         <v>2.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12471,10 +12471,10 @@
         <v>1.17</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.32</v>
@@ -12880,7 +12880,7 @@
         <v>1.55</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
         <v>2.64</v>
@@ -13283,10 +13283,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.67</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT64" t="n">
         <v>0.82</v>
@@ -13692,7 +13692,7 @@
         <v>1.73</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.59</v>
@@ -14095,7 +14095,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>2</v>
@@ -14298,10 +14298,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14504,7 +14504,7 @@
         <v>0.55</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU72" t="n">
         <v>1.78</v>
@@ -15719,10 +15719,10 @@
         <v>0.2</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -16128,7 +16128,7 @@
         <v>1.73</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.4</v>
@@ -16534,7 +16534,7 @@
         <v>2.27</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU79" t="n">
         <v>1.84</v>
@@ -16734,7 +16734,7 @@
         <v>2.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT80" t="n">
         <v>2.64</v>
@@ -16937,7 +16937,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>0.82</v>
@@ -17143,7 +17143,7 @@
         <v>1.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU82" t="n">
         <v>1.64</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>0.82</v>
@@ -17749,10 +17749,10 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU85" t="n">
         <v>1.33</v>
@@ -18158,7 +18158,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.69</v>
@@ -18564,7 +18564,7 @@
         <v>1.73</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.46</v>
@@ -18764,7 +18764,7 @@
         <v>1.29</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18967,10 +18967,10 @@
         <v>0.57</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.83</v>
@@ -19170,10 +19170,10 @@
         <v>0.14</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.68</v>
@@ -19373,10 +19373,10 @@
         <v>0.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU93" t="n">
         <v>1.42</v>
@@ -20188,7 +20188,7 @@
         <v>2.27</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.72</v>
@@ -20388,10 +20388,10 @@
         <v>0.29</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.78</v>
@@ -20591,7 +20591,7 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20794,10 +20794,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.66</v>
@@ -21203,7 +21203,7 @@
         <v>0.55</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.24</v>
@@ -21406,7 +21406,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU103" t="n">
         <v>1.7</v>
@@ -21606,10 +21606,10 @@
         <v>1.13</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU104" t="n">
         <v>1.78</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT105" t="n">
         <v>0.91</v>
@@ -22418,10 +22418,10 @@
         <v>0.75</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT109" t="n">
         <v>1.64</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.7</v>
@@ -23233,7 +23233,7 @@
         <v>1.73</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU112" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.22</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,10 +23636,10 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU114" t="n">
         <v>1.34</v>
@@ -24245,10 +24245,10 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.91</v>
@@ -24448,10 +24448,10 @@
         <v>0.89</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU118" t="n">
         <v>1.44</v>
@@ -24651,7 +24651,7 @@
         <v>2.56</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT119" t="n">
         <v>2.64</v>
@@ -24857,7 +24857,7 @@
         <v>2.27</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25057,10 +25057,10 @@
         <v>0.9</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25466,7 +25466,7 @@
         <v>0.55</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AU123" t="n">
         <v>1.26</v>
@@ -25869,7 +25869,7 @@
         <v>1.8</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT125" t="n">
         <v>1.64</v>
@@ -26072,10 +26072,10 @@
         <v>0.4</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.42</v>
@@ -26478,7 +26478,7 @@
         <v>0.9</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT128" t="n">
         <v>0.91</v>
@@ -26684,7 +26684,7 @@
         <v>2.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.66</v>
@@ -27087,10 +27087,10 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.91</v>
@@ -27293,7 +27293,7 @@
         <v>1.27</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU132" t="n">
         <v>1.63</v>
@@ -27493,7 +27493,7 @@
         <v>1.1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27548,6 +27548,1224 @@
       </c>
       <c r="BK133" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7198586</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45186.58333333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['8', '87']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['63', '74']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>3</v>
+      </c>
+      <c r="S134" t="n">
+        <v>5</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7198588</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45186.625</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['45+6', '74']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>10</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2</v>
+      </c>
+      <c r="S135" t="n">
+        <v>12</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X135" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7198585</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45186.67708333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['43', '90+8']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>14</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X136" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7198589</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45187.67708333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>4</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="n">
+        <v>7</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7198587</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45189.55208333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['3', '6', '24', '88']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['18', '47']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>10</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>14</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7198584</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45189.67708333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['9', '31']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['53', '73']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT14" t="n">
         <v>1.64</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU16" t="n">
         <v>1.01</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -4354,7 +4354,7 @@
         <v>2.27</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU19" t="n">
         <v>1.26</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU20" t="n">
         <v>2.18</v>
@@ -4757,7 +4757,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT21" t="n">
         <v>1.17</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5369,7 +5369,7 @@
         <v>2.58</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU24" t="n">
         <v>2.03</v>
@@ -5572,7 +5572,7 @@
         <v>2.17</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.43</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU29" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>1.25</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU32" t="n">
         <v>1.34</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>2.64</v>
@@ -7602,7 +7602,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.36</v>
@@ -7802,7 +7802,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>1.64</v>
@@ -8414,7 +8414,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU39" t="n">
         <v>1.52</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>1.64</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU41" t="n">
         <v>1.25</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU42" t="n">
         <v>1.24</v>
@@ -9429,7 +9429,7 @@
         <v>1.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU44" t="n">
         <v>2.12</v>
@@ -10035,7 +10035,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU51" t="n">
         <v>1.99</v>
@@ -11050,7 +11050,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU53" t="n">
         <v>1.17</v>
@@ -11456,10 +11456,10 @@
         <v>2.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54" t="n">
         <v>1.43</v>
@@ -11662,7 +11662,7 @@
         <v>1.83</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU55" t="n">
         <v>1.39</v>
@@ -11862,7 +11862,7 @@
         <v>2.4</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT56" t="n">
         <v>1.64</v>
@@ -12068,7 +12068,7 @@
         <v>2.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU57" t="n">
         <v>1.73</v>
@@ -12268,10 +12268,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU58" t="n">
         <v>1.31</v>
@@ -12471,7 +12471,7 @@
         <v>1.17</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12677,7 +12677,7 @@
         <v>2.27</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU60" t="n">
         <v>1.83</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5</v>
@@ -13892,7 +13892,7 @@
         <v>2.17</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT66" t="n">
         <v>1.64</v>
@@ -14098,7 +14098,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.29</v>
@@ -14301,7 +14301,7 @@
         <v>2.58</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT70" t="n">
         <v>0.82</v>
@@ -15110,10 +15110,10 @@
         <v>0.2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU72" t="n">
         <v>1.78</v>
@@ -15313,10 +15313,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU73" t="n">
         <v>1.72</v>
@@ -15516,10 +15516,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU74" t="n">
         <v>1.46</v>
@@ -15722,7 +15722,7 @@
         <v>2.58</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU75" t="n">
         <v>1.67</v>
@@ -15922,10 +15922,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU76" t="n">
         <v>1.78</v>
@@ -16125,7 +16125,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.55</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78" t="n">
         <v>1.68</v>
@@ -16734,7 +16734,7 @@
         <v>2.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>2.64</v>
@@ -17140,10 +17140,10 @@
         <v>0.17</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.64</v>
@@ -17343,7 +17343,7 @@
         <v>2.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
         <v>2.64</v>
@@ -18155,7 +18155,7 @@
         <v>0.71</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5</v>
@@ -18361,7 +18361,7 @@
         <v>2.27</v>
       </c>
       <c r="AT88" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU88" t="n">
         <v>1.85</v>
@@ -18561,7 +18561,7 @@
         <v>0.71</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1.25</v>
@@ -18764,10 +18764,10 @@
         <v>1.29</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU90" t="n">
         <v>1.34</v>
@@ -19173,7 +19173,7 @@
         <v>2.17</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU92" t="n">
         <v>1.68</v>
@@ -19376,7 +19376,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU93" t="n">
         <v>1.42</v>
@@ -19576,7 +19576,7 @@
         <v>2.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
         <v>2.64</v>
@@ -19779,10 +19779,10 @@
         <v>0.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -19982,7 +19982,7 @@
         <v>0.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT96" t="n">
         <v>0.82</v>
@@ -20188,7 +20188,7 @@
         <v>2.27</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU97" t="n">
         <v>1.72</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU98" t="n">
         <v>1.78</v>
@@ -20594,7 +20594,7 @@
         <v>1.83</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,10 +20997,10 @@
         <v>2.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU101" t="n">
         <v>1.48</v>
@@ -21200,7 +21200,7 @@
         <v>0.63</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -21403,10 +21403,10 @@
         <v>0.38</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1.7</v>
@@ -21812,7 +21812,7 @@
         <v>2.17</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU105" t="n">
         <v>1.66</v>
@@ -22012,7 +22012,7 @@
         <v>2.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT106" t="n">
         <v>2.64</v>
@@ -22824,7 +22824,7 @@
         <v>0.44</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5</v>
@@ -23027,10 +23027,10 @@
         <v>2.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU111" t="n">
         <v>1.28</v>
@@ -23230,10 +23230,10 @@
         <v>0.11</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU112" t="n">
         <v>1.5</v>
@@ -23436,7 +23436,7 @@
         <v>2.58</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.72</v>
@@ -23636,10 +23636,10 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU114" t="n">
         <v>1.34</v>
@@ -23839,7 +23839,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
         <v>0.82</v>
@@ -24045,7 +24045,7 @@
         <v>1.55</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25260,10 +25260,10 @@
         <v>2.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT122" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU122" t="n">
         <v>1.68</v>
@@ -25463,10 +25463,10 @@
         <v>0.1</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.26</v>
@@ -25666,7 +25666,7 @@
         <v>0.9</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
         <v>0.82</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU127" t="n">
         <v>1.7</v>
@@ -26478,10 +26478,10 @@
         <v>0.9</v>
       </c>
       <c r="AS128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT128" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AT128" t="n">
-        <v>0.91</v>
       </c>
       <c r="AU128" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>1.2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT132" t="n">
         <v>1.17</v>
@@ -27496,7 +27496,7 @@
         <v>2.17</v>
       </c>
       <c r="AT133" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133" t="n">
         <v>1.61</v>
@@ -27696,7 +27696,7 @@
         <v>0.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT134" t="n">
         <v>0.5</v>
@@ -28105,7 +28105,7 @@
         <v>2.17</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU136" t="n">
         <v>1.68</v>
@@ -28308,7 +28308,7 @@
         <v>1.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AU137" t="n">
         <v>1.38</v>
@@ -28766,6 +28766,1021 @@
       </c>
       <c r="BK139" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7198593</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['80', '85']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['52', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>6</v>
+      </c>
+      <c r="S140" t="n">
+        <v>11</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7198590</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['5', '14', '57']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>8</v>
+      </c>
+      <c r="S141" t="n">
+        <v>17</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7198591</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['53', '76']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['25', '74']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>9</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>11</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7198592</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['6', '24']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>9</v>
+      </c>
+      <c r="R143" t="n">
+        <v>5</v>
+      </c>
+      <c r="S143" t="n">
+        <v>14</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7198595</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>4</v>
+      </c>
+      <c r="N144" t="n">
+        <v>6</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['16', '90+3']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['6', '32', '55', '85']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>5</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>8</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.27</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT7" t="n">
         <v>0.92</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT20" t="n">
         <v>0.31</v>
@@ -7399,7 +7399,7 @@
         <v>1.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU34" t="n">
         <v>1.74</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT44" t="n">
         <v>1.08</v>
@@ -9835,7 +9835,7 @@
         <v>1.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU50" t="n">
         <v>1.51</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT51" t="n">
         <v>1.92</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU62" t="n">
         <v>1.9</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU80" t="n">
         <v>1.33</v>
@@ -16937,7 +16937,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT81" t="n">
         <v>0.82</v>
@@ -17346,7 +17346,7 @@
         <v>0.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU83" t="n">
         <v>1.18</v>
@@ -18967,7 +18967,7 @@
         <v>0.57</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU94" t="n">
         <v>1.5</v>
@@ -20388,7 +20388,7 @@
         <v>0.29</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT98" t="n">
         <v>0.92</v>
@@ -21606,7 +21606,7 @@
         <v>1.13</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT104" t="n">
         <v>1.17</v>
@@ -22015,7 +22015,7 @@
         <v>1.83</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU106" t="n">
         <v>1.74</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24654,7 +24654,7 @@
         <v>2.17</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -26887,7 +26887,7 @@
         <v>1.55</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AU130" t="n">
         <v>1.52</v>
@@ -27087,7 +27087,7 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT131" t="n">
         <v>1.25</v>
@@ -27899,7 +27899,7 @@
         <v>1.09</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT135" t="n">
         <v>1.25</v>
@@ -29033,13 +29033,13 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R141" t="n">
         <v>8</v>
       </c>
       <c r="S141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T141" t="n">
         <v>3.04</v>
@@ -29642,13 +29642,13 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R144" t="n">
         <v>3</v>
       </c>
       <c r="S144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T144" t="n">
         <v>3.3</v>
@@ -29781,6 +29781,209 @@
       </c>
       <c r="BK144" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7198594</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45194.67708333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['36', '42', '90']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>7</v>
+      </c>
+      <c r="S145" t="n">
+        <v>11</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ145"/>
+  <dimension ref="A1:AZ146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.17</v>
@@ -1179,7 +1179,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR9" t="n">
         <v>1.32</v>
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.5</v>
@@ -4409,7 +4409,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR23" t="n">
         <v>1.41</v>
@@ -4916,7 +4916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -5089,7 +5089,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR27" t="n">
         <v>1.25</v>
@@ -6959,7 +6959,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR38" t="n">
         <v>1.79</v>
@@ -7126,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.92</v>
@@ -8996,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.42</v>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR52" t="n">
         <v>1.23</v>
@@ -9846,7 +9846,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.31</v>
@@ -11376,7 +11376,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.82</v>
@@ -11549,7 +11549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR65" t="n">
         <v>1.59</v>
@@ -15969,7 +15969,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR91" t="n">
         <v>1.83</v>
@@ -17326,7 +17326,7 @@
         <v>1.25</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.92</v>
@@ -17499,7 +17499,7 @@
         <v>2.58</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR100" t="n">
         <v>1.66</v>
@@ -19026,7 +19026,7 @@
         <v>1.89</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.64</v>
@@ -19199,7 +19199,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR110" t="n">
         <v>1.7</v>
@@ -21066,7 +21066,7 @@
         <v>0.9</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.92</v>
@@ -21919,7 +21919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR126" t="n">
         <v>1.42</v>
@@ -23279,7 +23279,7 @@
         <v>1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR134" t="n">
         <v>1.36</v>
@@ -23956,7 +23956,7 @@
         <v>0.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.5</v>
@@ -25177,6 +25177,176 @@
       </c>
       <c r="AZ145" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7198598</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45197.55208333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['19', '54']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U146" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ146"/>
+  <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.46</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.42</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR12" t="n">
         <v>1.81</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.31</v>
@@ -2879,7 +2879,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR15" t="n">
         <v>1.26</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.92</v>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR17" t="n">
         <v>1.66</v>
@@ -3556,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR18" t="n">
         <v>1.43</v>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.92</v>
@@ -4069,7 +4069,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR22" t="n">
         <v>1.39</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.08</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.92</v>
@@ -4919,7 +4919,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR26" t="n">
         <v>1.41</v>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.46</v>
@@ -5596,10 +5596,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.83</v>
@@ -5766,10 +5766,10 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.08</v>
@@ -6106,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR33" t="n">
         <v>1.46</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.92</v>
@@ -6619,7 +6619,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR36" t="n">
         <v>1.48</v>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.34</v>
@@ -6956,7 +6956,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.46</v>
@@ -7299,7 +7299,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR40" t="n">
         <v>1.67</v>
@@ -7806,10 +7806,10 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR43" t="n">
         <v>1.86</v>
@@ -8146,10 +8146,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -8316,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.42</v>
@@ -8489,7 +8489,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -8656,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -8826,10 +8826,10 @@
         <v>0.8</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR49" t="n">
         <v>1.51</v>
@@ -10019,7 +10019,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>1.26</v>
@@ -10186,7 +10186,7 @@
         <v>2.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.92</v>
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR59" t="n">
         <v>1.32</v>
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.08</v>
@@ -10866,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR61" t="n">
         <v>1.6</v>
@@ -11206,10 +11206,10 @@
         <v>0.8</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -11379,7 +11379,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -11719,7 +11719,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -11886,7 +11886,7 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.92</v>
@@ -12056,7 +12056,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.31</v>
@@ -12399,7 +12399,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR70" t="n">
         <v>1.05</v>
@@ -12566,10 +12566,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.29</v>
@@ -13246,7 +13246,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.92</v>
@@ -13589,7 +13589,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR77" t="n">
         <v>1.4</v>
@@ -13756,7 +13756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.92</v>
@@ -13926,10 +13926,10 @@
         <v>0.83</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR79" t="n">
         <v>1.84</v>
@@ -14269,7 +14269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -14776,10 +14776,10 @@
         <v>0.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR84" t="n">
         <v>1.74</v>
@@ -14946,10 +14946,10 @@
         <v>1.14</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR85" t="n">
         <v>1.33</v>
@@ -15116,10 +15116,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -15289,7 +15289,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -15456,7 +15456,7 @@
         <v>2.57</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.92</v>
@@ -15629,7 +15629,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -16136,7 +16136,7 @@
         <v>0.14</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.31</v>
@@ -16306,7 +16306,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.92</v>
@@ -16819,7 +16819,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR96" t="n">
         <v>1.75</v>
@@ -16986,7 +16986,7 @@
         <v>0.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.31</v>
@@ -17496,7 +17496,7 @@
         <v>0.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.46</v>
@@ -17839,7 +17839,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR102" t="n">
         <v>1.24</v>
@@ -18179,7 +18179,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR104" t="n">
         <v>1.78</v>
@@ -18346,7 +18346,7 @@
         <v>0.86</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.08</v>
@@ -18686,10 +18686,10 @@
         <v>0.63</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR107" t="n">
         <v>1.54</v>
@@ -18856,10 +18856,10 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR108" t="n">
         <v>1.38</v>
@@ -19029,7 +19029,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -19706,7 +19706,7 @@
         <v>1.22</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.92</v>
@@ -20049,7 +20049,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -20216,7 +20216,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.08</v>
@@ -20389,7 +20389,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR117" t="n">
         <v>1.91</v>
@@ -20556,10 +20556,10 @@
         <v>0.89</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR118" t="n">
         <v>1.44</v>
@@ -20726,7 +20726,7 @@
         <v>2.56</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.42</v>
@@ -20896,10 +20896,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR120" t="n">
         <v>1.7</v>
@@ -21579,7 +21579,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR124" t="n">
         <v>1.55</v>
@@ -21746,10 +21746,10 @@
         <v>1.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.9</v>
@@ -21916,7 +21916,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.46</v>
@@ -22426,10 +22426,10 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR129" t="n">
         <v>1.66</v>
@@ -22596,7 +22596,7 @@
         <v>2.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.42</v>
@@ -22769,7 +22769,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR131" t="n">
         <v>1.91</v>
@@ -22939,7 +22939,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR132" t="n">
         <v>1.63</v>
@@ -23106,7 +23106,7 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.92</v>
@@ -23449,7 +23449,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR135" t="n">
         <v>1.83</v>
@@ -23616,7 +23616,7 @@
         <v>0.82</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.92</v>
@@ -23786,7 +23786,7 @@
         <v>0.18</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.31</v>
@@ -23959,7 +23959,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR138" t="n">
         <v>1.51</v>
@@ -24126,10 +24126,10 @@
         <v>1.18</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR139" t="n">
         <v>1.94</v>
@@ -25347,6 +25347,856 @@
       </c>
       <c r="AZ146" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7198596</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['5', '34']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7198597</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['80', '83']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X148" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7198599</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['5', '72', '84']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S149" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X149" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7198600</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>4</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>6</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['21', '42', '80', '89']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['40', '63']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>3</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7198601</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45197.67708333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['7', '54']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['45+2', '72']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X151" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -25331,22 +25331,22 @@
         <v>2.9</v>
       </c>
       <c r="AU146" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV146" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW146" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX146" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY146" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ146" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ151"/>
+  <dimension ref="A1:AZ155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.15</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.08</v>
@@ -2029,7 +2029,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR9" t="n">
         <v>1.32</v>
@@ -2369,7 +2369,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR12" t="n">
         <v>1.81</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.31</v>
@@ -2879,7 +2879,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.92</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.39</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR23" t="n">
         <v>1.41</v>
@@ -4579,7 +4579,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>2.03</v>
@@ -5086,10 +5086,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR27" t="n">
         <v>1.25</v>
@@ -5256,7 +5256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.92</v>
@@ -5599,7 +5599,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR30" t="n">
         <v>1.83</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>1.34</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.92</v>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR37" t="n">
         <v>1.34</v>
@@ -6959,7 +6959,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR38" t="n">
         <v>1.79</v>
@@ -7296,10 +7296,10 @@
         <v>2.25</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.67</v>
@@ -7466,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.92</v>
@@ -7979,7 +7979,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>2.12</v>
@@ -8316,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.42</v>
@@ -8659,7 +8659,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.85</v>
@@ -8826,7 +8826,7 @@
         <v>0.8</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.08</v>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR52" t="n">
         <v>1.23</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.92</v>
@@ -10016,10 +10016,10 @@
         <v>2.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.26</v>
@@ -10699,7 +10699,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.83</v>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.46</v>
@@ -11379,7 +11379,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.5</v>
@@ -11546,10 +11546,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR65" t="n">
         <v>1.59</v>
@@ -11719,7 +11719,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR66" t="n">
         <v>1.59</v>
@@ -11886,7 +11886,7 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.92</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.92</v>
@@ -12396,10 +12396,10 @@
         <v>0.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.05</v>
@@ -12566,10 +12566,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR71" t="n">
         <v>1.29</v>
@@ -13076,10 +13076,10 @@
         <v>0.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.46</v>
@@ -13419,7 +13419,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.78</v>
@@ -13586,7 +13586,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.46</v>
@@ -13756,7 +13756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.92</v>
@@ -14269,7 +14269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>1.81</v>
@@ -14606,7 +14606,7 @@
         <v>2.67</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.42</v>
@@ -14779,7 +14779,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.74</v>
@@ -14946,7 +14946,7 @@
         <v>1.14</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.08</v>
@@ -15116,10 +15116,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR86" t="n">
         <v>1.62</v>
@@ -15626,7 +15626,7 @@
         <v>0.71</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.15</v>
@@ -15969,7 +15969,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR91" t="n">
         <v>1.83</v>
@@ -16306,7 +16306,7 @@
         <v>0.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.92</v>
@@ -16476,7 +16476,7 @@
         <v>2.43</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ94" t="n">
         <v>2.42</v>
@@ -16646,10 +16646,10 @@
         <v>0.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.16</v>
@@ -16819,7 +16819,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.75</v>
@@ -17499,7 +17499,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR100" t="n">
         <v>1.66</v>
@@ -17666,7 +17666,7 @@
         <v>2.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.92</v>
@@ -17836,7 +17836,7 @@
         <v>0.63</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.15</v>
@@ -18349,7 +18349,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.66</v>
@@ -18686,10 +18686,10 @@
         <v>0.63</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.54</v>
@@ -18856,7 +18856,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.46</v>
@@ -19029,7 +19029,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -19199,7 +19199,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR110" t="n">
         <v>1.7</v>
@@ -19366,7 +19366,7 @@
         <v>2.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.92</v>
@@ -19536,7 +19536,7 @@
         <v>0.11</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.31</v>
@@ -20049,7 +20049,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -20216,10 +20216,10 @@
         <v>0.75</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR116" t="n">
         <v>1.54</v>
@@ -20556,7 +20556,7 @@
         <v>0.89</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.15</v>
@@ -21406,7 +21406,7 @@
         <v>0.1</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.31</v>
@@ -21576,10 +21576,10 @@
         <v>0.9</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR124" t="n">
         <v>1.55</v>
@@ -21749,7 +21749,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR125" t="n">
         <v>1.9</v>
@@ -21916,10 +21916,10 @@
         <v>0.4</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR126" t="n">
         <v>1.42</v>
@@ -22089,7 +22089,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.7</v>
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.33</v>
@@ -22596,7 +22596,7 @@
         <v>2.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ130" t="n">
         <v>2.42</v>
@@ -23279,7 +23279,7 @@
         <v>1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR134" t="n">
         <v>1.36</v>
@@ -23786,7 +23786,7 @@
         <v>0.18</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.31</v>
@@ -24636,7 +24636,7 @@
         <v>2</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.92</v>
@@ -24806,7 +24806,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.92</v>
@@ -24979,7 +24979,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.35</v>
@@ -25319,7 +25319,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR146" t="n">
         <v>1.51</v>
@@ -25826,7 +25826,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.46</v>
@@ -25999,7 +25999,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR150" t="n">
         <v>1.69</v>
@@ -26166,10 +26166,10 @@
         <v>0.82</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.41</v>
@@ -26197,6 +26197,686 @@
       </c>
       <c r="AZ151" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7198606</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3</v>
+      </c>
+      <c r="K152" t="n">
+        <v>4</v>
+      </c>
+      <c r="L152" t="n">
+        <v>4</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>7</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['33', '52', '90+2', '90+3']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['10', '24', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S152" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7198607</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['51', '63', '70']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7198604</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45200.58333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7198605</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45200.58333333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U155" t="n">
+        <v>4</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ155"/>
+  <dimension ref="A1:AZ157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.64</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.38</v>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR17" t="n">
         <v>1.66</v>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.92</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.92</v>
@@ -4919,7 +4919,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR26" t="n">
         <v>1.41</v>
@@ -5596,7 +5596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.38</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.08</v>
@@ -6279,7 +6279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR34" t="n">
         <v>1.74</v>
@@ -6956,7 +6956,7 @@
         <v>0.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.64</v>
@@ -7809,7 +7809,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR43" t="n">
         <v>1.86</v>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.46</v>
@@ -8319,7 +8319,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR46" t="n">
         <v>1.33</v>
@@ -8489,7 +8489,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR47" t="n">
         <v>1.38</v>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR50" t="n">
         <v>1.51</v>
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ60" t="n">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR62" t="n">
         <v>1.9</v>
@@ -11206,10 +11206,10 @@
         <v>0.8</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -13926,10 +13926,10 @@
         <v>0.83</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR79" t="n">
         <v>1.84</v>
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR80" t="n">
         <v>1.33</v>
@@ -14609,7 +14609,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR83" t="n">
         <v>1.18</v>
@@ -14776,7 +14776,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84" t="n">
         <v>1</v>
@@ -15456,7 +15456,7 @@
         <v>2.57</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.92</v>
@@ -15629,7 +15629,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR89" t="n">
         <v>1.46</v>
@@ -16136,7 +16136,7 @@
         <v>0.14</v>
       </c>
       <c r="AP92" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.31</v>
@@ -16479,7 +16479,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR94" t="n">
         <v>1.5</v>
@@ -16986,7 +16986,7 @@
         <v>0.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.31</v>
@@ -17839,7 +17839,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR102" t="n">
         <v>1.24</v>
@@ -18346,7 +18346,7 @@
         <v>0.86</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -18519,7 +18519,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR106" t="n">
         <v>1.74</v>
@@ -20559,7 +20559,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR118" t="n">
         <v>1.44</v>
@@ -20726,10 +20726,10 @@
         <v>2.56</v>
       </c>
       <c r="AP119" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ119" t="n">
         <v>2.23</v>
-      </c>
-      <c r="AQ119" t="n">
-        <v>2.42</v>
       </c>
       <c r="AR119" t="n">
         <v>1.68</v>
@@ -20896,7 +20896,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.08</v>
@@ -22426,7 +22426,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.46</v>
@@ -22599,7 +22599,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ130" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR130" t="n">
         <v>1.52</v>
@@ -22769,7 +22769,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR131" t="n">
         <v>1.91</v>
@@ -23106,7 +23106,7 @@
         <v>1.1</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.92</v>
@@ -23449,7 +23449,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR135" t="n">
         <v>1.83</v>
@@ -23616,7 +23616,7 @@
         <v>0.82</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.92</v>
@@ -25149,7 +25149,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -25486,7 +25486,7 @@
         <v>1.17</v>
       </c>
       <c r="AP147" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.08</v>
@@ -25659,7 +25659,7 @@
         <v>2.62</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR148" t="n">
         <v>1.91</v>
@@ -25996,7 +25996,7 @@
         <v>1.64</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.38</v>
@@ -26351,22 +26351,22 @@
         <v>3.27</v>
       </c>
       <c r="AU152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV152" t="n">
         <v>5</v>
       </c>
-      <c r="AV152" t="n">
+      <c r="AW152" t="n">
         <v>4</v>
       </c>
-      <c r="AW152" t="n">
-        <v>0</v>
-      </c>
       <c r="AX152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY152" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ152" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -26524,7 +26524,7 @@
         <v>2</v>
       </c>
       <c r="AV153" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW153" t="n">
         <v>0</v>
@@ -26536,7 +26536,7 @@
         <v>2</v>
       </c>
       <c r="AZ153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -26691,22 +26691,22 @@
         <v>2.81</v>
       </c>
       <c r="AU154" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV154" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW154" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX154" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY154" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ154" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -26861,22 +26861,362 @@
         <v>2.96</v>
       </c>
       <c r="AU155" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV155" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW155" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX155" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY155" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ155" t="n">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7198602</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45200.67708333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['8', '62', '65', '75']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U156" t="n">
+        <v>4</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X156" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7198603</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45201.67708333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['4', '7', '61']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X157" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ157"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>10</v>
       </c>
+      <c r="BA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>14</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>11</v>
       </c>
+      <c r="BA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>18</v>
       </c>
+      <c r="BA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>13</v>
       </c>
+      <c r="BA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>10</v>
       </c>
+      <c r="BA7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>24</v>
       </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>6</v>
       </c>
+      <c r="BA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>9</v>
       </c>
+      <c r="BA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
+      <c r="BA11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
+      <c r="BA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>13</v>
       </c>
+      <c r="BA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>12</v>
       </c>
+      <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>9</v>
       </c>
+      <c r="BA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>21</v>
       </c>
+      <c r="BA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>11</v>
       </c>
+      <c r="BA18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>10</v>
       </c>
+      <c r="BA19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>7</v>
       </c>
+      <c r="BA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>15</v>
       </c>
+      <c r="BA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>12</v>
       </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
+      <c r="BA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>10</v>
       </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>11</v>
       </c>
+      <c r="BA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
+      <c r="BA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>12</v>
       </c>
+      <c r="BA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
+      <c r="BA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>8</v>
       </c>
+      <c r="BA29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
+      <c r="BA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>10</v>
       </c>
+      <c r="BA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>10</v>
       </c>
+      <c r="BA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>26</v>
       </c>
+      <c r="BA34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>15</v>
       </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>8</v>
       </c>
+      <c r="BA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>9</v>
       </c>
+      <c r="BA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>9</v>
       </c>
+      <c r="BA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>13</v>
       </c>
+      <c r="BA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>9</v>
       </c>
+      <c r="BA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>15</v>
       </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>17</v>
       </c>
+      <c r="BA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>13</v>
       </c>
+      <c r="BA43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>11</v>
       </c>
+      <c r="BA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>9</v>
       </c>
+      <c r="BA45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>14</v>
       </c>
+      <c r="BA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>10</v>
       </c>
+      <c r="BA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>17</v>
       </c>
+      <c r="BA48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>16</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>13</v>
       </c>
+      <c r="BA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>9</v>
       </c>
+      <c r="BA51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>16</v>
       </c>
+      <c r="BA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>6</v>
       </c>
+      <c r="BA53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>6</v>
       </c>
+      <c r="BA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>13</v>
       </c>
+      <c r="BA55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>8</v>
       </c>
+      <c r="BA56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>7</v>
       </c>
+      <c r="BA57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>6</v>
       </c>
+      <c r="BA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>18</v>
       </c>
+      <c r="BA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>7</v>
       </c>
+      <c r="BA60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>8</v>
       </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>7</v>
       </c>
+      <c r="BA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>7</v>
       </c>
+      <c r="BA63" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>12</v>
       </c>
+      <c r="BA64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>15</v>
       </c>
+      <c r="BA65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>13</v>
       </c>
+      <c r="BA66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>17</v>
       </c>
+      <c r="BA67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>3</v>
       </c>
+      <c r="BA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>11</v>
       </c>
+      <c r="BA69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>9</v>
       </c>
+      <c r="BA70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>10</v>
       </c>
+      <c r="BA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>4</v>
       </c>
+      <c r="BA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>11</v>
       </c>
+      <c r="BA73" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>6</v>
       </c>
+      <c r="BA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>11</v>
       </c>
+      <c r="BA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>14</v>
       </c>
+      <c r="BA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>2</v>
       </c>
+      <c r="BA77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>12</v>
       </c>
+      <c r="BA78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>6</v>
       </c>
+      <c r="BA79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>10</v>
       </c>
+      <c r="BA80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>10</v>
       </c>
+      <c r="BA81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>9</v>
       </c>
+      <c r="BA82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>11</v>
       </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>16</v>
       </c>
+      <c r="BA84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>13</v>
       </c>
+      <c r="BA85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>19</v>
       </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>5</v>
       </c>
+      <c r="BA87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>11</v>
       </c>
+      <c r="BA88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15658,6 +19914,54 @@
       <c r="AZ89" t="n">
         <v>13</v>
       </c>
+      <c r="BA89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -15828,6 +20132,54 @@
       <c r="AZ90" t="n">
         <v>9</v>
       </c>
+      <c r="BA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -15998,6 +20350,54 @@
       <c r="AZ91" t="n">
         <v>6</v>
       </c>
+      <c r="BA91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -16168,6 +20568,54 @@
       <c r="AZ92" t="n">
         <v>5</v>
       </c>
+      <c r="BA92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -16338,6 +20786,54 @@
       <c r="AZ93" t="n">
         <v>13</v>
       </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -16508,6 +21004,54 @@
       <c r="AZ94" t="n">
         <v>10</v>
       </c>
+      <c r="BA94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -16678,6 +21222,54 @@
       <c r="AZ95" t="n">
         <v>18</v>
       </c>
+      <c r="BA95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -16848,6 +21440,54 @@
       <c r="AZ96" t="n">
         <v>8</v>
       </c>
+      <c r="BA96" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17018,6 +21658,54 @@
       <c r="AZ97" t="n">
         <v>4</v>
       </c>
+      <c r="BA97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17188,6 +21876,54 @@
       <c r="AZ98" t="n">
         <v>8</v>
       </c>
+      <c r="BA98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17358,6 +22094,54 @@
       <c r="AZ99" t="n">
         <v>16</v>
       </c>
+      <c r="BA99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17528,6 +22312,54 @@
       <c r="AZ100" t="n">
         <v>4</v>
       </c>
+      <c r="BA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17698,6 +22530,54 @@
       <c r="AZ101" t="n">
         <v>12</v>
       </c>
+      <c r="BA101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17868,6 +22748,54 @@
       <c r="AZ102" t="n">
         <v>13</v>
       </c>
+      <c r="BA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -18038,6 +22966,54 @@
       <c r="AZ103" t="n">
         <v>14</v>
       </c>
+      <c r="BA103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -18208,6 +23184,54 @@
       <c r="AZ104" t="n">
         <v>15</v>
       </c>
+      <c r="BA104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -18378,6 +23402,54 @@
       <c r="AZ105" t="n">
         <v>17</v>
       </c>
+      <c r="BA105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18548,6 +23620,54 @@
       <c r="AZ106" t="n">
         <v>7</v>
       </c>
+      <c r="BA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18718,6 +23838,54 @@
       <c r="AZ107" t="n">
         <v>20</v>
       </c>
+      <c r="BA107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18888,6 +24056,54 @@
       <c r="AZ108" t="n">
         <v>5</v>
       </c>
+      <c r="BA108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -19058,6 +24274,54 @@
       <c r="AZ109" t="n">
         <v>12</v>
       </c>
+      <c r="BA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -19228,6 +24492,54 @@
       <c r="AZ110" t="n">
         <v>7</v>
       </c>
+      <c r="BA110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -19398,6 +24710,54 @@
       <c r="AZ111" t="n">
         <v>8</v>
       </c>
+      <c r="BA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -19568,6 +24928,54 @@
       <c r="AZ112" t="n">
         <v>15</v>
       </c>
+      <c r="BA112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -19738,6 +25146,54 @@
       <c r="AZ113" t="n">
         <v>7</v>
       </c>
+      <c r="BA113" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -19908,6 +25364,54 @@
       <c r="AZ114" t="n">
         <v>10</v>
       </c>
+      <c r="BA114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -20078,6 +25582,54 @@
       <c r="AZ115" t="n">
         <v>15</v>
       </c>
+      <c r="BA115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -20248,6 +25800,54 @@
       <c r="AZ116" t="n">
         <v>5</v>
       </c>
+      <c r="BA116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -20418,6 +26018,54 @@
       <c r="AZ117" t="n">
         <v>6</v>
       </c>
+      <c r="BA117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -20588,6 +26236,54 @@
       <c r="AZ118" t="n">
         <v>7</v>
       </c>
+      <c r="BA118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -20758,6 +26454,54 @@
       <c r="AZ119" t="n">
         <v>17</v>
       </c>
+      <c r="BA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -20928,6 +26672,54 @@
       <c r="AZ120" t="n">
         <v>9</v>
       </c>
+      <c r="BA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -21098,6 +26890,54 @@
       <c r="AZ121" t="n">
         <v>12</v>
       </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -21268,6 +27108,54 @@
       <c r="AZ122" t="n">
         <v>16</v>
       </c>
+      <c r="BA122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -21438,6 +27326,54 @@
       <c r="AZ123" t="n">
         <v>10</v>
       </c>
+      <c r="BA123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -21608,6 +27544,54 @@
       <c r="AZ124" t="n">
         <v>0</v>
       </c>
+      <c r="BA124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -21778,6 +27762,54 @@
       <c r="AZ125" t="n">
         <v>10</v>
       </c>
+      <c r="BA125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -21948,6 +27980,54 @@
       <c r="AZ126" t="n">
         <v>16</v>
       </c>
+      <c r="BA126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -22118,6 +28198,54 @@
       <c r="AZ127" t="n">
         <v>6</v>
       </c>
+      <c r="BA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -22288,6 +28416,54 @@
       <c r="AZ128" t="n">
         <v>12</v>
       </c>
+      <c r="BA128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -22458,6 +28634,54 @@
       <c r="AZ129" t="n">
         <v>6</v>
       </c>
+      <c r="BA129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -22628,6 +28852,54 @@
       <c r="AZ130" t="n">
         <v>11</v>
       </c>
+      <c r="BA130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -22798,6 +29070,54 @@
       <c r="AZ131" t="n">
         <v>16</v>
       </c>
+      <c r="BA131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -22968,6 +29288,54 @@
       <c r="AZ132" t="n">
         <v>21</v>
       </c>
+      <c r="BA132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -23138,6 +29506,54 @@
       <c r="AZ133" t="n">
         <v>9</v>
       </c>
+      <c r="BA133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -23308,6 +29724,54 @@
       <c r="AZ134" t="n">
         <v>5</v>
       </c>
+      <c r="BA134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -23478,6 +29942,54 @@
       <c r="AZ135" t="n">
         <v>10</v>
       </c>
+      <c r="BA135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -23648,6 +30160,54 @@
       <c r="AZ136" t="n">
         <v>19</v>
       </c>
+      <c r="BA136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -23818,6 +30378,54 @@
       <c r="AZ137" t="n">
         <v>13</v>
       </c>
+      <c r="BA137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -23988,6 +30596,54 @@
       <c r="AZ138" t="n">
         <v>21</v>
       </c>
+      <c r="BA138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -24158,6 +30814,54 @@
       <c r="AZ139" t="n">
         <v>12</v>
       </c>
+      <c r="BA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -24328,6 +31032,54 @@
       <c r="AZ140" t="n">
         <v>7</v>
       </c>
+      <c r="BA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -24498,6 +31250,54 @@
       <c r="AZ141" t="n">
         <v>15</v>
       </c>
+      <c r="BA141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -24668,6 +31468,54 @@
       <c r="AZ142" t="n">
         <v>8</v>
       </c>
+      <c r="BA142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -24838,6 +31686,54 @@
       <c r="AZ143" t="n">
         <v>12</v>
       </c>
+      <c r="BA143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -25008,6 +31904,54 @@
       <c r="AZ144" t="n">
         <v>13</v>
       </c>
+      <c r="BA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -25178,6 +32122,54 @@
       <c r="AZ145" t="n">
         <v>10</v>
       </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -25348,6 +32340,54 @@
       <c r="AZ146" t="n">
         <v>11</v>
       </c>
+      <c r="BA146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -25518,6 +32558,54 @@
       <c r="AZ147" t="n">
         <v>11</v>
       </c>
+      <c r="BA147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -25688,6 +32776,54 @@
       <c r="AZ148" t="n">
         <v>5</v>
       </c>
+      <c r="BA148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -25858,6 +32994,54 @@
       <c r="AZ149" t="n">
         <v>9</v>
       </c>
+      <c r="BA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -26028,6 +33212,54 @@
       <c r="AZ150" t="n">
         <v>23</v>
       </c>
+      <c r="BA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -26198,6 +33430,54 @@
       <c r="AZ151" t="n">
         <v>12</v>
       </c>
+      <c r="BA151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -26368,6 +33648,54 @@
       <c r="AZ152" t="n">
         <v>6</v>
       </c>
+      <c r="BA152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -26538,6 +33866,54 @@
       <c r="AZ153" t="n">
         <v>18</v>
       </c>
+      <c r="BA153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -26708,6 +34084,54 @@
       <c r="AZ154" t="n">
         <v>12</v>
       </c>
+      <c r="BA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -26878,6 +34302,54 @@
       <c r="AZ155" t="n">
         <v>7</v>
       </c>
+      <c r="BA155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -27048,6 +34520,54 @@
       <c r="AZ156" t="n">
         <v>8</v>
       </c>
+      <c r="BA156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -27217,6 +34737,54 @@
       </c>
       <c r="AZ157" t="n">
         <v>18</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.64</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.38</v>
@@ -3750,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR15" t="n">
         <v>1.26</v>
@@ -3971,7 +3971,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR16" t="n">
         <v>1.01</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.07</v>
@@ -4404,10 +4404,10 @@
         <v>2</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.43</v>
@@ -4625,7 +4625,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR19" t="n">
         <v>1.26</v>
@@ -4840,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -5058,10 +5058,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6148,7 +6148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.07</v>
@@ -6587,7 +6587,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR29" t="n">
         <v>1.68</v>
@@ -7238,10 +7238,10 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.82</v>
@@ -7677,7 +7677,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.46</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.23</v>
@@ -8113,7 +8113,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR35" t="n">
         <v>1.36</v>
@@ -8328,10 +8328,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR36" t="n">
         <v>1.48</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.38</v>
@@ -8982,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR39" t="n">
         <v>1.52</v>
@@ -9421,7 +9421,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR41" t="n">
         <v>1.25</v>
@@ -9636,10 +9636,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.07</v>
@@ -10072,7 +10072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10726,7 +10726,7 @@
         <v>0.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.07</v>
@@ -11165,7 +11165,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.51</v>
@@ -11380,7 +11380,7 @@
         <v>3</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.23</v>
@@ -11598,10 +11598,10 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>1.77</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1.92</v>
       </c>
       <c r="AR51" t="n">
         <v>1.99</v>
@@ -11816,7 +11816,7 @@
         <v>0.6</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.64</v>
@@ -12037,7 +12037,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR53" t="n">
         <v>1.17</v>
@@ -12252,10 +12252,10 @@
         <v>2.25</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR54" t="n">
         <v>1.43</v>
@@ -12470,10 +12470,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR55" t="n">
         <v>1.39</v>
@@ -12906,10 +12906,10 @@
         <v>2.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR57" t="n">
         <v>1.73</v>
@@ -13124,10 +13124,10 @@
         <v>1.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR58" t="n">
         <v>1.31</v>
@@ -13342,10 +13342,10 @@
         <v>1.17</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.32</v>
@@ -13781,7 +13781,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.6</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62" t="n">
         <v>2.23</v>
@@ -14432,7 +14432,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>2.17</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.38</v>
@@ -15089,7 +15089,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR67" t="n">
         <v>1.29</v>
@@ -15304,10 +15304,10 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR68" t="n">
         <v>1.69</v>
@@ -15525,7 +15525,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR69" t="n">
         <v>1.13</v>
@@ -16176,10 +16176,10 @@
         <v>0.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR72" t="n">
         <v>1.78</v>
@@ -16394,10 +16394,10 @@
         <v>2.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR73" t="n">
         <v>1.72</v>
@@ -16830,10 +16830,10 @@
         <v>0.2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR75" t="n">
         <v>1.67</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.4</v>
@@ -17487,7 +17487,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR78" t="n">
         <v>1.68</v>
@@ -17920,7 +17920,7 @@
         <v>2.6</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80" t="n">
         <v>2.23</v>
@@ -18138,7 +18138,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ81" t="n">
         <v>1</v>
@@ -18356,10 +18356,10 @@
         <v>0.17</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR82" t="n">
         <v>1.64</v>
@@ -19013,7 +19013,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR85" t="n">
         <v>1.33</v>
@@ -19446,10 +19446,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.69</v>
@@ -19667,7 +19667,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR88" t="n">
         <v>1.85</v>
@@ -20100,10 +20100,10 @@
         <v>1.29</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR90" t="n">
         <v>1.34</v>
@@ -20318,7 +20318,7 @@
         <v>0.57</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.64</v>
@@ -20539,7 +20539,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR92" t="n">
         <v>1.68</v>
@@ -20757,7 +20757,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR93" t="n">
         <v>1.42</v>
@@ -21408,7 +21408,7 @@
         <v>0.29</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR97" t="n">
         <v>1.72</v>
@@ -21844,10 +21844,10 @@
         <v>0.29</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR98" t="n">
         <v>1.78</v>
@@ -22062,10 +22062,10 @@
         <v>1.25</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR99" t="n">
         <v>1.55</v>
@@ -22280,7 +22280,7 @@
         <v>0.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.64</v>
@@ -22501,7 +22501,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22934,10 +22934,10 @@
         <v>0.38</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR103" t="n">
         <v>1.7</v>
@@ -23152,10 +23152,10 @@
         <v>1.13</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.78</v>
@@ -23588,7 +23588,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.23</v>
@@ -24027,7 +24027,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.38</v>
@@ -24242,7 +24242,7 @@
         <v>1.89</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.38</v>
@@ -24460,7 +24460,7 @@
         <v>0.44</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.64</v>
@@ -24681,7 +24681,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR111" t="n">
         <v>1.28</v>
@@ -24899,7 +24899,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR112" t="n">
         <v>1.5</v>
@@ -25114,10 +25114,10 @@
         <v>1.22</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR113" t="n">
         <v>1.72</v>
@@ -25332,10 +25332,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR114" t="n">
         <v>1.34</v>
@@ -25550,7 +25550,7 @@
         <v>0.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25986,10 +25986,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.91</v>
@@ -26643,7 +26643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.7</v>
@@ -26858,10 +26858,10 @@
         <v>0.9</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR121" t="n">
         <v>1.54</v>
@@ -27076,10 +27076,10 @@
         <v>2.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR122" t="n">
         <v>1.68</v>
@@ -27297,7 +27297,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR123" t="n">
         <v>1.26</v>
@@ -27730,7 +27730,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.38</v>
@@ -28166,7 +28166,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28384,7 +28384,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ128" t="n">
         <v>1</v>
@@ -28605,7 +28605,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR129" t="n">
         <v>1.66</v>
@@ -29038,7 +29038,7 @@
         <v>0.9</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.07</v>
@@ -29256,10 +29256,10 @@
         <v>1.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
         <v>1.63</v>
@@ -29477,7 +29477,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR133" t="n">
         <v>1.61</v>
@@ -29692,7 +29692,7 @@
         <v>0.45</v>
       </c>
       <c r="AP134" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.64</v>
@@ -29910,7 +29910,7 @@
         <v>1.09</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.07</v>
@@ -30131,7 +30131,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR136" t="n">
         <v>1.68</v>
@@ -30349,7 +30349,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR137" t="n">
         <v>1.38</v>
@@ -30564,10 +30564,10 @@
         <v>0.55</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR138" t="n">
         <v>1.51</v>
@@ -30782,10 +30782,10 @@
         <v>1.18</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR139" t="n">
         <v>1.94</v>
@@ -31000,10 +31000,10 @@
         <v>0.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR140" t="n">
         <v>1.6</v>
@@ -31218,10 +31218,10 @@
         <v>0.75</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR141" t="n">
         <v>1.73</v>
@@ -31439,7 +31439,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR142" t="n">
         <v>1.5</v>
@@ -31657,7 +31657,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR143" t="n">
         <v>1.27</v>
@@ -31872,7 +31872,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>2.64</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ145" t="n">
         <v>2.23</v>
@@ -32308,7 +32308,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.64</v>
@@ -32529,7 +32529,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.69</v>
@@ -32744,7 +32744,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.07</v>
@@ -32965,7 +32965,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.5</v>
@@ -34785,6 +34785,1314 @@
       </c>
       <c r="BP157" t="n">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7198611</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U158" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X158" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7198610</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X159" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7198612</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>4</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>6</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['26', '36', '45+5', '54', '90']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U160" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X160" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7198609</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['29', '55', '86']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7199048</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>5</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['34', '48', '53', '56', '79']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S162" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7198608</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45207.45833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['14', '55']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U163" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X163" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -34957,13 +34957,13 @@
         <v>5</v>
       </c>
       <c r="BA158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC158" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD158" t="n">
         <v>1.45</v>
@@ -36029,31 +36029,31 @@
         <v>3.46</v>
       </c>
       <c r="AU163" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV163" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW163" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX163" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY163" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ163" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA163" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB163" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC163" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD163" t="n">
         <v>1.82</v>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Iceland Úrvalsdeild_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
